--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3.29999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>46.15384615384622</v>
+      </c>
       <c r="L12" t="n">
         <v>49.31</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.29999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>39.1304347826088</v>
+      </c>
       <c r="L13" t="n">
         <v>49.43</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.29999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>39.1304347826088</v>
+      </c>
       <c r="L14" t="n">
         <v>49.52</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4.099999999999987</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-7.142857142857016</v>
+      </c>
       <c r="L15" t="n">
         <v>49.53000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>4.79999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-21.21212121212131</v>
+      </c>
       <c r="L16" t="n">
         <v>49.44</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>5.399999999999991</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-5.263157894736921</v>
+      </c>
       <c r="L17" t="n">
         <v>49.43000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>6.79999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-51.11111111111105</v>
+      </c>
       <c r="L18" t="n">
         <v>49.27000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>7.499999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-23.40425531914899</v>
+      </c>
       <c r="L19" t="n">
         <v>49.11000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>7.59999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-30.43478260869571</v>
+      </c>
       <c r="L20" t="n">
         <v>48.99000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>8.199999999999974</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-22.44897959183684</v>
+      </c>
       <c r="L21" t="n">
         <v>48.91000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>9.199999999999974</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-1.694915254237316</v>
+      </c>
       <c r="L22" t="n">
         <v>48.90000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>9.199999999999974</v>
       </c>
       <c r="K23" t="n">
-        <v>12.94117647058821</v>
+        <v>-1.694915254237316</v>
       </c>
       <c r="L23" t="n">
         <v>48.89000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>9.299999999999976</v>
       </c>
       <c r="K24" t="n">
-        <v>10.84337349397592</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L24" t="n">
         <v>48.89000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>10.59999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.166666666666663</v>
+        <v>3.448275862069024</v>
       </c>
       <c r="L25" t="n">
         <v>48.84000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>10.99999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.34020618556698</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>48.82000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.960784313725523</v>
+        <v>26.53061224489802</v>
       </c>
       <c r="L27" t="n">
         <v>48.81000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>12.39999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.259259259259286</v>
+        <v>-2.040816326530506</v>
       </c>
       <c r="L28" t="n">
         <v>48.87000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K29" t="n">
-        <v>-20.00000000000005</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L29" t="n">
         <v>48.82000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>13.49999999999997</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.411214953271029</v>
+        <v>-5.660377358490516</v>
       </c>
       <c r="L30" t="n">
         <v>48.85000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>13.59999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.43396226415096</v>
+        <v>-27.27272727272718</v>
       </c>
       <c r="L31" t="n">
         <v>48.83</v>
@@ -1860,7 +1882,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K32" t="n">
-        <v>-18.1818181818182</v>
+        <v>-37.25490196078427</v>
       </c>
       <c r="L32" t="n">
         <v>48.64</v>
@@ -1911,7 +1933,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.55737704918031</v>
+        <v>-12.90322580645156</v>
       </c>
       <c r="L33" t="n">
         <v>48.57</v>
@@ -1962,7 +1984,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.562499999999968</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>48.55</v>
@@ -2013,7 +2035,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>3.278688524590154</v>
+        <v>24.52830188679235</v>
       </c>
       <c r="L35" t="n">
         <v>48.64</v>
@@ -2064,7 +2086,7 @@
         <v>17.69999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.325581395348817</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L36" t="n">
         <v>48.63</v>
@@ -2115,7 +2137,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>2.222222222222204</v>
+        <v>16.9230769230768</v>
       </c>
       <c r="L37" t="n">
         <v>48.67</v>
@@ -2166,7 +2188,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>11.29032258064516</v>
+        <v>18.75000000000003</v>
       </c>
       <c r="L38" t="n">
         <v>48.75000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>5.982905982906013</v>
+        <v>8.771929824561399</v>
       </c>
       <c r="L39" t="n">
         <v>48.87</v>
@@ -2268,7 +2290,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>8.474576271186443</v>
+        <v>10.34482758620691</v>
       </c>
       <c r="L40" t="n">
         <v>48.94</v>
@@ -2319,7 +2341,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>5.263157894736855</v>
+        <v>28.30188679245285</v>
       </c>
       <c r="L41" t="n">
         <v>49.02</v>
@@ -2370,7 +2392,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.256880733944943</v>
+        <v>-4.347826086956589</v>
       </c>
       <c r="L42" t="n">
         <v>49.11999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>21.29999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>-17.35537190082641</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L43" t="n">
         <v>48.98</v>
@@ -2476,7 +2498,7 @@
         <v>21.39999999999997</v>
       </c>
       <c r="K44" t="n">
-        <v>-19.0082644628099</v>
+        <v>-37.25490196078438</v>
       </c>
       <c r="L44" t="n">
         <v>48.77</v>
@@ -2535,7 +2557,7 @@
         <v>21.49999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.256880733944943</v>
+        <v>-10.52631578947367</v>
       </c>
       <c r="L45" t="n">
         <v>48.59</v>
@@ -2590,7 +2612,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.773584905660433</v>
+        <v>-55.55555555555579</v>
       </c>
       <c r="L46" t="n">
         <v>48.55999999999999</v>
@@ -2649,7 +2671,7 @@
         <v>21.99999999999996</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.56310679611651</v>
+        <v>-57.14285714285739</v>
       </c>
       <c r="L47" t="n">
         <v>48.36999999999999</v>
@@ -2710,7 +2732,7 @@
         <v>21.99999999999996</v>
       </c>
       <c r="K48" t="n">
-        <v>-8.333333333333377</v>
+        <v>-57.14285714285739</v>
       </c>
       <c r="L48" t="n">
         <v>48.20999999999999</v>
@@ -2769,7 +2791,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.376344086021507</v>
+        <v>-70.37037037037088</v>
       </c>
       <c r="L49" t="n">
         <v>48.03999999999998</v>
@@ -2830,7 +2852,7 @@
         <v>22.29999999999996</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.90909090909091</v>
+        <v>-85.18518518518545</v>
       </c>
       <c r="L50" t="n">
         <v>47.82999999999999</v>
@@ -2891,7 +2913,7 @@
         <v>22.39999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>-15.90909090909091</v>
+        <v>-73.913043478261</v>
       </c>
       <c r="L51" t="n">
         <v>47.60999999999999</v>
@@ -2950,7 +2972,7 @@
         <v>22.49999999999996</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.317073170731741</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L52" t="n">
         <v>47.44999999999999</v>
@@ -3013,7 +3035,7 @@
         <v>22.59999999999996</v>
       </c>
       <c r="K53" t="n">
-        <v>-23.94366197183109</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L53" t="n">
         <v>47.41999999999999</v>
@@ -3076,7 +3098,7 @@
         <v>22.79999999999996</v>
       </c>
       <c r="K54" t="n">
-        <v>-31.34328358208966</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L54" t="n">
         <v>47.41999999999998</v>
@@ -3139,7 +3161,7 @@
         <v>22.79999999999996</v>
       </c>
       <c r="K55" t="n">
-        <v>-29.2307692307693</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L55" t="n">
         <v>47.40999999999998</v>
@@ -3202,7 +3224,7 @@
         <v>22.99999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.20754716981142</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>47.36999999999999</v>
@@ -3265,7 +3287,7 @@
         <v>23.29999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>-36.3636363636363</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L57" t="n">
         <v>47.39999999999999</v>
@@ -3328,7 +3350,7 @@
         <v>23.39999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>-28.57142857142872</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L58" t="n">
         <v>47.43999999999998</v>
@@ -3391,7 +3413,7 @@
         <v>23.99999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>-37.50000000000007</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L59" t="n">
         <v>47.42999999999999</v>
@@ -3454,7 +3476,7 @@
         <v>24.89999999999996</v>
       </c>
       <c r="K60" t="n">
-        <v>-20.0000000000001</v>
+        <v>36.00000000000004</v>
       </c>
       <c r="L60" t="n">
         <v>47.52999999999999</v>
@@ -3517,7 +3539,7 @@
         <v>25.29999999999995</v>
       </c>
       <c r="K61" t="n">
-        <v>-29.82456140350879</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L61" t="n">
         <v>47.57999999999999</v>
@@ -3574,7 +3596,7 @@
         <v>25.89999999999996</v>
       </c>
       <c r="K62" t="n">
-        <v>-31.03448275862073</v>
+        <v>-9.090909090909012</v>
       </c>
       <c r="L62" t="n">
         <v>47.55999999999999</v>
@@ -3631,7 +3653,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>-18.36734693877566</v>
+        <v>-23.52941176470602</v>
       </c>
       <c r="L63" t="n">
         <v>47.49999999999999</v>
@@ -3688,7 +3710,7 @@
         <v>26.89999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>-1.818181818181846</v>
+        <v>-2.439024390243936</v>
       </c>
       <c r="L64" t="n">
         <v>47.48999999999999</v>
@@ -3739,7 +3761,7 @@
         <v>27.59999999999997</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.75409836065585</v>
+        <v>-13.04347826086959</v>
       </c>
       <c r="L65" t="n">
         <v>47.40999999999998</v>
@@ -3790,7 +3812,7 @@
         <v>27.89999999999997</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.11111111111104</v>
+        <v>-13.04347826086959</v>
       </c>
       <c r="L66" t="n">
         <v>47.37999999999998</v>
@@ -3841,7 +3863,7 @@
         <v>27.99999999999997</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.333333333333258</v>
+        <v>-13.04347826086942</v>
       </c>
       <c r="L67" t="n">
         <v>47.32999999999999</v>
@@ -3892,7 +3914,7 @@
         <v>28.49999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>4.615384615384676</v>
+        <v>11.11111111111108</v>
       </c>
       <c r="L68" t="n">
         <v>47.31999999999999</v>
@@ -3943,7 +3965,7 @@
         <v>28.79999999999997</v>
       </c>
       <c r="K69" t="n">
-        <v>10.44776119402989</v>
+        <v>-2.564102564102592</v>
       </c>
       <c r="L69" t="n">
         <v>47.39999999999998</v>
@@ -3994,7 +4016,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>1.369863013698649</v>
+        <v>-11.62790697674416</v>
       </c>
       <c r="L70" t="n">
         <v>47.30999999999998</v>
@@ -4045,7 +4067,7 @@
         <v>31.99999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>24.99999999999998</v>
+        <v>40.98360655737699</v>
       </c>
       <c r="L71" t="n">
         <v>47.49999999999999</v>
@@ -4096,7 +4118,7 @@
         <v>33.39999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>8.256880733945001</v>
+        <v>19.44444444444452</v>
       </c>
       <c r="L72" t="n">
         <v>47.60999999999998</v>
@@ -4147,7 +4169,7 @@
         <v>34.79999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>18.03278688524592</v>
+        <v>26.58227848101268</v>
       </c>
       <c r="L73" t="n">
         <v>47.88999999999998</v>
@@ -4198,7 +4220,7 @@
         <v>35.19999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>19.35483870967741</v>
+        <v>42.1052631578948</v>
       </c>
       <c r="L74" t="n">
         <v>48.13999999999999</v>
@@ -4249,7 +4271,7 @@
         <v>35.19999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>19.35483870967741</v>
+        <v>39.72602739726031</v>
       </c>
       <c r="L75" t="n">
         <v>48.45999999999999</v>
@@ -4300,7 +4322,7 @@
         <v>35.19999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>21.31147540983608</v>
+        <v>38.88888888888891</v>
       </c>
       <c r="L76" t="n">
         <v>48.74999999999999</v>
@@ -4351,7 +4373,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.40136054421769</v>
+        <v>-5.26315789473685</v>
       </c>
       <c r="L77" t="n">
         <v>48.74999999999999</v>
@@ -4402,7 +4424,7 @@
         <v>39.19999999999995</v>
       </c>
       <c r="K78" t="n">
-        <v>3.797468354430391</v>
+        <v>3.846153846153838</v>
       </c>
       <c r="L78" t="n">
         <v>48.82</v>
@@ -4453,7 +4475,7 @@
         <v>39.29999999999995</v>
       </c>
       <c r="K79" t="n">
-        <v>7.189542483660095</v>
+        <v>11.34020618556696</v>
       </c>
       <c r="L79" t="n">
         <v>48.85</v>
@@ -4504,7 +4526,7 @@
         <v>39.39999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>2.06896551724136</v>
+        <v>-16.21621621621627</v>
       </c>
       <c r="L80" t="n">
         <v>48.97</v>
@@ -4555,7 +4577,7 @@
         <v>39.99999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>8.843537414965965</v>
+        <v>12.12121212121209</v>
       </c>
       <c r="L81" t="n">
         <v>48.91</v>
@@ -4606,7 +4628,7 @@
         <v>40.09999999999996</v>
       </c>
       <c r="K82" t="n">
-        <v>12.67605633802815</v>
+        <v>-13.20754716981138</v>
       </c>
       <c r="L82" t="n">
         <v>48.98</v>
@@ -4657,7 +4679,7 @@
         <v>40.49999999999996</v>
       </c>
       <c r="K83" t="n">
-        <v>17.48251748251749</v>
+        <v>-13.20754716981138</v>
       </c>
       <c r="L83" t="n">
         <v>48.95</v>
@@ -4708,7 +4730,7 @@
         <v>40.79999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>15.10791366906476</v>
+        <v>-7.142857142857116</v>
       </c>
       <c r="L84" t="n">
         <v>48.91</v>
@@ -4759,7 +4781,7 @@
         <v>40.99999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>19.40298507462688</v>
+        <v>-10.34482758620691</v>
       </c>
       <c r="L85" t="n">
         <v>48.85</v>
@@ -4810,7 +4832,7 @@
         <v>41.09999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>16.66666666666664</v>
+        <v>67.74193548387059</v>
       </c>
       <c r="L86" t="n">
         <v>48.77999999999999</v>
@@ -4861,7 +4883,7 @@
         <v>41.29999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>48.97</v>
@@ -4912,7 +4934,7 @@
         <v>41.39999999999996</v>
       </c>
       <c r="K88" t="n">
-        <v>10.07751937984495</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>49.03000000000001</v>
@@ -4963,7 +4985,7 @@
         <v>41.89999999999996</v>
       </c>
       <c r="K89" t="n">
-        <v>3.816793893129772</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L89" t="n">
         <v>49.05</v>
@@ -5014,7 +5036,7 @@
         <v>42.19999999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>7.93650793650794</v>
+        <v>-36.36363636363619</v>
       </c>
       <c r="L90" t="n">
         <v>49.03000000000001</v>
@@ -5065,7 +5087,7 @@
         <v>42.49999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>-16.19047619047621</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L91" t="n">
         <v>48.92</v>
@@ -5116,7 +5138,7 @@
         <v>42.69999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>-5.376344086021507</v>
+        <v>-72.72727272727238</v>
       </c>
       <c r="L92" t="n">
         <v>48.80000000000001</v>
@@ -5167,7 +5189,7 @@
         <v>43.39999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-30.23255813953489</v>
+        <v>-100</v>
       </c>
       <c r="L93" t="n">
         <v>48.57000000000001</v>
@@ -5218,7 +5240,7 @@
         <v>43.39999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>-36.58536585365852</v>
+        <v>-100</v>
       </c>
       <c r="L94" t="n">
         <v>48.31</v>
@@ -5269,7 +5291,7 @@
         <v>44.19999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>-24.44444444444448</v>
+        <v>-48.38709677419364</v>
       </c>
       <c r="L95" t="n">
         <v>48.15</v>
@@ -5320,7 +5342,7 @@
         <v>44.19999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.44444444444448</v>
+        <v>-44.82758620689672</v>
       </c>
       <c r="L96" t="n">
         <v>47.99999999999999</v>
@@ -5371,7 +5393,7 @@
         <v>45.89999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>29.11392405063286</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L97" t="n">
         <v>48.04</v>
@@ -5422,7 +5444,7 @@
         <v>45.89999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>16.41791044776119</v>
+        <v>25</v>
       </c>
       <c r="L98" t="n">
         <v>48.09</v>
@@ -5473,7 +5495,7 @@
         <v>47.29999999999996</v>
       </c>
       <c r="K99" t="n">
-        <v>-2.499999999999944</v>
+        <v>-1.960784313725518</v>
       </c>
       <c r="L99" t="n">
         <v>48.05</v>
@@ -5524,7 +5546,7 @@
         <v>47.39999999999996</v>
       </c>
       <c r="K100" t="n">
-        <v>-4.999999999999978</v>
+        <v>2.040816326530642</v>
       </c>
       <c r="L100" t="n">
         <v>48.03</v>
@@ -5575,7 +5597,7 @@
         <v>48.19999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>-21.95121951219508</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L101" t="n">
         <v>47.96</v>
@@ -5626,7 +5648,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>-4.255319148936156</v>
+        <v>24.59016393442625</v>
       </c>
       <c r="L102" t="n">
         <v>48.04000000000001</v>
@@ -5677,7 +5699,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.888888888888857</v>
+        <v>24.59016393442625</v>
       </c>
       <c r="L103" t="n">
         <v>48.19000000000001</v>
@@ -5728,7 +5750,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K104" t="n">
-        <v>-12.64367816091956</v>
+        <v>13.20754716981138</v>
       </c>
       <c r="L104" t="n">
         <v>48.34000000000001</v>
@@ -5779,7 +5801,7 @@
         <v>50.29999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>-1.075268817204317</v>
+        <v>24.59016393442625</v>
       </c>
       <c r="L105" t="n">
         <v>48.49</v>
@@ -5830,7 +5852,7 @@
         <v>50.39999999999996</v>
       </c>
       <c r="K106" t="n">
-        <v>1.075268817204317</v>
+        <v>-2.222222222222257</v>
       </c>
       <c r="L106" t="n">
         <v>48.65000000000001</v>
@@ -5881,7 +5903,7 @@
         <v>50.49999999999996</v>
       </c>
       <c r="K107" t="n">
-        <v>4.347826086956508</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>48.65</v>
@@ -5932,7 +5954,7 @@
         <v>50.49999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>5.494505494505498</v>
+        <v>43.75000000000001</v>
       </c>
       <c r="L108" t="n">
         <v>48.65</v>
@@ -5983,7 +6005,7 @@
         <v>50.59999999999996</v>
       </c>
       <c r="K109" t="n">
-        <v>10.34482758620689</v>
+        <v>43.75000000000001</v>
       </c>
       <c r="L109" t="n">
         <v>48.77999999999999</v>
@@ -6034,7 +6056,7 @@
         <v>50.59999999999996</v>
       </c>
       <c r="K110" t="n">
-        <v>14.28571428571424</v>
+        <v>91.66666666666654</v>
       </c>
       <c r="L110" t="n">
         <v>48.91999999999999</v>
@@ -6085,7 +6107,7 @@
         <v>51.09999999999996</v>
       </c>
       <c r="K111" t="n">
-        <v>23.25581395348839</v>
+        <v>87.49999999999983</v>
       </c>
       <c r="L111" t="n">
         <v>49.18999999999999</v>
@@ -6136,7 +6158,7 @@
         <v>52.09999999999996</v>
       </c>
       <c r="K112" t="n">
-        <v>12.76595744680847</v>
+        <v>15.38461538461532</v>
       </c>
       <c r="L112" t="n">
         <v>49.23</v>
@@ -6187,7 +6209,7 @@
         <v>53.09999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>29.89690721649485</v>
+        <v>38.88888888888884</v>
       </c>
       <c r="L113" t="n">
         <v>49.36999999999999</v>
@@ -6238,7 +6260,7 @@
         <v>53.09999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>29.89690721649485</v>
+        <v>21.42857142857145</v>
       </c>
       <c r="L114" t="n">
         <v>49.50999999999999</v>
@@ -6289,7 +6311,7 @@
         <v>53.19999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>24.44444444444448</v>
+        <v>21.42857142857145</v>
       </c>
       <c r="L115" t="n">
         <v>49.57999999999999</v>
@@ -6340,7 +6362,7 @@
         <v>53.29999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>23.07692307692309</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L116" t="n">
         <v>49.63</v>
@@ -6391,7 +6413,7 @@
         <v>53.29999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>5.405405405405387</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L117" t="n">
         <v>49.66999999999999</v>
@@ -6442,7 +6464,7 @@
         <v>53.29999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>5.405405405405387</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="L118" t="n">
         <v>49.70999999999999</v>
@@ -6493,7 +6515,7 @@
         <v>53.39999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>27.86885245901632</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L119" t="n">
         <v>49.74999999999999</v>
@@ -6544,7 +6566,7 @@
         <v>53.39999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>29.99999999999995</v>
+        <v>-4.347826086956576</v>
       </c>
       <c r="L120" t="n">
         <v>49.78999999999998</v>
@@ -6595,7 +6617,7 @@
         <v>53.39999999999996</v>
       </c>
       <c r="K121" t="n">
-        <v>49.99999999999986</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L121" t="n">
         <v>49.77999999999999</v>
@@ -6646,7 +6668,7 @@
         <v>53.49999999999996</v>
       </c>
       <c r="K122" t="n">
-        <v>30.00000000000007</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L122" t="n">
         <v>49.85999999999999</v>
@@ -6697,7 +6719,7 @@
         <v>53.49999999999996</v>
       </c>
       <c r="K123" t="n">
-        <v>30.00000000000007</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L123" t="n">
         <v>49.84</v>
@@ -6748,7 +6770,7 @@
         <v>53.59999999999996</v>
       </c>
       <c r="K124" t="n">
-        <v>26.82926829268295</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>49.81</v>
@@ -6799,7 +6821,7 @@
         <v>53.99999999999996</v>
       </c>
       <c r="K125" t="n">
-        <v>-2.702702702702547</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>49.73</v>
@@ -6850,7 +6872,7 @@
         <v>53.99999999999996</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.555555555555435</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>49.66000000000001</v>
@@ -6901,7 +6923,7 @@
         <v>54.39999999999996</v>
       </c>
       <c r="K127" t="n">
-        <v>2.564102564102602</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L127" t="n">
         <v>49.63000000000002</v>
@@ -6952,7 +6974,7 @@
         <v>54.39999999999996</v>
       </c>
       <c r="K128" t="n">
-        <v>2.564102564102602</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L128" t="n">
         <v>49.60000000000002</v>
@@ -7003,7 +7025,7 @@
         <v>54.59999999999995</v>
       </c>
       <c r="K129" t="n">
-        <v>9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>49.60000000000002</v>
@@ -7054,7 +7076,7 @@
         <v>55.19999999999995</v>
       </c>
       <c r="K130" t="n">
-        <v>21.73913043478263</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L130" t="n">
         <v>49.66000000000002</v>
@@ -7105,7 +7127,7 @@
         <v>55.19999999999995</v>
       </c>
       <c r="K131" t="n">
-        <v>12.19512195121953</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L131" t="n">
         <v>49.72000000000002</v>
@@ -7156,7 +7178,7 @@
         <v>55.19999999999995</v>
       </c>
       <c r="K132" t="n">
-        <v>48.38709677419364</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L132" t="n">
         <v>49.79000000000003</v>
@@ -7207,7 +7229,7 @@
         <v>55.19999999999995</v>
       </c>
       <c r="K133" t="n">
-        <v>23.80952380952387</v>
+        <v>50</v>
       </c>
       <c r="L133" t="n">
         <v>49.86000000000003</v>
@@ -7258,7 +7280,7 @@
         <v>55.59999999999995</v>
       </c>
       <c r="K134" t="n">
-        <v>36.00000000000004</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>49.98000000000003</v>
@@ -7309,7 +7331,7 @@
         <v>55.89999999999995</v>
       </c>
       <c r="K135" t="n">
-        <v>18.51851851851859</v>
+        <v>68.4210526315791</v>
       </c>
       <c r="L135" t="n">
         <v>50.11000000000003</v>
@@ -7360,7 +7382,7 @@
         <v>56.19999999999995</v>
       </c>
       <c r="K136" t="n">
-        <v>10.3448275862071</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L136" t="n">
         <v>50.21000000000003</v>
@@ -7411,7 +7433,7 @@
         <v>56.29999999999995</v>
       </c>
       <c r="K137" t="n">
-        <v>6.666666666666793</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L137" t="n">
         <v>50.26000000000003</v>
@@ -7462,7 +7484,7 @@
         <v>56.59999999999995</v>
       </c>
       <c r="K138" t="n">
-        <v>-3.030303030303082</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>50.28000000000002</v>
@@ -7513,7 +7535,7 @@
         <v>57.29999999999995</v>
       </c>
       <c r="K139" t="n">
-        <v>-17.94871794871791</v>
+        <v>-61.90476190476194</v>
       </c>
       <c r="L139" t="n">
         <v>50.21000000000002</v>
@@ -7564,7 +7586,7 @@
         <v>57.29999999999995</v>
       </c>
       <c r="K140" t="n">
-        <v>-17.94871794871791</v>
+        <v>-61.90476190476194</v>
       </c>
       <c r="L140" t="n">
         <v>50.08000000000002</v>
@@ -7615,7 +7637,7 @@
         <v>57.29999999999995</v>
       </c>
       <c r="K141" t="n">
-        <v>-17.94871794871791</v>
+        <v>-61.90476190476194</v>
       </c>
       <c r="L141" t="n">
         <v>49.95000000000002</v>
@@ -7666,7 +7688,7 @@
         <v>57.99999999999994</v>
       </c>
       <c r="K142" t="n">
-        <v>2.222222222222103</v>
+        <v>-21.42857142857155</v>
       </c>
       <c r="L142" t="n">
         <v>49.89000000000002</v>
@@ -7717,7 +7739,7 @@
         <v>58.29999999999994</v>
       </c>
       <c r="K143" t="n">
-        <v>-4.166666666666741</v>
+        <v>-48.14814814814824</v>
       </c>
       <c r="L143" t="n">
         <v>49.80000000000003</v>
@@ -7768,7 +7790,7 @@
         <v>58.29999999999994</v>
       </c>
       <c r="K144" t="n">
-        <v>-2.127659574468124</v>
+        <v>-41.66666666666681</v>
       </c>
       <c r="L144" t="n">
         <v>49.67000000000002</v>
@@ -7819,7 +7841,7 @@
         <v>58.29999999999994</v>
       </c>
       <c r="K145" t="n">
-        <v>6.976744186046473</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L145" t="n">
         <v>49.57000000000003</v>
@@ -7870,7 +7892,7 @@
         <v>58.39999999999994</v>
       </c>
       <c r="K146" t="n">
-        <v>9.090909090909092</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L146" t="n">
         <v>49.51000000000003</v>
@@ -7921,7 +7943,7 @@
         <v>58.39999999999994</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L147" t="n">
         <v>49.46000000000002</v>
@@ -7972,7 +7994,7 @@
         <v>58.39999999999994</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L148" t="n">
         <v>49.44000000000003</v>
@@ -8023,7 +8045,7 @@
         <v>58.39999999999994</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.263157894736744</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L149" t="n">
         <v>49.49000000000002</v>
@@ -8074,7 +8096,7 @@
         <v>58.39999999999994</v>
       </c>
       <c r="K150" t="n">
-        <v>-25</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L150" t="n">
         <v>49.54000000000002</v>
@@ -8125,7 +8147,7 @@
         <v>58.59999999999994</v>
       </c>
       <c r="K151" t="n">
-        <v>-17.64705882352953</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>49.61000000000001</v>
@@ -8176,7 +8198,7 @@
         <v>59.39999999999993</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333345</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L152" t="n">
         <v>49.53000000000002</v>
@@ -8227,7 +8249,7 @@
         <v>59.89999999999993</v>
       </c>
       <c r="K153" t="n">
-        <v>-40.42553191489375</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L153" t="n">
         <v>49.43000000000002</v>
@@ -8278,7 +8300,7 @@
         <v>60.29999999999993</v>
       </c>
       <c r="K154" t="n">
-        <v>-40.42553191489375</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L154" t="n">
         <v>49.37000000000002</v>
@@ -8329,7 +8351,7 @@
         <v>60.39999999999993</v>
       </c>
       <c r="K155" t="n">
-        <v>-33.33333333333344</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L155" t="n">
         <v>49.32000000000001</v>
@@ -8380,7 +8402,7 @@
         <v>61.29999999999993</v>
       </c>
       <c r="K156" t="n">
-        <v>-5.882352941176569</v>
+        <v>10.34482758620683</v>
       </c>
       <c r="L156" t="n">
         <v>49.35000000000001</v>
@@ -8431,7 +8453,7 @@
         <v>61.89999999999993</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.28571428571439</v>
+        <v>-8.57142857142871</v>
       </c>
       <c r="L157" t="n">
         <v>49.32000000000001</v>
@@ -8482,7 +8504,7 @@
         <v>62.09999999999994</v>
       </c>
       <c r="K158" t="n">
-        <v>-5.454545454545417</v>
+        <v>-2.702702702702744</v>
       </c>
       <c r="L158" t="n">
         <v>49.31</v>
@@ -8533,7 +8555,7 @@
         <v>62.29999999999994</v>
       </c>
       <c r="K159" t="n">
-        <v>3.99999999999992</v>
+        <v>-7.692307692307804</v>
       </c>
       <c r="L159" t="n">
         <v>49.27999999999999</v>
@@ -8584,7 +8606,7 @@
         <v>62.29999999999994</v>
       </c>
       <c r="K160" t="n">
-        <v>3.99999999999992</v>
+        <v>-13.5135135135135</v>
       </c>
       <c r="L160" t="n">
         <v>49.24999999999999</v>
@@ -8635,7 +8657,7 @@
         <v>62.69999999999995</v>
       </c>
       <c r="K161" t="n">
-        <v>11.11111111111114</v>
+        <v>21.21212121212123</v>
       </c>
       <c r="L161" t="n">
         <v>49.23999999999999</v>
@@ -8686,7 +8708,7 @@
         <v>62.79999999999995</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.166666666666574</v>
+        <v>37.93103448275851</v>
       </c>
       <c r="L162" t="n">
         <v>49.29999999999999</v>
@@ -8737,7 +8759,7 @@
         <v>64.39999999999995</v>
       </c>
       <c r="K163" t="n">
-        <v>-24.5901639344262</v>
+        <v>-21.951219512195</v>
       </c>
       <c r="L163" t="n">
         <v>49.24999999999999</v>
@@ -8788,7 +8810,7 @@
         <v>65.19999999999995</v>
       </c>
       <c r="K164" t="n">
-        <v>-33.33333333333326</v>
+        <v>-37.49999999999985</v>
       </c>
       <c r="L164" t="n">
         <v>49.08</v>
@@ -8839,7 +8861,7 @@
         <v>66.69999999999995</v>
       </c>
       <c r="K165" t="n">
-        <v>-9.523809523809483</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L165" t="n">
         <v>49.05</v>
@@ -8890,7 +8912,7 @@
         <v>66.69999999999995</v>
       </c>
       <c r="K166" t="n">
-        <v>-10.84337349397588</v>
+        <v>-12.49999999999985</v>
       </c>
       <c r="L166" t="n">
         <v>48.93000000000001</v>
@@ -8941,7 +8963,7 @@
         <v>67.69999999999995</v>
       </c>
       <c r="K167" t="n">
-        <v>-20.4301075268817</v>
+        <v>-32.14285714285705</v>
       </c>
       <c r="L167" t="n">
         <v>48.77000000000001</v>
@@ -8992,7 +9014,7 @@
         <v>68.29999999999994</v>
       </c>
       <c r="K168" t="n">
-        <v>-13.13131313131318</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>48.65000000000001</v>
@@ -9043,7 +9065,7 @@
         <v>68.29999999999994</v>
       </c>
       <c r="K169" t="n">
-        <v>-13.13131313131318</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L169" t="n">
         <v>48.55</v>
@@ -9094,7 +9116,7 @@
         <v>68.29999999999994</v>
       </c>
       <c r="K170" t="n">
-        <v>-13.13131313131318</v>
+        <v>-25.00000000000013</v>
       </c>
       <c r="L170" t="n">
         <v>48.45</v>
@@ -9145,7 +9167,7 @@
         <v>68.29999999999994</v>
       </c>
       <c r="K171" t="n">
-        <v>-15.46391752577319</v>
+        <v>-23.63636363636374</v>
       </c>
       <c r="L171" t="n">
         <v>48.31000000000001</v>
@@ -9196,7 +9218,7 @@
         <v>69.49999999999994</v>
       </c>
       <c r="K172" t="n">
-        <v>-18.81188118811878</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L172" t="n">
         <v>48.06</v>
@@ -9247,7 +9269,7 @@
         <v>70.39999999999995</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.761904761904756</v>
+        <v>15.38461538461532</v>
       </c>
       <c r="L173" t="n">
         <v>48.06</v>
@@ -9298,7 +9320,7 @@
         <v>70.39999999999995</v>
       </c>
       <c r="K174" t="n">
-        <v>-8.910891089108883</v>
+        <v>-18.91891891891898</v>
       </c>
       <c r="L174" t="n">
         <v>48.14</v>
@@ -9349,7 +9371,7 @@
         <v>70.39999999999995</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.999999999999986</v>
+        <v>-18.91891891891898</v>
       </c>
       <c r="L175" t="n">
         <v>48.07000000000001</v>
@@ -9400,7 +9422,7 @@
         <v>70.39999999999995</v>
       </c>
       <c r="K176" t="n">
-        <v>-20.87912087912083</v>
+        <v>11.11111111111099</v>
       </c>
       <c r="L176" t="n">
         <v>48.00000000000001</v>
@@ -9451,7 +9473,7 @@
         <v>71.39999999999995</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.157894736842071</v>
+        <v>22.58064516129035</v>
       </c>
       <c r="L177" t="n">
         <v>48.13</v>
@@ -9502,7 +9524,7 @@
         <v>72.29999999999995</v>
       </c>
       <c r="K178" t="n">
-        <v>3.92156862745096</v>
+        <v>39.99999999999989</v>
       </c>
       <c r="L178" t="n">
         <v>48.29000000000001</v>
@@ -9553,7 +9575,7 @@
         <v>72.89999999999995</v>
       </c>
       <c r="K179" t="n">
-        <v>11.32075471698115</v>
+        <v>47.82608695652171</v>
       </c>
       <c r="L179" t="n">
         <v>48.51000000000001</v>
@@ -9604,7 +9626,7 @@
         <v>73.69999999999995</v>
       </c>
       <c r="K180" t="n">
-        <v>3.50877192982461</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L180" t="n">
         <v>48.65000000000001</v>
@@ -9655,7 +9677,7 @@
         <v>74.39999999999995</v>
       </c>
       <c r="K181" t="n">
-        <v>5.982905982905945</v>
+        <v>67.34693877551007</v>
       </c>
       <c r="L181" t="n">
         <v>48.86000000000001</v>
@@ -9706,7 +9728,7 @@
         <v>74.49999999999994</v>
       </c>
       <c r="K182" t="n">
-        <v>5.982905982905948</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L182" t="n">
         <v>49.18000000000001</v>
@@ -9757,7 +9779,7 @@
         <v>74.49999999999994</v>
       </c>
       <c r="K183" t="n">
-        <v>22.77227722772276</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L183" t="n">
         <v>49.41</v>
@@ -9808,7 +9830,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K184" t="n">
-        <v>34.04255319148935</v>
+        <v>57.14285714285726</v>
       </c>
       <c r="L184" t="n">
         <v>49.65</v>
@@ -9859,7 +9881,7 @@
         <v>75.09999999999994</v>
       </c>
       <c r="K185" t="n">
-        <v>14.28571428571425</v>
+        <v>40.42553191489369</v>
       </c>
       <c r="L185" t="n">
         <v>49.84</v>
@@ -9910,7 +9932,7 @@
         <v>75.69999999999993</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>34.8837209302327</v>
       </c>
       <c r="L186" t="n">
         <v>50.09</v>
@@ -9961,7 +9983,7 @@
         <v>76.39999999999993</v>
       </c>
       <c r="K187" t="n">
-        <v>24.13793103448272</v>
+        <v>-2.439024390243949</v>
       </c>
       <c r="L187" t="n">
         <v>50.16999999999999</v>
@@ -10012,7 +10034,7 @@
         <v>78.09999999999994</v>
       </c>
       <c r="K188" t="n">
-        <v>-2.040816326530569</v>
+        <v>-46.15384615384623</v>
       </c>
       <c r="L188" t="n">
         <v>49.98999999999999</v>
@@ -10063,7 +10085,7 @@
         <v>78.39999999999993</v>
       </c>
       <c r="K189" t="n">
-        <v>0.9900990099010046</v>
+        <v>-27.65957446808526</v>
       </c>
       <c r="L189" t="n">
         <v>49.77999999999999</v>
@@ -10114,7 +10136,7 @@
         <v>79.39999999999993</v>
       </c>
       <c r="K190" t="n">
-        <v>-8.108108108108098</v>
+        <v>-60.00000000000018</v>
       </c>
       <c r="L190" t="n">
         <v>49.55</v>
@@ -10165,7 +10187,7 @@
         <v>80.09999999999994</v>
       </c>
       <c r="K191" t="n">
-        <v>-1.694915254237252</v>
+        <v>-39.28571428571425</v>
       </c>
       <c r="L191" t="n">
         <v>49.31999999999999</v>
@@ -10216,7 +10238,7 @@
         <v>80.09999999999994</v>
       </c>
       <c r="K192" t="n">
-        <v>9.433962264150948</v>
+        <v>-39.28571428571425</v>
       </c>
       <c r="L192" t="n">
         <v>49.09999999999999</v>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S192"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>47.99</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>48.00166666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>48.03833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>48</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +579,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +614,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.299999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +649,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.499999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +684,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.599999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +719,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.29999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +754,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +789,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>49.12</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +824,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.29999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>46.15384615384622</v>
-      </c>
-      <c r="L12" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +859,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.29999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>39.1304347826088</v>
-      </c>
-      <c r="L13" t="n">
-        <v>49.43</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +894,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.29999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>39.1304347826088</v>
-      </c>
-      <c r="L14" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +929,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.099999999999987</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-7.142857142857016</v>
-      </c>
-      <c r="L15" t="n">
-        <v>49.53000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +964,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.79999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-21.21212121212131</v>
-      </c>
-      <c r="L16" t="n">
-        <v>49.44</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +999,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.399999999999991</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-5.263157894736921</v>
-      </c>
-      <c r="L17" t="n">
-        <v>49.43000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1034,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.79999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-51.11111111111105</v>
-      </c>
-      <c r="L18" t="n">
-        <v>49.27000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1069,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7.499999999999986</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-23.40425531914899</v>
-      </c>
-      <c r="L19" t="n">
-        <v>49.11000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1104,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7.59999999999998</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-30.43478260869571</v>
-      </c>
-      <c r="L20" t="n">
-        <v>48.99000000000002</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1139,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8.199999999999974</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-22.44897959183684</v>
-      </c>
-      <c r="L21" t="n">
-        <v>48.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>49.015</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1174,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.199999999999974</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-1.694915254237316</v>
-      </c>
-      <c r="L22" t="n">
-        <v>48.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>49.105</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1209,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9.199999999999974</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-1.694915254237316</v>
-      </c>
-      <c r="L23" t="n">
-        <v>48.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>49.15999999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1244,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.299999999999976</v>
-      </c>
-      <c r="K24" t="n">
-        <v>15.38461538461536</v>
-      </c>
-      <c r="L24" t="n">
-        <v>48.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>49.205</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1279,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10.59999999999997</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.448275862069024</v>
-      </c>
-      <c r="L25" t="n">
-        <v>48.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>49.18499999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1314,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.99999999999997</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L26" t="n">
-        <v>48.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>49.13</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1349,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11.69999999999997</v>
-      </c>
-      <c r="K27" t="n">
-        <v>26.53061224489802</v>
-      </c>
-      <c r="L27" t="n">
-        <v>48.81000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>49.12</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1384,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J28" t="n">
-        <v>12.39999999999996</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-2.040816326530506</v>
-      </c>
-      <c r="L28" t="n">
-        <v>48.87000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>49.06999999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1419,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12.79999999999997</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L29" t="n">
-        <v>48.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>48.96499999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1454,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>13.49999999999997</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-5.660377358490516</v>
-      </c>
-      <c r="L30" t="n">
-        <v>48.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>48.91999999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1489,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J31" t="n">
-        <v>13.59999999999997</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-27.27272727272718</v>
-      </c>
-      <c r="L31" t="n">
-        <v>48.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>48.86999999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>48.95333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1524,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J32" t="n">
-        <v>14.29999999999998</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-37.25490196078427</v>
-      </c>
-      <c r="L32" t="n">
-        <v>48.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>48.76999999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>48.95</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1559,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>15.49999999999998</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-12.90322580645156</v>
-      </c>
-      <c r="L33" t="n">
-        <v>48.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>48.72999999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>48.96333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1594,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J34" t="n">
-        <v>16.09999999999998</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>48.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>48.71999999999998</v>
-      </c>
-      <c r="N34" t="n">
-        <v>48.98666666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1629,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>16.29999999999998</v>
-      </c>
-      <c r="K35" t="n">
-        <v>24.52830188679235</v>
-      </c>
-      <c r="L35" t="n">
-        <v>48.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>48.73999999999999</v>
-      </c>
-      <c r="N35" t="n">
-        <v>49.00333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1664,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J36" t="n">
-        <v>17.69999999999998</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-13.33333333333326</v>
-      </c>
-      <c r="L36" t="n">
-        <v>48.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>48.72499999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>48.96333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1699,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J37" t="n">
-        <v>18.89999999999998</v>
-      </c>
-      <c r="K37" t="n">
-        <v>16.9230769230768</v>
-      </c>
-      <c r="L37" t="n">
-        <v>48.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>48.73999999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>48.97</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1734,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>19.19999999999997</v>
-      </c>
-      <c r="K38" t="n">
-        <v>18.75000000000003</v>
-      </c>
-      <c r="L38" t="n">
-        <v>48.75000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>48.80999999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>48.96333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1769,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>19.19999999999997</v>
-      </c>
-      <c r="K39" t="n">
-        <v>8.771929824561399</v>
-      </c>
-      <c r="L39" t="n">
-        <v>48.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>48.84499999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>48.93333333333332</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1804,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>19.39999999999998</v>
-      </c>
-      <c r="K40" t="n">
-        <v>10.34482758620691</v>
-      </c>
-      <c r="L40" t="n">
-        <v>48.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>48.895</v>
-      </c>
-      <c r="N40" t="n">
-        <v>48.92666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1839,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>19.59999999999997</v>
-      </c>
-      <c r="K41" t="n">
-        <v>28.30188679245285</v>
-      </c>
-      <c r="L41" t="n">
-        <v>49.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>48.925</v>
-      </c>
-      <c r="N41" t="n">
-        <v>48.91999999999999</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1874,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J42" t="n">
-        <v>20.09999999999997</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-4.347826086956589</v>
-      </c>
-      <c r="L42" t="n">
-        <v>49.11999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>48.88000000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>48.88666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,35 +1906,15 @@
         <v>48.515</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J43" t="n">
-        <v>21.29999999999997</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-38.46153846153855</v>
-      </c>
-      <c r="L43" t="n">
-        <v>48.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>48.77500000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>48.81333333333333</v>
-      </c>
-      <c r="O43" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2489,39 +1941,15 @@
         <v>48.52666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J44" t="n">
-        <v>21.39999999999997</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-37.25490196078438</v>
-      </c>
-      <c r="L44" t="n">
-        <v>48.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>48.66000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>48.73666666666666</v>
-      </c>
-      <c r="O44" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,32 +1979,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J45" t="n">
-        <v>21.49999999999997</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-10.52631578947367</v>
-      </c>
-      <c r="L45" t="n">
-        <v>48.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>48.61500000000002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>48.68999999999999</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,39 +2011,15 @@
         <v>48.52833333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J46" t="n">
-        <v>21.59999999999997</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-55.55555555555579</v>
-      </c>
-      <c r="L46" t="n">
-        <v>48.55999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>48.59500000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>48.66999999999999</v>
-      </c>
-      <c r="O46" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2662,41 +2046,15 @@
         <v>48.51666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J47" t="n">
-        <v>21.99999999999996</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-57.14285714285739</v>
-      </c>
-      <c r="L47" t="n">
-        <v>48.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>48.52000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>48.61666666666666</v>
-      </c>
-      <c r="O47" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="P47" t="n">
-        <v>49.36</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,39 +2081,15 @@
         <v>48.52666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J48" t="n">
-        <v>21.99999999999996</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-57.14285714285739</v>
-      </c>
-      <c r="L48" t="n">
-        <v>48.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>48.48</v>
-      </c>
-      <c r="N48" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="O48" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,41 +2116,15 @@
         <v>48.53333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="J49" t="n">
-        <v>22.09999999999997</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-70.37037037037088</v>
-      </c>
-      <c r="L49" t="n">
-        <v>48.03999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>48.45500000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>48.57666666666667</v>
-      </c>
-      <c r="O49" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="P49" t="n">
-        <v>49.05</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2843,41 +2151,15 @@
         <v>48.52666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J50" t="n">
-        <v>22.29999999999996</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-85.18518518518545</v>
-      </c>
-      <c r="L50" t="n">
-        <v>47.82999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>48.38500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>48.53999999999999</v>
-      </c>
-      <c r="O50" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="P50" t="n">
-        <v>48.95</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,39 +2186,15 @@
         <v>48.52</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J51" t="n">
-        <v>22.39999999999996</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-73.913043478261</v>
-      </c>
-      <c r="L51" t="n">
-        <v>47.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>48.31500000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>48.48666666666666</v>
-      </c>
-      <c r="O51" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2963,43 +2221,15 @@
         <v>48.52500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.7000000000000028</v>
-      </c>
-      <c r="J52" t="n">
-        <v>22.49999999999996</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-33.33333333333412</v>
-      </c>
-      <c r="L52" t="n">
-        <v>47.44999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>48.28500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>48.40333333333333</v>
-      </c>
-      <c r="O52" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,40 +2259,16 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>22.59999999999996</v>
+        <v>47.4</v>
       </c>
       <c r="K53" t="n">
-        <v>-16.66666666666706</v>
-      </c>
-      <c r="L53" t="n">
-        <v>47.41999999999999</v>
-      </c>
+        <v>47.4</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="N53" t="n">
-        <v>48.32333333333334</v>
-      </c>
-      <c r="O53" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,40 +2298,20 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>22.79999999999996</v>
+        <v>47.5</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.69230769230786</v>
-      </c>
-      <c r="L54" t="n">
-        <v>47.41999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>48.09500000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>48.24666666666666</v>
-      </c>
-      <c r="O54" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3155,40 +2341,20 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>22.79999999999996</v>
+        <v>47.6</v>
       </c>
       <c r="K55" t="n">
-        <v>-16.66666666666637</v>
-      </c>
-      <c r="L55" t="n">
-        <v>47.40999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>48.00000000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>48.21333333333333</v>
-      </c>
-      <c r="O55" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,40 +2384,20 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>22.99999999999996</v>
+        <v>47.6</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>47.36999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>47.965</v>
-      </c>
-      <c r="N56" t="n">
-        <v>48.18666666666666</v>
-      </c>
-      <c r="O56" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3281,40 +2427,20 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>23.29999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692333</v>
-      </c>
-      <c r="L57" t="n">
-        <v>47.39999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>47.88500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>48.14666666666666</v>
-      </c>
-      <c r="O57" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,40 +2470,20 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>23.39999999999996</v>
+        <v>47.8</v>
       </c>
       <c r="K58" t="n">
-        <v>38.46153846153855</v>
-      </c>
-      <c r="L58" t="n">
-        <v>47.43999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>47.825</v>
-      </c>
-      <c r="N58" t="n">
-        <v>48.13333333333333</v>
-      </c>
-      <c r="O58" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,40 +2513,20 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>23.99999999999996</v>
+        <v>47.8</v>
       </c>
       <c r="K59" t="n">
-        <v>5.882352941176569</v>
-      </c>
-      <c r="L59" t="n">
-        <v>47.42999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>47.73500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>48.11333333333333</v>
-      </c>
-      <c r="O59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,40 +2556,20 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>24.89999999999996</v>
+        <v>47.2</v>
       </c>
       <c r="K60" t="n">
-        <v>36.00000000000004</v>
-      </c>
-      <c r="L60" t="n">
-        <v>47.52999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>47.68000000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>48.09999999999999</v>
-      </c>
-      <c r="O60" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,37 +2596,23 @@
         <v>48.51166666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>25.29999999999995</v>
+        <v>47.7</v>
       </c>
       <c r="K61" t="n">
-        <v>14.2857142857145</v>
-      </c>
-      <c r="L61" t="n">
-        <v>47.57999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>47.59500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>48.07</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3587,37 +2639,23 @@
         <v>48.49666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>25.89999999999996</v>
+        <v>47.5</v>
       </c>
       <c r="K62" t="n">
-        <v>-9.090909090909012</v>
-      </c>
-      <c r="L62" t="n">
-        <v>47.55999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>47.50500000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>48.04333333333332</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,38 +2682,24 @@
         <v>48.465</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>26.19999999999996</v>
+        <v>47</v>
       </c>
       <c r="K63" t="n">
-        <v>-23.52941176470602</v>
-      </c>
-      <c r="L63" t="n">
-        <v>47.49999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>47.46000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>47.96666666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
-        <v>0.9520552147239263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3701,31 +2725,23 @@
         <v>48.44</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>26.89999999999996</v>
+        <v>46.9</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.439024390243936</v>
-      </c>
-      <c r="L64" t="n">
-        <v>47.48999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>47.45500000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>47.89333333333332</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,31 +2768,23 @@
         <v>48.40333333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>27.59999999999997</v>
+        <v>47.6</v>
       </c>
       <c r="K65" t="n">
-        <v>-13.04347826086959</v>
-      </c>
-      <c r="L65" t="n">
-        <v>47.40999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>47.41</v>
-      </c>
-      <c r="N65" t="n">
-        <v>47.80333333333332</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,31 +2811,23 @@
         <v>48.36666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>27.89999999999997</v>
+        <v>47.6</v>
       </c>
       <c r="K66" t="n">
-        <v>-13.04347826086959</v>
-      </c>
-      <c r="L66" t="n">
-        <v>47.37999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>47.37500000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>47.76999999999999</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,31 +2854,23 @@
         <v>48.335</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>27.99999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="K67" t="n">
-        <v>-13.04347826086942</v>
-      </c>
-      <c r="L67" t="n">
-        <v>47.32999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>47.36500000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,31 +2897,23 @@
         <v>48.31</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>28.49999999999997</v>
+        <v>47.7</v>
       </c>
       <c r="K68" t="n">
-        <v>11.11111111111108</v>
-      </c>
-      <c r="L68" t="n">
-        <v>47.31999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>47.38000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>47.65666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,31 +2940,23 @@
         <v>48.27833333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>28.79999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="K69" t="n">
-        <v>-2.564102564102592</v>
-      </c>
-      <c r="L69" t="n">
-        <v>47.39999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>47.41500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>47.62333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4007,31 +2983,23 @@
         <v>48.24166666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>29.59999999999997</v>
+        <v>48.1</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.62790697674416</v>
-      </c>
-      <c r="L70" t="n">
-        <v>47.30999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>47.42000000000002</v>
-      </c>
-      <c r="N70" t="n">
-        <v>47.55666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,31 +3026,23 @@
         <v>48.24166666666666</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>31.99999999999996</v>
+        <v>48</v>
       </c>
       <c r="K71" t="n">
-        <v>40.98360655737699</v>
-      </c>
-      <c r="L71" t="n">
-        <v>47.49999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>47.54000000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>47.56333333333332</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4109,31 +3069,23 @@
         <v>48.21333333333332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>33.39999999999996</v>
+        <v>48.2</v>
       </c>
       <c r="K72" t="n">
-        <v>19.44444444444452</v>
-      </c>
-      <c r="L72" t="n">
-        <v>47.60999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>47.58500000000002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>47.53999999999998</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,28 +3115,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>34.79999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>26.58227848101268</v>
-      </c>
-      <c r="L73" t="n">
-        <v>47.88999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>47.69500000000002</v>
-      </c>
-      <c r="N73" t="n">
-        <v>47.60333333333332</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,28 +3156,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>35.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>42.1052631578948</v>
-      </c>
-      <c r="L74" t="n">
-        <v>48.13999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>47.81500000000002</v>
-      </c>
-      <c r="N74" t="n">
-        <v>47.68333333333332</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4265,28 +3197,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>35.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>39.72602739726031</v>
-      </c>
-      <c r="L75" t="n">
-        <v>48.45999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>47.93500000000002</v>
-      </c>
-      <c r="N75" t="n">
-        <v>47.75999999999998</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,28 +3238,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>35.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>38.88888888888891</v>
-      </c>
-      <c r="L76" t="n">
-        <v>48.74999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>48.06500000000002</v>
-      </c>
-      <c r="N76" t="n">
-        <v>47.83333333333332</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,28 +3279,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J77" t="n">
-        <v>37.99999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-5.26315789473685</v>
-      </c>
-      <c r="L77" t="n">
-        <v>48.74999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>48.04000000000002</v>
-      </c>
-      <c r="N77" t="n">
-        <v>47.82666666666665</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,28 +3320,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J78" t="n">
-        <v>39.19999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>3.846153846153838</v>
-      </c>
-      <c r="L78" t="n">
-        <v>48.82</v>
+        <v>47.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>48.07000000000002</v>
-      </c>
-      <c r="N78" t="n">
-        <v>47.85999999999999</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,28 +3361,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J79" t="n">
-        <v>39.29999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>11.34020618556696</v>
-      </c>
-      <c r="L79" t="n">
-        <v>48.85</v>
+        <v>47.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>48.12500000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>47.89333333333332</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,28 +3402,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J80" t="n">
-        <v>39.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>-16.21621621621627</v>
-      </c>
-      <c r="L80" t="n">
-        <v>48.97</v>
+        <v>47.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>48.14000000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>47.93666666666665</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,28 +3443,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>39.99999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>12.12121212121209</v>
-      </c>
-      <c r="L81" t="n">
-        <v>48.91</v>
+        <v>47.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>48.20500000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>47.99666666666666</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,28 +3484,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J82" t="n">
-        <v>40.09999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>-13.20754716981138</v>
-      </c>
-      <c r="L82" t="n">
-        <v>48.98</v>
+        <v>47.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>48.29500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>48.04999999999999</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,28 +3525,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J83" t="n">
-        <v>40.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-13.20754716981138</v>
-      </c>
-      <c r="L83" t="n">
-        <v>48.95</v>
+        <v>47.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>48.42000000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>48.11333333333332</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,28 +3566,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J84" t="n">
-        <v>40.79999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-7.142857142857116</v>
-      </c>
-      <c r="L84" t="n">
-        <v>48.91</v>
+        <v>47.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>48.52500000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>48.17999999999999</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4775,28 +3607,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>40.99999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-10.34482758620691</v>
-      </c>
-      <c r="L85" t="n">
-        <v>48.85</v>
+        <v>47.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>48.65500000000002</v>
-      </c>
-      <c r="N85" t="n">
-        <v>48.23999999999999</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,28 +3648,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J86" t="n">
-        <v>41.09999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>67.74193548387059</v>
-      </c>
-      <c r="L86" t="n">
-        <v>48.77999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>48.76500000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>48.30333333333332</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,28 +3689,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J87" t="n">
-        <v>41.29999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>48.97</v>
+        <v>47.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>48.86</v>
-      </c>
-      <c r="N87" t="n">
-        <v>48.34999999999999</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,28 +3730,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>41.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L88" t="n">
-        <v>49.03000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>48.925</v>
-      </c>
-      <c r="N88" t="n">
-        <v>48.38999999999999</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,28 +3771,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>41.89999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>4.000000000000045</v>
-      </c>
-      <c r="L89" t="n">
-        <v>49.05</v>
+        <v>47.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>48.95</v>
-      </c>
-      <c r="N89" t="n">
-        <v>48.43333333333332</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,28 +3812,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J90" t="n">
-        <v>42.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-36.36363636363619</v>
-      </c>
-      <c r="L90" t="n">
-        <v>49.03000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>49</v>
-      </c>
-      <c r="N90" t="n">
-        <v>48.43666666666665</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,28 +3853,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J91" t="n">
-        <v>42.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>-41.66666666666657</v>
-      </c>
-      <c r="L91" t="n">
-        <v>48.92</v>
+        <v>47.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>48.91500000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>48.44333333333332</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,28 +3894,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J92" t="n">
-        <v>42.69999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>-72.72727272727238</v>
-      </c>
-      <c r="L92" t="n">
-        <v>48.80000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>48.89</v>
-      </c>
-      <c r="N92" t="n">
-        <v>48.46333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,28 +3935,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>43.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>48.57000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>48.76</v>
-      </c>
-      <c r="N93" t="n">
-        <v>48.47</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,28 +3976,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>43.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>48.31</v>
+        <v>47.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="N94" t="n">
-        <v>48.45333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,28 +4017,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J95" t="n">
-        <v>44.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>-48.38709677419364</v>
-      </c>
-      <c r="L95" t="n">
-        <v>48.15</v>
+        <v>47.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>48.49999999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>48.48666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,28 +4058,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J96" t="n">
-        <v>44.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>-44.82758620689672</v>
-      </c>
-      <c r="L96" t="n">
-        <v>47.99999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>48.38999999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>48.51</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,28 +4099,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>45.89999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L97" t="n">
-        <v>48.04</v>
+        <v>47.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>48.50499999999999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>48.58666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,28 +4140,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>45.89999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>25</v>
-      </c>
-      <c r="L98" t="n">
-        <v>48.09</v>
+        <v>47.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>48.55999999999999</v>
-      </c>
-      <c r="N98" t="n">
-        <v>48.64666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,28 +4181,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J99" t="n">
-        <v>47.29999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>-1.960784313725518</v>
-      </c>
-      <c r="L99" t="n">
-        <v>48.05</v>
+        <v>47.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>48.55</v>
-      </c>
-      <c r="N99" t="n">
-        <v>48.64999999999999</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,26 +4224,16 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>47.39999999999996</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>2.040816326530642</v>
-      </c>
-      <c r="L100" t="n">
-        <v>48.03</v>
+        <v>47.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>48.52999999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>48.67666666666666</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5591,28 +4263,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J101" t="n">
-        <v>48.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L101" t="n">
-        <v>47.96</v>
+        <v>47.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>48.44</v>
-      </c>
-      <c r="N101" t="n">
-        <v>48.59666666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,28 +4304,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>49.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>24.59016393442625</v>
-      </c>
-      <c r="L102" t="n">
-        <v>48.04000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="N102" t="n">
-        <v>48.60666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5693,28 +4345,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>49.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>24.59016393442625</v>
-      </c>
-      <c r="L103" t="n">
-        <v>48.19000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>48.38</v>
-      </c>
-      <c r="N103" t="n">
-        <v>48.57</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,28 +4386,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>49.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>13.20754716981138</v>
-      </c>
-      <c r="L104" t="n">
-        <v>48.34000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>48.325</v>
-      </c>
-      <c r="N104" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,28 +4427,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J105" t="n">
-        <v>50.29999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>24.59016393442625</v>
-      </c>
-      <c r="L105" t="n">
-        <v>48.49</v>
+        <v>47.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>48.32</v>
-      </c>
-      <c r="N105" t="n">
-        <v>48.49666666666666</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,28 +4468,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J106" t="n">
-        <v>50.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>-2.222222222222257</v>
-      </c>
-      <c r="L106" t="n">
-        <v>48.65000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>48.325</v>
-      </c>
-      <c r="N106" t="n">
-        <v>48.47666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,28 +4509,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>50.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>48.65</v>
+        <v>47.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>48.345</v>
-      </c>
-      <c r="N107" t="n">
-        <v>48.55333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,28 +4550,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>50.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>43.75000000000001</v>
-      </c>
-      <c r="L108" t="n">
-        <v>48.65</v>
+        <v>47.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="N108" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5999,28 +4591,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J109" t="n">
-        <v>50.59999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>43.75000000000001</v>
-      </c>
-      <c r="L109" t="n">
-        <v>48.77999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>48.415</v>
-      </c>
-      <c r="N109" t="n">
-        <v>48.62666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,28 +4632,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J110" t="n">
-        <v>50.59999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>91.66666666666654</v>
-      </c>
-      <c r="L110" t="n">
-        <v>48.91999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>48.47499999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,28 +4673,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J111" t="n">
-        <v>51.09999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>87.49999999999983</v>
-      </c>
-      <c r="L111" t="n">
-        <v>49.18999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>48.575</v>
-      </c>
-      <c r="N111" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,28 +4714,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J112" t="n">
-        <v>52.09999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>15.38461538461532</v>
-      </c>
-      <c r="L112" t="n">
-        <v>49.23</v>
+        <v>47.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>48.63499999999999</v>
-      </c>
-      <c r="N112" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6203,28 +4755,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J113" t="n">
-        <v>53.09999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>38.88888888888884</v>
-      </c>
-      <c r="L113" t="n">
-        <v>49.36999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>48.77999999999999</v>
-      </c>
-      <c r="N113" t="n">
-        <v>48.71000000000001</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,28 +4796,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J114" t="n">
-        <v>53.09999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>21.42857142857145</v>
-      </c>
-      <c r="L114" t="n">
-        <v>49.50999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>48.92499999999999</v>
-      </c>
-      <c r="N114" t="n">
-        <v>48.72000000000001</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6305,28 +4837,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>53.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>21.42857142857145</v>
-      </c>
-      <c r="L115" t="n">
-        <v>49.57999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>49.03499999999999</v>
-      </c>
-      <c r="N115" t="n">
-        <v>48.74000000000001</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,28 +4878,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>53.29999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L116" t="n">
-        <v>49.63</v>
+        <v>47.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="N116" t="n">
-        <v>48.76000000000001</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6407,28 +4919,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>53.29999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L117" t="n">
-        <v>49.66999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>49.16</v>
-      </c>
-      <c r="N117" t="n">
-        <v>48.78666666666668</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,28 +4960,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J118" t="n">
-        <v>53.29999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>18.5185185185185</v>
-      </c>
-      <c r="L118" t="n">
-        <v>49.70999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>49.18000000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>48.81666666666669</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6509,28 +5001,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J119" t="n">
-        <v>53.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L119" t="n">
-        <v>49.74999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>49.265</v>
-      </c>
-      <c r="N119" t="n">
-        <v>48.86000000000002</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6560,28 +5042,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J120" t="n">
-        <v>53.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>-4.347826086956576</v>
-      </c>
-      <c r="L120" t="n">
-        <v>49.78999999999998</v>
+        <v>47.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>49.355</v>
-      </c>
-      <c r="N120" t="n">
-        <v>48.91333333333335</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6611,28 +5083,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J121" t="n">
-        <v>53.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>69.2307692307689</v>
-      </c>
-      <c r="L121" t="n">
-        <v>49.77999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>49.485</v>
-      </c>
-      <c r="N121" t="n">
-        <v>48.97666666666668</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,28 +5124,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J122" t="n">
-        <v>53.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>-49.99999999999911</v>
-      </c>
-      <c r="L122" t="n">
-        <v>49.85999999999999</v>
+        <v>47.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>49.545</v>
-      </c>
-      <c r="N122" t="n">
-        <v>49.04333333333334</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,28 +5165,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J123" t="n">
-        <v>53.49999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>-49.99999999999911</v>
-      </c>
-      <c r="L123" t="n">
-        <v>49.84</v>
+        <v>47.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>49.605</v>
-      </c>
-      <c r="N123" t="n">
-        <v>49.13333333333335</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,28 +5206,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>53.59999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L124" t="n">
-        <v>49.81</v>
+        <v>47.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="N124" t="n">
-        <v>49.22000000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,28 +5247,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J125" t="n">
-        <v>53.99999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L125" t="n">
-        <v>49.73</v>
+        <v>47.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>49.65500000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>49.26666666666668</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,28 +5288,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J126" t="n">
-        <v>53.99999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>49.66000000000001</v>
+        <v>47.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>49.64500000000001</v>
-      </c>
-      <c r="N126" t="n">
-        <v>49.31333333333335</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6917,28 +5329,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>54.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L127" t="n">
-        <v>49.63000000000002</v>
+        <v>47.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>49.65000000000001</v>
-      </c>
-      <c r="N127" t="n">
-        <v>49.31666666666668</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,28 +5370,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J128" t="n">
-        <v>54.39999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L128" t="n">
-        <v>49.60000000000002</v>
+        <v>47.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>49.65500000000001</v>
-      </c>
-      <c r="N128" t="n">
-        <v>49.32000000000001</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7019,28 +5411,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J129" t="n">
-        <v>54.59999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>49.60000000000002</v>
+        <v>47.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>49.675</v>
-      </c>
-      <c r="N129" t="n">
-        <v>49.37666666666668</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7070,28 +5452,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J130" t="n">
-        <v>55.19999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>33.3333333333336</v>
-      </c>
-      <c r="L130" t="n">
-        <v>49.66000000000002</v>
+        <v>47.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>49.72500000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>49.45666666666668</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7121,28 +5493,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J131" t="n">
-        <v>55.19999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>41.17647058823515</v>
-      </c>
-      <c r="L131" t="n">
-        <v>49.72000000000002</v>
+        <v>47.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>49.75000000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>49.56333333333335</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7172,28 +5534,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>55.19999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>41.17647058823515</v>
-      </c>
-      <c r="L132" t="n">
-        <v>49.79000000000003</v>
+        <v>47.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>49.825</v>
-      </c>
-      <c r="N132" t="n">
-        <v>49.62666666666669</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,29 +5575,19 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J133" t="n">
-        <v>55.19999999999995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>50</v>
-      </c>
-      <c r="L133" t="n">
-        <v>49.86000000000003</v>
+        <v>47.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>49.85000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>49.69000000000003</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
+        <v>1.058291139240506</v>
       </c>
     </row>
     <row r="134">
@@ -7274,28 +5616,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J134" t="n">
-        <v>55.59999999999995</v>
-      </c>
-      <c r="K134" t="n">
-        <v>100</v>
-      </c>
-      <c r="L134" t="n">
-        <v>49.98000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>49.89500000000001</v>
-      </c>
-      <c r="N134" t="n">
-        <v>49.76666666666669</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7325,28 +5651,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>55.89999999999995</v>
-      </c>
-      <c r="K135" t="n">
-        <v>68.4210526315791</v>
-      </c>
-      <c r="L135" t="n">
-        <v>50.11000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="N135" t="n">
-        <v>49.80666666666669</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7376,28 +5686,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J136" t="n">
-        <v>56.19999999999995</v>
-      </c>
-      <c r="K136" t="n">
-        <v>33.3333333333336</v>
-      </c>
-      <c r="L136" t="n">
-        <v>50.21000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>49.93500000000001</v>
-      </c>
-      <c r="N136" t="n">
-        <v>49.83333333333336</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7427,28 +5721,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>56.29999999999995</v>
-      </c>
-      <c r="K137" t="n">
-        <v>26.31578947368433</v>
-      </c>
-      <c r="L137" t="n">
-        <v>50.26000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>49.94500000000001</v>
-      </c>
-      <c r="N137" t="n">
-        <v>49.85333333333335</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7478,28 +5756,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J138" t="n">
-        <v>56.59999999999995</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>50.28000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>49.94000000000001</v>
-      </c>
-      <c r="N138" t="n">
-        <v>49.86333333333335</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,28 +5791,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J139" t="n">
-        <v>57.29999999999995</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-61.90476190476194</v>
-      </c>
-      <c r="L139" t="n">
-        <v>50.21000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>49.90500000000002</v>
-      </c>
-      <c r="N139" t="n">
-        <v>49.85333333333335</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7580,28 +5826,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J140" t="n">
-        <v>57.29999999999995</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-61.90476190476194</v>
-      </c>
-      <c r="L140" t="n">
-        <v>50.08000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>49.87000000000002</v>
-      </c>
-      <c r="N140" t="n">
-        <v>49.84333333333334</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7631,28 +5861,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J141" t="n">
-        <v>57.29999999999995</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-61.90476190476194</v>
-      </c>
-      <c r="L141" t="n">
-        <v>49.95000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>49.83500000000002</v>
-      </c>
-      <c r="N141" t="n">
-        <v>49.81666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7682,28 +5896,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J142" t="n">
-        <v>57.99999999999994</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-21.42857142857155</v>
-      </c>
-      <c r="L142" t="n">
-        <v>49.89000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>49.84000000000001</v>
-      </c>
-      <c r="N142" t="n">
-        <v>49.84666666666666</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,28 +5931,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J143" t="n">
-        <v>58.29999999999994</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-48.14814814814824</v>
-      </c>
-      <c r="L143" t="n">
-        <v>49.80000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>49.83000000000001</v>
-      </c>
-      <c r="N143" t="n">
-        <v>49.83333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7784,28 +5966,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>58.29999999999994</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-41.66666666666681</v>
-      </c>
-      <c r="L144" t="n">
-        <v>49.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>49.825</v>
-      </c>
-      <c r="N144" t="n">
-        <v>49.81999999999999</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7835,28 +6001,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J145" t="n">
-        <v>58.29999999999994</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-33.33333333333356</v>
-      </c>
-      <c r="L145" t="n">
-        <v>49.57000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="N145" t="n">
-        <v>49.80333333333332</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7886,28 +6036,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>58.39999999999994</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-23.80952380952387</v>
-      </c>
-      <c r="L146" t="n">
-        <v>49.51000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>49.85999999999999</v>
-      </c>
-      <c r="N146" t="n">
-        <v>49.79333333333332</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,28 +6071,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J147" t="n">
-        <v>58.39999999999994</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-11.11111111111093</v>
-      </c>
-      <c r="L147" t="n">
-        <v>49.46000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>49.85999999999999</v>
-      </c>
-      <c r="N147" t="n">
-        <v>49.78333333333331</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7988,28 +6106,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J148" t="n">
-        <v>58.39999999999994</v>
-      </c>
-      <c r="K148" t="n">
-        <v>45.45454545454569</v>
-      </c>
-      <c r="L148" t="n">
-        <v>49.44000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>49.85999999999999</v>
-      </c>
-      <c r="N148" t="n">
-        <v>49.77333333333331</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,28 +6141,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J149" t="n">
-        <v>58.39999999999994</v>
-      </c>
-      <c r="K149" t="n">
-        <v>45.45454545454569</v>
-      </c>
-      <c r="L149" t="n">
-        <v>49.49000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>49.84999999999999</v>
-      </c>
-      <c r="N149" t="n">
-        <v>49.76666666666664</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8090,28 +6176,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J150" t="n">
-        <v>58.39999999999994</v>
-      </c>
-      <c r="K150" t="n">
-        <v>45.45454545454569</v>
-      </c>
-      <c r="L150" t="n">
-        <v>49.54000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>49.80999999999999</v>
-      </c>
-      <c r="N150" t="n">
-        <v>49.75999999999997</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8141,28 +6211,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J151" t="n">
-        <v>58.59999999999994</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>49.61000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>49.77999999999999</v>
-      </c>
-      <c r="N151" t="n">
-        <v>49.75999999999997</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8192,28 +6246,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>59.39999999999993</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-45.45454545454569</v>
-      </c>
-      <c r="L152" t="n">
-        <v>49.53000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>49.70999999999999</v>
-      </c>
-      <c r="N152" t="n">
-        <v>49.73666666666664</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8243,28 +6281,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J153" t="n">
-        <v>59.89999999999993</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-62.50000000000022</v>
-      </c>
-      <c r="L153" t="n">
-        <v>49.43000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>49.61499999999999</v>
-      </c>
-      <c r="N153" t="n">
-        <v>49.69666666666663</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8294,28 +6316,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J154" t="n">
-        <v>60.29999999999993</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-30.00000000000018</v>
-      </c>
-      <c r="L154" t="n">
-        <v>49.37000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="N154" t="n">
-        <v>49.6733333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8345,28 +6351,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>60.39999999999993</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-30.00000000000018</v>
-      </c>
-      <c r="L155" t="n">
-        <v>49.32000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>49.44499999999999</v>
-      </c>
-      <c r="N155" t="n">
-        <v>49.66666666666664</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8396,28 +6386,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J156" t="n">
-        <v>61.29999999999993</v>
-      </c>
-      <c r="K156" t="n">
-        <v>10.34482758620683</v>
-      </c>
-      <c r="L156" t="n">
-        <v>49.35000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>49.42999999999999</v>
-      </c>
-      <c r="N156" t="n">
-        <v>49.68999999999997</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8447,28 +6421,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J157" t="n">
-        <v>61.89999999999993</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-8.57142857142871</v>
-      </c>
-      <c r="L157" t="n">
-        <v>49.32000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>49.38999999999999</v>
-      </c>
-      <c r="N157" t="n">
-        <v>49.67999999999997</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,28 +6456,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J158" t="n">
-        <v>62.09999999999994</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-2.702702702702744</v>
-      </c>
-      <c r="L158" t="n">
-        <v>49.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>49.37499999999999</v>
-      </c>
-      <c r="N158" t="n">
-        <v>49.67666666666664</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8549,28 +6491,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J159" t="n">
-        <v>62.29999999999994</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-7.692307692307804</v>
-      </c>
-      <c r="L159" t="n">
-        <v>49.27999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>49.38499999999998</v>
-      </c>
-      <c r="N159" t="n">
-        <v>49.65999999999998</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8600,28 +6526,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J160" t="n">
-        <v>62.29999999999994</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-13.5135135135135</v>
-      </c>
-      <c r="L160" t="n">
-        <v>49.24999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>49.39499999999999</v>
-      </c>
-      <c r="N160" t="n">
-        <v>49.62333333333331</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8651,28 +6561,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J161" t="n">
-        <v>62.69999999999995</v>
-      </c>
-      <c r="K161" t="n">
-        <v>21.21212121212123</v>
-      </c>
-      <c r="L161" t="n">
-        <v>49.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>49.42499999999998</v>
-      </c>
-      <c r="N161" t="n">
-        <v>49.59999999999997</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8702,28 +6596,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J162" t="n">
-        <v>62.79999999999995</v>
-      </c>
-      <c r="K162" t="n">
-        <v>37.93103448275851</v>
-      </c>
-      <c r="L162" t="n">
-        <v>49.29999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>49.41499999999998</v>
-      </c>
-      <c r="N162" t="n">
-        <v>49.5733333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8755,26 +6633,10 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>64.39999999999995</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-21.951219512195</v>
-      </c>
-      <c r="L163" t="n">
-        <v>49.24999999999999</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>49.33999999999999</v>
-      </c>
-      <c r="N163" t="n">
-        <v>49.4933333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8804,28 +6666,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="J164" t="n">
-        <v>65.19999999999995</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-37.49999999999985</v>
-      </c>
-      <c r="L164" t="n">
-        <v>49.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>49.22499999999999</v>
-      </c>
-      <c r="N164" t="n">
-        <v>49.3733333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8855,28 +6701,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J165" t="n">
-        <v>66.69999999999995</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-22.22222222222209</v>
-      </c>
-      <c r="L165" t="n">
-        <v>49.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>49.18499999999999</v>
-      </c>
-      <c r="N165" t="n">
-        <v>49.3133333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8906,28 +6736,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J166" t="n">
-        <v>66.69999999999995</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-12.49999999999985</v>
-      </c>
-      <c r="L166" t="n">
-        <v>48.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>49.13999999999999</v>
-      </c>
-      <c r="N166" t="n">
-        <v>49.2633333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8957,28 +6771,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J167" t="n">
-        <v>67.69999999999995</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-32.14285714285705</v>
-      </c>
-      <c r="L167" t="n">
-        <v>48.77000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>49.04499999999999</v>
-      </c>
-      <c r="N167" t="n">
-        <v>49.1833333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9008,28 +6806,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J168" t="n">
-        <v>68.29999999999994</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L168" t="n">
-        <v>48.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>48.97999999999999</v>
-      </c>
-      <c r="N168" t="n">
-        <v>49.1333333333333</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9059,28 +6841,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J169" t="n">
-        <v>68.29999999999994</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L169" t="n">
-        <v>48.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>48.91499999999999</v>
-      </c>
-      <c r="N169" t="n">
-        <v>49.10666666666664</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9110,28 +6876,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J170" t="n">
-        <v>68.29999999999994</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-25.00000000000013</v>
-      </c>
-      <c r="L170" t="n">
-        <v>48.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>48.84999999999999</v>
-      </c>
-      <c r="N170" t="n">
-        <v>49.07999999999997</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9161,1099 +6911,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J171" t="n">
-        <v>68.29999999999994</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-23.63636363636374</v>
-      </c>
-      <c r="L171" t="n">
-        <v>48.31000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>48.775</v>
-      </c>
-      <c r="N171" t="n">
-        <v>49.05333333333331</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D172" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G172" t="n">
-        <v>49.40500000000001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J172" t="n">
-        <v>69.49999999999994</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L172" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="M172" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="N172" t="n">
-        <v>48.9633333333333</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>48</v>
-      </c>
-      <c r="C173" t="n">
-        <v>48</v>
-      </c>
-      <c r="D173" t="n">
-        <v>48</v>
-      </c>
-      <c r="E173" t="n">
-        <v>48</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1249.6458</v>
-      </c>
-      <c r="G173" t="n">
-        <v>49.37333333333334</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>70.39999999999995</v>
-      </c>
-      <c r="K173" t="n">
-        <v>15.38461538461532</v>
-      </c>
-      <c r="L173" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="M173" t="n">
-        <v>48.655</v>
-      </c>
-      <c r="N173" t="n">
-        <v>48.91333333333331</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>48</v>
-      </c>
-      <c r="C174" t="n">
-        <v>48</v>
-      </c>
-      <c r="D174" t="n">
-        <v>48</v>
-      </c>
-      <c r="E174" t="n">
-        <v>48</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G174" t="n">
-        <v>49.34166666666668</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>70.39999999999995</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-18.91891891891898</v>
-      </c>
-      <c r="L174" t="n">
-        <v>48.14</v>
-      </c>
-      <c r="M174" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="N174" t="n">
-        <v>48.86333333333331</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>48</v>
-      </c>
-      <c r="C175" t="n">
-        <v>48</v>
-      </c>
-      <c r="D175" t="n">
-        <v>48</v>
-      </c>
-      <c r="E175" t="n">
-        <v>48</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1745</v>
-      </c>
-      <c r="G175" t="n">
-        <v>49.30833333333334</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>70.39999999999995</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-18.91891891891898</v>
-      </c>
-      <c r="L175" t="n">
-        <v>48.07000000000001</v>
-      </c>
-      <c r="M175" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="N175" t="n">
-        <v>48.8133333333333</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>48</v>
-      </c>
-      <c r="C176" t="n">
-        <v>48</v>
-      </c>
-      <c r="D176" t="n">
-        <v>48</v>
-      </c>
-      <c r="E176" t="n">
-        <v>48</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2208</v>
-      </c>
-      <c r="G176" t="n">
-        <v>49.27666666666667</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>70.39999999999995</v>
-      </c>
-      <c r="K176" t="n">
-        <v>11.11111111111099</v>
-      </c>
-      <c r="L176" t="n">
-        <v>48.00000000000001</v>
-      </c>
-      <c r="M176" t="n">
-        <v>48.465</v>
-      </c>
-      <c r="N176" t="n">
-        <v>48.75999999999998</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>48</v>
-      </c>
-      <c r="C177" t="n">
-        <v>49</v>
-      </c>
-      <c r="D177" t="n">
-        <v>49</v>
-      </c>
-      <c r="E177" t="n">
-        <v>48</v>
-      </c>
-      <c r="F177" t="n">
-        <v>59211.5777</v>
-      </c>
-      <c r="G177" t="n">
-        <v>49.26166666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>71.39999999999995</v>
-      </c>
-      <c r="K177" t="n">
-        <v>22.58064516129035</v>
-      </c>
-      <c r="L177" t="n">
-        <v>48.13</v>
-      </c>
-      <c r="M177" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="N177" t="n">
-        <v>48.73999999999998</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>49</v>
-      </c>
-      <c r="C178" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D178" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E178" t="n">
-        <v>49</v>
-      </c>
-      <c r="F178" t="n">
-        <v>145066.2801</v>
-      </c>
-      <c r="G178" t="n">
-        <v>49.26166666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J178" t="n">
-        <v>72.29999999999995</v>
-      </c>
-      <c r="K178" t="n">
-        <v>39.99999999999989</v>
-      </c>
-      <c r="L178" t="n">
-        <v>48.29000000000001</v>
-      </c>
-      <c r="M178" t="n">
-        <v>48.47000000000001</v>
-      </c>
-      <c r="N178" t="n">
-        <v>48.74999999999999</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C179" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F179" t="n">
-        <v>72508.5998</v>
-      </c>
-      <c r="G179" t="n">
-        <v>49.27333333333333</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J179" t="n">
-        <v>72.89999999999995</v>
-      </c>
-      <c r="K179" t="n">
-        <v>47.82608695652171</v>
-      </c>
-      <c r="L179" t="n">
-        <v>48.51000000000001</v>
-      </c>
-      <c r="M179" t="n">
-        <v>48.53000000000001</v>
-      </c>
-      <c r="N179" t="n">
-        <v>48.77999999999999</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>998.5</v>
-      </c>
-      <c r="G180" t="n">
-        <v>49.27166666666666</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J180" t="n">
-        <v>73.69999999999995</v>
-      </c>
-      <c r="K180" t="n">
-        <v>25.925925925926</v>
-      </c>
-      <c r="L180" t="n">
-        <v>48.65000000000001</v>
-      </c>
-      <c r="M180" t="n">
-        <v>48.55000000000001</v>
-      </c>
-      <c r="N180" t="n">
-        <v>48.78333333333332</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11</v>
-      </c>
-      <c r="G181" t="n">
-        <v>49.28166666666666</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>74.39999999999995</v>
-      </c>
-      <c r="K181" t="n">
-        <v>67.34693877551007</v>
-      </c>
-      <c r="L181" t="n">
-        <v>48.86000000000001</v>
-      </c>
-      <c r="M181" t="n">
-        <v>48.58500000000001</v>
-      </c>
-      <c r="N181" t="n">
-        <v>48.80333333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F182" t="n">
-        <v>11</v>
-      </c>
-      <c r="G182" t="n">
-        <v>49.29166666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J182" t="n">
-        <v>74.49999999999994</v>
-      </c>
-      <c r="K182" t="n">
-        <v>56.09756097560976</v>
-      </c>
-      <c r="L182" t="n">
-        <v>49.18000000000001</v>
-      </c>
-      <c r="M182" t="n">
-        <v>48.62</v>
-      </c>
-      <c r="N182" t="n">
-        <v>48.84666666666666</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2913.0979</v>
-      </c>
-      <c r="G183" t="n">
-        <v>49.30166666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J183" t="n">
-        <v>74.49999999999994</v>
-      </c>
-      <c r="K183" t="n">
-        <v>56.09756097560976</v>
-      </c>
-      <c r="L183" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="M183" t="n">
-        <v>48.735</v>
-      </c>
-      <c r="N183" t="n">
-        <v>48.90666666666666</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E184" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1308.0305</v>
-      </c>
-      <c r="G184" t="n">
-        <v>49.31500000000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J184" t="n">
-        <v>74.59999999999994</v>
-      </c>
-      <c r="K184" t="n">
-        <v>57.14285714285726</v>
-      </c>
-      <c r="L184" t="n">
-        <v>49.65</v>
-      </c>
-      <c r="M184" t="n">
-        <v>48.895</v>
-      </c>
-      <c r="N184" t="n">
-        <v>48.95666666666666</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C185" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D185" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E185" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15793.1298</v>
-      </c>
-      <c r="G185" t="n">
-        <v>49.32666666666668</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J185" t="n">
-        <v>75.09999999999994</v>
-      </c>
-      <c r="K185" t="n">
-        <v>40.42553191489369</v>
-      </c>
-      <c r="L185" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="M185" t="n">
-        <v>48.95500000000001</v>
-      </c>
-      <c r="N185" t="n">
-        <v>48.98666666666666</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>50</v>
-      </c>
-      <c r="C186" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D186" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E186" t="n">
-        <v>50</v>
-      </c>
-      <c r="F186" t="n">
-        <v>253.8702</v>
-      </c>
-      <c r="G186" t="n">
-        <v>49.34833333333335</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>75.69999999999993</v>
-      </c>
-      <c r="K186" t="n">
-        <v>34.8837209302327</v>
-      </c>
-      <c r="L186" t="n">
-        <v>50.09</v>
-      </c>
-      <c r="M186" t="n">
-        <v>49.045</v>
-      </c>
-      <c r="N186" t="n">
-        <v>49.00666666666666</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>50</v>
-      </c>
-      <c r="C187" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>50</v>
-      </c>
-      <c r="E187" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F187" t="n">
-        <v>362.608</v>
-      </c>
-      <c r="G187" t="n">
-        <v>49.35166666666669</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J187" t="n">
-        <v>76.39999999999993</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-2.439024390243949</v>
-      </c>
-      <c r="L187" t="n">
-        <v>50.16999999999999</v>
-      </c>
-      <c r="M187" t="n">
-        <v>49.15</v>
-      </c>
-      <c r="N187" t="n">
-        <v>49.02333333333333</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>9033.593500000001</v>
-      </c>
-      <c r="G188" t="n">
-        <v>49.32666666666669</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J188" t="n">
-        <v>78.09999999999994</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-46.15384615384623</v>
-      </c>
-      <c r="L188" t="n">
-        <v>49.98999999999999</v>
-      </c>
-      <c r="M188" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="N188" t="n">
-        <v>48.97666666666666</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C189" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D189" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E189" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30091.4703</v>
-      </c>
-      <c r="G189" t="n">
-        <v>49.30333333333336</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J189" t="n">
-        <v>78.39999999999993</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-27.65957446808526</v>
-      </c>
-      <c r="L189" t="n">
-        <v>49.77999999999999</v>
-      </c>
-      <c r="M189" t="n">
-        <v>49.145</v>
-      </c>
-      <c r="N189" t="n">
-        <v>48.94666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>31235.6444</v>
-      </c>
-      <c r="G190" t="n">
-        <v>49.25333333333335</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J190" t="n">
-        <v>79.39999999999993</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-60.00000000000018</v>
-      </c>
-      <c r="L190" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="M190" t="n">
-        <v>49.10000000000001</v>
-      </c>
-      <c r="N190" t="n">
-        <v>48.88333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>5752.9599</v>
-      </c>
-      <c r="G191" t="n">
-        <v>49.21500000000002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J191" t="n">
-        <v>80.09999999999994</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-39.28571428571425</v>
-      </c>
-      <c r="L191" t="n">
-        <v>49.31999999999999</v>
-      </c>
-      <c r="M191" t="n">
-        <v>49.09000000000001</v>
-      </c>
-      <c r="N191" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F192" t="n">
-        <v>800</v>
-      </c>
-      <c r="G192" t="n">
-        <v>49.17666666666668</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J192" t="n">
-        <v>80.09999999999994</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-39.28571428571425</v>
-      </c>
-      <c r="L192" t="n">
-        <v>49.09999999999999</v>
-      </c>
-      <c r="M192" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="N192" t="n">
-        <v>48.77999999999999</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -451,17 +451,13 @@
         <v>47.99</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>48.00166666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>48</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>48.03833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -2256,17 +2236,13 @@
         <v>48.51833333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>47.4</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2301,16 +2277,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="K54" t="n">
         <v>47.4</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2338,14 +2310,12 @@
         <v>48.52166666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>47.6</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>47.4</v>
       </c>
@@ -2381,14 +2351,12 @@
         <v>48.52166666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>47.6</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>47.4</v>
       </c>
@@ -2424,14 +2392,12 @@
         <v>48.52333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>47.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>47.4</v>
       </c>
@@ -2473,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="K58" t="n">
         <v>47.4</v>
@@ -2553,14 +2519,12 @@
         <v>48.51666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>47.2</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>47.4</v>
       </c>
@@ -2596,14 +2560,12 @@
         <v>48.51166666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>47.4</v>
       </c>
@@ -2639,14 +2601,12 @@
         <v>48.49666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>47.5</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>47.4</v>
       </c>
@@ -2682,14 +2642,12 @@
         <v>48.465</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>47</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>47.4</v>
       </c>
@@ -2725,14 +2683,12 @@
         <v>48.44</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>46.9</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>47.4</v>
       </c>
@@ -2768,14 +2724,12 @@
         <v>48.40333333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>47.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>47.4</v>
       </c>
@@ -2811,14 +2765,12 @@
         <v>48.36666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>47.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>47.4</v>
       </c>
@@ -2854,14 +2806,12 @@
         <v>48.335</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>47.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>47.4</v>
       </c>
@@ -2897,14 +2847,12 @@
         <v>48.31</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>47.4</v>
       </c>
@@ -2940,14 +2888,12 @@
         <v>48.27833333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>47.5</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>47.4</v>
       </c>
@@ -2983,14 +2929,12 @@
         <v>48.24166666666666</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>47.4</v>
       </c>
@@ -3026,14 +2970,12 @@
         <v>48.24166666666666</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>48</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>47.4</v>
       </c>
@@ -3069,14 +3011,12 @@
         <v>48.21333333333332</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>47.4</v>
       </c>
@@ -3238,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
@@ -3246,11 +3186,11 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>1.049852320675106</v>
       </c>
     </row>
     <row r="77">
@@ -3279,17 +3219,11 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3323,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3364,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3446,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3487,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3528,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3569,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3610,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3651,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3733,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3774,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3856,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3897,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3938,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4061,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4102,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4143,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4225,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4389,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4430,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4553,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4635,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4676,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4881,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5086,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5250,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5291,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5455,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5575,19 +5179,13 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>1.058291139240506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5616,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5651,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,16 @@
         <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E2" t="n">
         <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>1183</v>
+        <v>2530.0175</v>
       </c>
       <c r="G2" t="n">
-        <v>47.99</v>
+        <v>47.97666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>4674.2925</v>
+        <v>1183</v>
       </c>
       <c r="G3" t="n">
-        <v>48.00166666666667</v>
+        <v>47.99</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="E4" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="F4" t="n">
-        <v>98313.56050000001</v>
+        <v>4674.2925</v>
       </c>
       <c r="G4" t="n">
-        <v>48.03833333333333</v>
+        <v>48.00166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="C5" t="n">
         <v>49</v>
@@ -550,10 +550,10 @@
         <v>48.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3363</v>
+        <v>98313.56050000001</v>
       </c>
       <c r="G5" t="n">
-        <v>48.06833333333334</v>
+        <v>48.03833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="F6" t="n">
-        <v>6537</v>
+        <v>3363</v>
       </c>
       <c r="G6" t="n">
-        <v>48.10333333333334</v>
+        <v>48.06833333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="C7" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E7" t="n">
         <v>49.1</v>
       </c>
       <c r="F7" t="n">
-        <v>15184.5368</v>
+        <v>6537</v>
       </c>
       <c r="G7" t="n">
-        <v>48.14</v>
+        <v>48.10333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="C8" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="D8" t="n">
         <v>49.6</v>
       </c>
       <c r="E8" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F8" t="n">
-        <v>29018.2855</v>
+        <v>15184.5368</v>
       </c>
       <c r="G8" t="n">
-        <v>48.165</v>
+        <v>48.14</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C9" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E9" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3814.6923</v>
+        <v>29018.2855</v>
       </c>
       <c r="G9" t="n">
-        <v>48.20166666666668</v>
+        <v>48.165</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C10" t="n">
         <v>49.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>49.4</v>
       </c>
       <c r="D10" t="n">
         <v>49.9</v>
       </c>
       <c r="E10" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F10" t="n">
-        <v>6427.0905</v>
+        <v>3814.6923</v>
       </c>
       <c r="G10" t="n">
-        <v>48.23000000000001</v>
+        <v>48.20166666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E11" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F11" t="n">
-        <v>21909.7908</v>
+        <v>6427.0905</v>
       </c>
       <c r="G11" t="n">
-        <v>48.26000000000001</v>
+        <v>48.23000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C12" t="n">
         <v>49.6</v>
       </c>
-      <c r="C12" t="n">
-        <v>49.9</v>
-      </c>
       <c r="D12" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E12" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="F12" t="n">
-        <v>21860.2551</v>
+        <v>21909.7908</v>
       </c>
       <c r="G12" t="n">
-        <v>48.295</v>
+        <v>48.26000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C13" t="n">
         <v>49.9</v>
@@ -827,13 +827,13 @@
         <v>49.9</v>
       </c>
       <c r="E13" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.391</v>
+        <v>21860.2551</v>
       </c>
       <c r="G13" t="n">
-        <v>48.33166666666668</v>
+        <v>48.295</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>49.9</v>
       </c>
       <c r="F14" t="n">
-        <v>10.5799</v>
+        <v>3.391</v>
       </c>
       <c r="G14" t="n">
-        <v>48.37166666666668</v>
+        <v>48.33166666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="C15" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="D15" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="E15" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="F15" t="n">
-        <v>9102.762500000001</v>
+        <v>10.5799</v>
       </c>
       <c r="G15" t="n">
-        <v>48.39833333333334</v>
+        <v>48.37166666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C16" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3</v>
+        <v>50.1</v>
       </c>
       <c r="E16" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="F16" t="n">
-        <v>9917.6854</v>
+        <v>9102.762500000001</v>
       </c>
       <c r="G16" t="n">
-        <v>48.41333333333334</v>
+        <v>48.39833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="C17" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="F17" t="n">
-        <v>6250</v>
+        <v>9917.6854</v>
       </c>
       <c r="G17" t="n">
-        <v>48.43833333333335</v>
+        <v>48.41333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>50.2</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="F18" t="n">
-        <v>47746.4164</v>
+        <v>6250</v>
       </c>
       <c r="G18" t="n">
-        <v>48.44166666666668</v>
+        <v>48.43833333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>48.3</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="D19" t="n">
-        <v>48.3</v>
+        <v>50.2</v>
       </c>
       <c r="E19" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>47746.4164</v>
       </c>
       <c r="G19" t="n">
-        <v>48.46333333333335</v>
+        <v>48.44166666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="C20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3000</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>48.48500000000001</v>
+        <v>48.46333333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>48.2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="D21" t="n">
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="E21" t="n">
         <v>48.2</v>
       </c>
       <c r="F21" t="n">
-        <v>22231</v>
+        <v>3000</v>
       </c>
       <c r="G21" t="n">
-        <v>48.51833333333334</v>
+        <v>48.48500000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="C22" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="D22" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="E22" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="F22" t="n">
-        <v>111</v>
+        <v>22231</v>
       </c>
       <c r="G22" t="n">
-        <v>48.56833333333334</v>
+        <v>48.51833333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="C23" t="n">
         <v>49.8</v>
@@ -1177,13 +1177,13 @@
         <v>49.8</v>
       </c>
       <c r="E23" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="F23" t="n">
-        <v>5116.8509</v>
+        <v>111</v>
       </c>
       <c r="G23" t="n">
-        <v>48.62000000000001</v>
+        <v>48.56833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="C24" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D24" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E24" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="F24" t="n">
-        <v>20819.6684</v>
+        <v>5116.8509</v>
       </c>
       <c r="G24" t="n">
-        <v>48.64000000000001</v>
+        <v>48.62000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="C25" t="n">
-        <v>48.6</v>
+        <v>49.9</v>
       </c>
       <c r="D25" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="E25" t="n">
-        <v>48.6</v>
+        <v>49.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3712.7859</v>
+        <v>20819.6684</v>
       </c>
       <c r="G25" t="n">
-        <v>48.62666666666668</v>
+        <v>48.64000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="C26" t="n">
-        <v>48.2</v>
+        <v>48.6</v>
       </c>
       <c r="D26" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="E26" t="n">
-        <v>48.2</v>
+        <v>48.6</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>3712.7859</v>
       </c>
       <c r="G26" t="n">
-        <v>48.59666666666668</v>
+        <v>48.62666666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="C27" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="D27" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="E27" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="F27" t="n">
-        <v>11.8334</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>48.57833333333335</v>
+        <v>48.59666666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C28" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="D28" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="E28" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="F28" t="n">
-        <v>72</v>
+        <v>11.8334</v>
       </c>
       <c r="G28" t="n">
-        <v>48.54833333333334</v>
+        <v>48.57833333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="C29" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="D29" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="E29" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="F29" t="n">
-        <v>19230.0765</v>
+        <v>72</v>
       </c>
       <c r="G29" t="n">
-        <v>48.50666666666667</v>
+        <v>48.54833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C30" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="D30" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E30" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="F30" t="n">
-        <v>36046.2578</v>
+        <v>19230.0765</v>
       </c>
       <c r="G30" t="n">
-        <v>48.48500000000001</v>
+        <v>48.50666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C31" t="n">
         <v>48.5</v>
       </c>
-      <c r="C31" t="n">
-        <v>48.6</v>
-      </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="E31" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F31" t="n">
-        <v>26230.6578</v>
+        <v>36046.2578</v>
       </c>
       <c r="G31" t="n">
-        <v>48.46333333333334</v>
+        <v>48.48500000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="C32" t="n">
-        <v>47.9</v>
+        <v>48.6</v>
       </c>
       <c r="D32" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E32" t="n">
-        <v>47.9</v>
+        <v>48.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10101.3863</v>
+        <v>26230.6578</v>
       </c>
       <c r="G32" t="n">
-        <v>48.43166666666666</v>
+        <v>48.46333333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C33" t="n">
-        <v>49.1</v>
+        <v>47.9</v>
       </c>
       <c r="D33" t="n">
         <v>49.1</v>
       </c>
       <c r="E33" t="n">
-        <v>49.1</v>
+        <v>47.9</v>
       </c>
       <c r="F33" t="n">
-        <v>400</v>
+        <v>10101.3863</v>
       </c>
       <c r="G33" t="n">
-        <v>48.44666666666667</v>
+        <v>48.43166666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="C34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="D34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="E34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G34" t="n">
-        <v>48.45333333333333</v>
+        <v>48.44666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C35" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D35" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E35" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
         <v>48.45333333333333</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C36" t="n">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="D36" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E36" t="n">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1681</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
-        <v>48.42833333333333</v>
+        <v>48.45333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C37" t="n">
-        <v>49.3</v>
+        <v>48.1</v>
       </c>
       <c r="D37" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E37" t="n">
-        <v>49.3</v>
+        <v>48.1</v>
       </c>
       <c r="F37" t="n">
-        <v>1111</v>
+        <v>1681</v>
       </c>
       <c r="G37" t="n">
-        <v>48.43333333333333</v>
+        <v>48.42833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="C38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="D38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="E38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>1111</v>
       </c>
       <c r="G38" t="n">
         <v>48.43333333333333</v>
@@ -1740,10 +1740,10 @@
         <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>44.4444</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>48.44666666666667</v>
+        <v>48.43333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="E40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>4033.8157</v>
+        <v>44.4444</v>
       </c>
       <c r="G40" t="n">
-        <v>48.46666666666667</v>
+        <v>48.44666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C41" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="D41" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="E41" t="n">
-        <v>48.1</v>
+        <v>49.2</v>
       </c>
       <c r="F41" t="n">
-        <v>19913.2477</v>
+        <v>4033.8157</v>
       </c>
       <c r="G41" t="n">
-        <v>48.49166666666667</v>
+        <v>48.46666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>48.9</v>
+        <v>49.3</v>
       </c>
       <c r="C42" t="n">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="D42" t="n">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="E42" t="n">
-        <v>48.9</v>
+        <v>48.1</v>
       </c>
       <c r="F42" t="n">
-        <v>243.5699</v>
+        <v>19913.2477</v>
       </c>
       <c r="G42" t="n">
-        <v>48.51166666666667</v>
+        <v>48.49166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="C43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="D43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="E43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="F43" t="n">
-        <v>7597</v>
+        <v>243.5699</v>
       </c>
       <c r="G43" t="n">
-        <v>48.515</v>
+        <v>48.51166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="C44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="D44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="E44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="F44" t="n">
-        <v>6907.291</v>
+        <v>7597</v>
       </c>
       <c r="G44" t="n">
-        <v>48.52666666666666</v>
+        <v>48.515</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>47.6</v>
       </c>
       <c r="C45" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D45" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="E45" t="n">
         <v>47.6</v>
       </c>
       <c r="F45" t="n">
-        <v>22</v>
+        <v>6907.291</v>
       </c>
       <c r="G45" t="n">
         <v>48.52666666666666</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="C46" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D46" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="E46" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="F46" t="n">
         <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>48.52833333333334</v>
+        <v>48.52666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>47.8</v>
       </c>
       <c r="C47" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="D47" t="n">
         <v>47.8</v>
       </c>
       <c r="E47" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="F47" t="n">
-        <v>6178</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>48.51666666666667</v>
+        <v>48.52833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="C48" t="n">
         <v>47.4</v>
       </c>
       <c r="D48" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="E48" t="n">
         <v>47.4</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>6178</v>
       </c>
       <c r="G48" t="n">
-        <v>48.52666666666667</v>
+        <v>48.51666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="C49" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="D49" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="E49" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>48.53333333333334</v>
+        <v>48.52666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="C50" t="n">
-        <v>47.1</v>
+        <v>47.3</v>
       </c>
       <c r="D50" t="n">
-        <v>47.6</v>
+        <v>47.3</v>
       </c>
       <c r="E50" t="n">
         <v>47.1</v>
       </c>
       <c r="F50" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="G50" t="n">
-        <v>48.52666666666667</v>
+        <v>48.53333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="C51" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="D51" t="n">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="E51" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G51" t="n">
-        <v>48.52</v>
+        <v>48.52666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="C52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="D52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="E52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="F52" t="n">
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>48.52500000000001</v>
+        <v>48.52</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="C53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="D53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="E53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>48.51833333333334</v>
+        <v>48.52500000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="C54" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="D54" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="E54" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>48.52500000000001</v>
+        <v>48.51833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="K54" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
@@ -2292,7 +2292,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="C55" t="n">
         <v>47.6</v>
@@ -2301,23 +2301,25 @@
         <v>47.6</v>
       </c>
       <c r="E55" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="F55" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G55" t="n">
-        <v>48.52166666666667</v>
+        <v>48.52500000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>47.4</v>
+      </c>
       <c r="K55" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2336,203 +2338,195 @@
         <v>47.6</v>
       </c>
       <c r="C56" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="D56" t="n">
         <v>47.6</v>
       </c>
       <c r="E56" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="F56" t="n">
-        <v>5582.0273</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
         <v>48.52166666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>47.6</v>
+      </c>
       <c r="K56" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C57" t="n">
         <v>47.4</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="D57" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5582.0273</v>
+      </c>
+      <c r="G57" t="n">
+        <v>48.52166666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5592.3639</v>
+      </c>
+      <c r="G58" t="n">
+        <v>48.52333333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="n">
+        <v>48.52500000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>126</v>
+      </c>
+      <c r="G60" t="n">
+        <v>48.515</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C57" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D57" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5592.3639</v>
-      </c>
-      <c r="G57" t="n">
-        <v>48.52333333333333</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>11</v>
-      </c>
-      <c r="G58" t="n">
-        <v>48.52500000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>126</v>
-      </c>
-      <c r="G59" t="n">
-        <v>48.515</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K59" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>111</v>
-      </c>
-      <c r="G60" t="n">
-        <v>48.51666666666667</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2542,30 +2536,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="C61" t="n">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="D61" t="n">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="E61" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G61" t="n">
-        <v>48.51166666666666</v>
+        <v>48.51666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K61" t="n">
         <v>47.4</v>
       </c>
@@ -2583,22 +2579,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C62" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="D62" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="E62" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="F62" t="n">
-        <v>488</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>48.49666666666666</v>
+        <v>48.51166666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2624,22 +2620,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="C63" t="n">
-        <v>46.8</v>
+        <v>47.1</v>
       </c>
       <c r="D63" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="E63" t="n">
-        <v>46.8</v>
+        <v>47.1</v>
       </c>
       <c r="F63" t="n">
-        <v>33</v>
+        <v>488</v>
       </c>
       <c r="G63" t="n">
-        <v>48.465</v>
+        <v>48.49666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2665,22 +2661,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="C64" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="D64" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="E64" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="F64" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G64" t="n">
-        <v>48.44</v>
+        <v>48.465</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2702,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="C65" t="n">
-        <v>46.8</v>
+        <v>47.5</v>
       </c>
       <c r="D65" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="E65" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="F65" t="n">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="G65" t="n">
-        <v>48.40333333333334</v>
+        <v>48.44</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2750,19 +2746,19 @@
         <v>47.6</v>
       </c>
       <c r="C66" t="n">
-        <v>47.1</v>
+        <v>46.8</v>
       </c>
       <c r="D66" t="n">
         <v>47.6</v>
       </c>
       <c r="E66" t="n">
-        <v>47.1</v>
+        <v>46.8</v>
       </c>
       <c r="F66" t="n">
-        <v>532.7226000000001</v>
+        <v>340</v>
       </c>
       <c r="G66" t="n">
-        <v>48.36666666666667</v>
+        <v>48.40333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2788,22 +2784,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
       <c r="C67" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="D67" t="n">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
       <c r="E67" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="F67" t="n">
-        <v>54</v>
+        <v>532.7226000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>48.335</v>
+        <v>48.36666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2829,22 +2825,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="C68" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="D68" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="E68" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F68" t="n">
-        <v>3419</v>
+        <v>54</v>
       </c>
       <c r="G68" t="n">
-        <v>48.31</v>
+        <v>48.335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2870,22 +2866,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="D69" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="E69" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F69" t="n">
-        <v>900</v>
+        <v>3419</v>
       </c>
       <c r="G69" t="n">
-        <v>48.27833333333333</v>
+        <v>48.31</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2911,22 +2907,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C70" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D70" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E70" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="F70" t="n">
-        <v>121</v>
+        <v>900</v>
       </c>
       <c r="G70" t="n">
-        <v>48.24166666666666</v>
+        <v>48.27833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2952,19 +2948,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C71" t="n">
-        <v>49.6</v>
+        <v>47.2</v>
       </c>
       <c r="D71" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="E71" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="F71" t="n">
-        <v>51435.137</v>
+        <v>121</v>
       </c>
       <c r="G71" t="n">
         <v>48.24166666666666</v>
@@ -2993,22 +2989,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C72" t="n">
-        <v>48.2</v>
+        <v>49.6</v>
       </c>
       <c r="D72" t="n">
-        <v>48.2</v>
+        <v>49.6</v>
       </c>
       <c r="E72" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>51435.137</v>
       </c>
       <c r="G72" t="n">
-        <v>48.21333333333332</v>
+        <v>48.24166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3034,22 +3030,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.1</v>
+        <v>48.2</v>
       </c>
       <c r="C73" t="n">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="D73" t="n">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="E73" t="n">
         <v>48.2</v>
       </c>
       <c r="F73" t="n">
-        <v>2636.5135</v>
+        <v>15</v>
       </c>
       <c r="G73" t="n">
-        <v>48.20833333333332</v>
+        <v>48.21333333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3075,22 +3071,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C74" t="n">
         <v>49.6</v>
       </c>
-      <c r="C74" t="n">
-        <v>50</v>
-      </c>
       <c r="D74" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="E74" t="n">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="F74" t="n">
-        <v>4731.565</v>
+        <v>2636.5135</v>
       </c>
       <c r="G74" t="n">
-        <v>48.20999999999999</v>
+        <v>48.20833333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3116,7 +3112,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C75" t="n">
         <v>50</v>
@@ -3125,13 +3121,13 @@
         <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F75" t="n">
-        <v>818.6838</v>
+        <v>4731.565</v>
       </c>
       <c r="G75" t="n">
-        <v>48.22499999999999</v>
+        <v>48.20999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3157,7 +3153,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>48.4</v>
+        <v>49.5</v>
       </c>
       <c r="C76" t="n">
         <v>50</v>
@@ -3166,13 +3162,13 @@
         <v>50</v>
       </c>
       <c r="E76" t="n">
-        <v>48.4</v>
+        <v>49.5</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>818.6838</v>
       </c>
       <c r="G76" t="n">
-        <v>48.25166666666665</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3198,28 +3194,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="C77" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>49.2</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
       <c r="F77" t="n">
-        <v>7604.5639</v>
+        <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>48.22166666666665</v>
+        <v>48.25166666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3233,28 +3229,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="C78" t="n">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
       <c r="D78" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="E78" t="n">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>7604.5639</v>
       </c>
       <c r="G78" t="n">
-        <v>48.23499999999999</v>
+        <v>48.22166666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3268,19 +3264,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="C79" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="D79" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E79" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="F79" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
         <v>48.23499999999999</v>
@@ -3303,22 +3299,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="C80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="D80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E80" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>48.23833333333332</v>
+        <v>48.23499999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3338,22 +3334,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C81" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="D81" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="E81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F81" t="n">
-        <v>2563.8881</v>
+        <v>111</v>
       </c>
       <c r="G81" t="n">
-        <v>48.24166666666665</v>
+        <v>48.23833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3373,22 +3369,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="C82" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D82" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E82" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="F82" t="n">
-        <v>3733</v>
+        <v>2563.8881</v>
       </c>
       <c r="G82" t="n">
-        <v>48.22666666666665</v>
+        <v>48.24166666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3408,22 +3404,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C83" t="n">
-        <v>49.3</v>
+        <v>48.9</v>
       </c>
       <c r="D83" t="n">
-        <v>49.3</v>
+        <v>48.9</v>
       </c>
       <c r="E83" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F83" t="n">
-        <v>1364.4001</v>
+        <v>3733</v>
       </c>
       <c r="G83" t="n">
-        <v>48.21833333333332</v>
+        <v>48.22666666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3443,22 +3439,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C84" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D84" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E84" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>1364.4001</v>
       </c>
       <c r="G84" t="n">
-        <v>48.21333333333332</v>
+        <v>48.21833333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3478,22 +3474,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F85" t="n">
-        <v>3568</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>48.22666666666665</v>
+        <v>48.21333333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3513,22 +3509,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C86" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D86" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E86" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="F86" t="n">
-        <v>18944.4137</v>
+        <v>3568</v>
       </c>
       <c r="G86" t="n">
-        <v>48.24499999999999</v>
+        <v>48.22666666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3548,22 +3544,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>48.6</v>
+        <v>49.3</v>
       </c>
       <c r="C87" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="D87" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="E87" t="n">
         <v>48.6</v>
       </c>
       <c r="F87" t="n">
-        <v>51.9831</v>
+        <v>18944.4137</v>
       </c>
       <c r="G87" t="n">
-        <v>48.24833333333332</v>
+        <v>48.24499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3583,22 +3579,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>49.2</v>
+        <v>48.6</v>
       </c>
       <c r="C88" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="D88" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="E88" t="n">
         <v>48.6</v>
       </c>
       <c r="F88" t="n">
-        <v>962.2654</v>
+        <v>51.9831</v>
       </c>
       <c r="G88" t="n">
-        <v>48.26166666666666</v>
+        <v>48.24833333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3618,22 +3614,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>48.5</v>
+        <v>49.2</v>
       </c>
       <c r="C89" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="D89" t="n">
-        <v>48.5</v>
+        <v>49.2</v>
       </c>
       <c r="E89" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>962.2654</v>
       </c>
       <c r="G89" t="n">
-        <v>48.27333333333332</v>
+        <v>48.26166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3653,22 +3649,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C90" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="D90" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E90" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="F90" t="n">
-        <v>1423.4978</v>
+        <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>48.26833333333332</v>
+        <v>48.27333333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3688,22 +3684,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="C91" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="D91" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="E91" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="F91" t="n">
-        <v>192.2148</v>
+        <v>1423.4978</v>
       </c>
       <c r="G91" t="n">
-        <v>48.25666666666665</v>
+        <v>48.26833333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3723,22 +3719,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="C92" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D92" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E92" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F92" t="n">
-        <v>18128.2934</v>
+        <v>192.2148</v>
       </c>
       <c r="G92" t="n">
-        <v>48.25333333333332</v>
+        <v>48.25666666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3758,22 +3754,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="C93" t="n">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="D93" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E93" t="n">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="F93" t="n">
-        <v>1465.4263</v>
+        <v>18128.2934</v>
       </c>
       <c r="G93" t="n">
-        <v>48.21833333333332</v>
+        <v>48.25333333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3793,22 +3789,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="C94" t="n">
         <v>47</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="E94" t="n">
         <v>47</v>
       </c>
       <c r="F94" t="n">
-        <v>818.6838</v>
+        <v>1465.4263</v>
       </c>
       <c r="G94" t="n">
-        <v>48.17333333333332</v>
+        <v>48.21833333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3828,22 +3824,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="C95" t="n">
-        <v>47.8</v>
+        <v>47</v>
       </c>
       <c r="D95" t="n">
-        <v>47.8</v>
+        <v>47</v>
       </c>
       <c r="E95" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="F95" t="n">
-        <v>2962.2797</v>
+        <v>818.6838</v>
       </c>
       <c r="G95" t="n">
-        <v>48.14499999999999</v>
+        <v>48.17333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3863,7 +3859,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C96" t="n">
         <v>47.8</v>
@@ -3872,13 +3868,13 @@
         <v>47.8</v>
       </c>
       <c r="E96" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F96" t="n">
-        <v>16048.9489</v>
+        <v>2962.2797</v>
       </c>
       <c r="G96" t="n">
-        <v>48.13999999999999</v>
+        <v>48.14499999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3898,22 +3894,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="C97" t="n">
-        <v>49.5</v>
+        <v>47.8</v>
       </c>
       <c r="D97" t="n">
-        <v>49.5</v>
+        <v>47.8</v>
       </c>
       <c r="E97" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="F97" t="n">
-        <v>4001</v>
+        <v>16048.9489</v>
       </c>
       <c r="G97" t="n">
-        <v>48.14333333333332</v>
+        <v>48.13999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3933,7 +3929,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C98" t="n">
         <v>49.5</v>
@@ -3942,13 +3938,13 @@
         <v>49.5</v>
       </c>
       <c r="E98" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="F98" t="n">
-        <v>304</v>
+        <v>4001</v>
       </c>
       <c r="G98" t="n">
-        <v>48.15166666666666</v>
+        <v>48.14333333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3968,22 +3964,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>48.2</v>
+        <v>49</v>
       </c>
       <c r="C99" t="n">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="D99" t="n">
-        <v>48.2</v>
+        <v>49.5</v>
       </c>
       <c r="E99" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="F99" t="n">
-        <v>20353.9489</v>
+        <v>304</v>
       </c>
       <c r="G99" t="n">
-        <v>48.13666666666666</v>
+        <v>48.15166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4003,22 +3999,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="C100" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D100" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="E100" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>20353.9489</v>
       </c>
       <c r="G100" t="n">
-        <v>48.11666666666666</v>
+        <v>48.13666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4041,19 +4037,19 @@
         <v>48.5</v>
       </c>
       <c r="C101" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D101" t="n">
         <v>48.5</v>
       </c>
       <c r="E101" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="F101" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>48.07999999999999</v>
+        <v>48.11666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4076,19 +4072,19 @@
         <v>48.5</v>
       </c>
       <c r="C102" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="D102" t="n">
         <v>48.5</v>
       </c>
       <c r="E102" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="F102" t="n">
-        <v>25.7903</v>
+        <v>800</v>
       </c>
       <c r="G102" t="n">
-        <v>48.07333333333332</v>
+        <v>48.07999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4108,7 +4104,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="C103" t="n">
         <v>48.5</v>
@@ -4117,13 +4113,13 @@
         <v>48.5</v>
       </c>
       <c r="E103" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="F103" t="n">
-        <v>3680.8313</v>
+        <v>25.7903</v>
       </c>
       <c r="G103" t="n">
-        <v>48.08666666666666</v>
+        <v>48.07333333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4143,7 +4139,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="C104" t="n">
         <v>48.5</v>
@@ -4152,13 +4148,13 @@
         <v>48.5</v>
       </c>
       <c r="E104" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="F104" t="n">
-        <v>9021.839400000001</v>
+        <v>3680.8313</v>
       </c>
       <c r="G104" t="n">
-        <v>48.10166666666666</v>
+        <v>48.08666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4178,22 +4174,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="C105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="D105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="E105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>9021.839400000001</v>
       </c>
       <c r="G105" t="n">
-        <v>48.12833333333333</v>
+        <v>48.10166666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4216,19 +4212,19 @@
         <v>49.3</v>
       </c>
       <c r="C106" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D106" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E106" t="n">
         <v>49.3</v>
       </c>
       <c r="F106" t="n">
-        <v>6943.1207</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>48.15499999999999</v>
+        <v>48.12833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4248,22 +4244,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="C107" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D107" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E107" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="F107" t="n">
-        <v>4937.0478</v>
+        <v>6943.1207</v>
       </c>
       <c r="G107" t="n">
-        <v>48.18999999999999</v>
+        <v>48.15499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4283,22 +4279,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C108" t="n">
         <v>49.5</v>
       </c>
       <c r="D108" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E108" t="n">
         <v>49.5</v>
       </c>
       <c r="F108" t="n">
-        <v>8345.9522</v>
+        <v>4937.0478</v>
       </c>
       <c r="G108" t="n">
-        <v>48.22499999999999</v>
+        <v>48.18999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4318,22 +4314,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D109" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="E109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F109" t="n">
-        <v>793.3421</v>
+        <v>8345.9522</v>
       </c>
       <c r="G109" t="n">
-        <v>48.25999999999999</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4365,10 +4361,10 @@
         <v>49.4</v>
       </c>
       <c r="F110" t="n">
-        <v>894.8159000000001</v>
+        <v>793.3421</v>
       </c>
       <c r="G110" t="n">
-        <v>48.29833333333332</v>
+        <v>48.25999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4388,22 +4384,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="C111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="D111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="E111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1455.2242</v>
+        <v>894.8159000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>48.34333333333333</v>
+        <v>48.29833333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4426,19 +4422,19 @@
         <v>49.9</v>
       </c>
       <c r="C112" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="D112" t="n">
         <v>49.9</v>
       </c>
       <c r="E112" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1073.6413</v>
+        <v>1455.2242</v>
       </c>
       <c r="G112" t="n">
-        <v>48.37</v>
+        <v>48.34333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4461,19 +4457,19 @@
         <v>49.9</v>
       </c>
       <c r="C113" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="D113" t="n">
         <v>49.9</v>
       </c>
       <c r="E113" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="F113" t="n">
-        <v>1319.2072</v>
+        <v>1073.6413</v>
       </c>
       <c r="G113" t="n">
-        <v>48.41166666666666</v>
+        <v>48.37</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4505,10 +4501,10 @@
         <v>49.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3000</v>
+        <v>1319.2072</v>
       </c>
       <c r="G114" t="n">
-        <v>48.45</v>
+        <v>48.41166666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4528,22 +4524,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C115" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D115" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E115" t="n">
         <v>49.9</v>
       </c>
       <c r="F115" t="n">
-        <v>15661.8751</v>
+        <v>3000</v>
       </c>
       <c r="G115" t="n">
-        <v>48.49</v>
+        <v>48.45</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4563,22 +4559,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C116" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E116" t="n">
         <v>49.9</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>15661.8751</v>
       </c>
       <c r="G116" t="n">
-        <v>48.53166666666667</v>
+        <v>48.49</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4610,10 +4606,10 @@
         <v>49.9</v>
       </c>
       <c r="F117" t="n">
-        <v>844.0572</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>48.56833333333334</v>
+        <v>48.53166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4645,10 +4641,10 @@
         <v>49.9</v>
       </c>
       <c r="F118" t="n">
-        <v>759.8619</v>
+        <v>844.0572</v>
       </c>
       <c r="G118" t="n">
-        <v>48.60333333333334</v>
+        <v>48.56833333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4668,28 +4664,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="C119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="D119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>759.8619</v>
       </c>
       <c r="G119" t="n">
-        <v>48.64666666666668</v>
+        <v>48.60333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4712,19 +4708,19 @@
         <v>49.8</v>
       </c>
       <c r="E120" t="n">
-        <v>48.7</v>
+        <v>49.8</v>
       </c>
       <c r="F120" t="n">
-        <v>17335.9909</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>48.67500000000002</v>
+        <v>48.64666666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4747,19 +4743,19 @@
         <v>49.8</v>
       </c>
       <c r="E121" t="n">
-        <v>49.8</v>
+        <v>48.7</v>
       </c>
       <c r="F121" t="n">
-        <v>742.1754</v>
+        <v>17335.9909</v>
       </c>
       <c r="G121" t="n">
-        <v>48.71000000000002</v>
+        <v>48.67500000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4773,22 +4769,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="F122" t="n">
-        <v>904.9109</v>
+        <v>742.1754</v>
       </c>
       <c r="G122" t="n">
-        <v>48.75333333333335</v>
+        <v>48.71000000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4820,10 +4816,10 @@
         <v>49.7</v>
       </c>
       <c r="F123" t="n">
-        <v>503.212</v>
+        <v>904.9109</v>
       </c>
       <c r="G123" t="n">
-        <v>48.80166666666668</v>
+        <v>48.75333333333335</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4843,22 +4839,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F124" t="n">
-        <v>17652.7113</v>
+        <v>503.212</v>
       </c>
       <c r="G124" t="n">
-        <v>48.83666666666668</v>
+        <v>48.80166666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4878,22 +4874,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="C125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="D125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="E125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="F125" t="n">
-        <v>82</v>
+        <v>17652.7113</v>
       </c>
       <c r="G125" t="n">
-        <v>48.87666666666667</v>
+        <v>48.83666666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4925,10 +4921,10 @@
         <v>49.2</v>
       </c>
       <c r="F126" t="n">
-        <v>2023.9029</v>
+        <v>82</v>
       </c>
       <c r="G126" t="n">
-        <v>48.91166666666667</v>
+        <v>48.87666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4948,22 +4944,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C127" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="D127" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E127" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>2023.9029</v>
       </c>
       <c r="G127" t="n">
-        <v>48.95166666666668</v>
+        <v>48.91166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4983,7 +4979,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="C128" t="n">
         <v>49.6</v>
@@ -4992,13 +4988,13 @@
         <v>49.6</v>
       </c>
       <c r="E128" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F128" t="n">
-        <v>1169.1713</v>
+        <v>800</v>
       </c>
       <c r="G128" t="n">
-        <v>48.98333333333334</v>
+        <v>48.95166666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5018,22 +5014,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C129" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D129" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E129" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F129" t="n">
-        <v>4842.8952</v>
+        <v>1169.1713</v>
       </c>
       <c r="G129" t="n">
-        <v>49.01333333333334</v>
+        <v>48.98333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5053,22 +5049,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C130" t="n">
         <v>49.8</v>
       </c>
-      <c r="C130" t="n">
-        <v>50.4</v>
-      </c>
       <c r="D130" t="n">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="E130" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="F130" t="n">
-        <v>13555.4786</v>
+        <v>4842.8952</v>
       </c>
       <c r="G130" t="n">
-        <v>49.06666666666668</v>
+        <v>49.01333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5088,7 +5084,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="C131" t="n">
         <v>50.4</v>
@@ -5097,13 +5093,13 @@
         <v>50.4</v>
       </c>
       <c r="E131" t="n">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="F131" t="n">
-        <v>90.6262</v>
+        <v>13555.4786</v>
       </c>
       <c r="G131" t="n">
-        <v>49.08000000000002</v>
+        <v>49.06666666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5135,10 +5131,10 @@
         <v>50.4</v>
       </c>
       <c r="F132" t="n">
-        <v>1200</v>
+        <v>90.6262</v>
       </c>
       <c r="G132" t="n">
-        <v>49.11666666666669</v>
+        <v>49.08000000000002</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5170,10 +5166,10 @@
         <v>50.4</v>
       </c>
       <c r="F133" t="n">
-        <v>4792.3496</v>
+        <v>1200</v>
       </c>
       <c r="G133" t="n">
-        <v>49.13000000000002</v>
+        <v>49.11666666666669</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5193,22 +5189,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="C134" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="D134" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="E134" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F134" t="n">
-        <v>1409.555</v>
+        <v>4792.3496</v>
       </c>
       <c r="G134" t="n">
-        <v>49.14333333333336</v>
+        <v>49.13000000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5231,19 +5227,19 @@
         <v>50.5</v>
       </c>
       <c r="C135" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="D135" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="E135" t="n">
         <v>50.5</v>
       </c>
       <c r="F135" t="n">
-        <v>503.4447</v>
+        <v>1409.555</v>
       </c>
       <c r="G135" t="n">
-        <v>49.15166666666669</v>
+        <v>49.14333333333336</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5263,22 +5259,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C136" t="n">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="D136" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="E136" t="n">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>503.4447</v>
       </c>
       <c r="G136" t="n">
-        <v>49.15500000000002</v>
+        <v>49.15166666666669</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5294,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="C137" t="n">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="D137" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="E137" t="n">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G137" t="n">
-        <v>49.20333333333336</v>
+        <v>49.15500000000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5333,22 +5329,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="C138" t="n">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="D138" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="E138" t="n">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="F138" t="n">
-        <v>6300</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>49.22666666666669</v>
+        <v>49.20333333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5368,22 +5364,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>50</v>
+      </c>
+      <c r="C139" t="n">
         <v>49.8</v>
       </c>
-      <c r="C139" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D139" t="n">
+        <v>50</v>
+      </c>
+      <c r="E139" t="n">
         <v>49.8</v>
       </c>
-      <c r="E139" t="n">
-        <v>49.1</v>
-      </c>
       <c r="F139" t="n">
-        <v>2420.2245</v>
+        <v>6300</v>
       </c>
       <c r="G139" t="n">
-        <v>49.24000000000002</v>
+        <v>49.22666666666669</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5403,22 +5399,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="C140" t="n">
         <v>49.1</v>
       </c>
       <c r="D140" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="E140" t="n">
         <v>49.1</v>
       </c>
       <c r="F140" t="n">
-        <v>3427.8212</v>
+        <v>2420.2245</v>
       </c>
       <c r="G140" t="n">
-        <v>49.25166666666669</v>
+        <v>49.24000000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5438,7 +5434,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C141" t="n">
         <v>49.1</v>
@@ -5447,13 +5443,13 @@
         <v>49.1</v>
       </c>
       <c r="E141" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="F141" t="n">
-        <v>1372.1788</v>
+        <v>3427.8212</v>
       </c>
       <c r="G141" t="n">
-        <v>49.25333333333335</v>
+        <v>49.25166666666669</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5473,22 +5469,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="C142" t="n">
-        <v>49.8</v>
+        <v>49.1</v>
       </c>
       <c r="D142" t="n">
-        <v>49.8</v>
+        <v>49.1</v>
       </c>
       <c r="E142" t="n">
-        <v>49.8</v>
+        <v>48.9</v>
       </c>
       <c r="F142" t="n">
-        <v>496</v>
+        <v>1372.1788</v>
       </c>
       <c r="G142" t="n">
-        <v>49.26833333333335</v>
+        <v>49.25333333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5508,22 +5504,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C143" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="D143" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E143" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F143" t="n">
-        <v>2997</v>
+        <v>496</v>
       </c>
       <c r="G143" t="n">
-        <v>49.27166666666668</v>
+        <v>49.26833333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5543,7 +5539,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C144" t="n">
         <v>49.5</v>
@@ -5555,10 +5551,10 @@
         <v>49.5</v>
       </c>
       <c r="F144" t="n">
-        <v>19142.9134</v>
+        <v>2997</v>
       </c>
       <c r="G144" t="n">
-        <v>49.27000000000002</v>
+        <v>49.27166666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5578,22 +5574,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C145" t="n">
         <v>49.5</v>
       </c>
       <c r="D145" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E145" t="n">
         <v>49.5</v>
       </c>
       <c r="F145" t="n">
-        <v>9749.144700000001</v>
+        <v>19142.9134</v>
       </c>
       <c r="G145" t="n">
-        <v>49.27166666666668</v>
+        <v>49.27000000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5616,19 +5612,19 @@
         <v>49.5</v>
       </c>
       <c r="C146" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D146" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E146" t="n">
         <v>49.5</v>
       </c>
       <c r="F146" t="n">
-        <v>5652</v>
+        <v>9749.144700000001</v>
       </c>
       <c r="G146" t="n">
-        <v>49.27666666666668</v>
+        <v>49.27166666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5648,7 +5644,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C147" t="n">
         <v>49.6</v>
@@ -5657,13 +5653,13 @@
         <v>49.6</v>
       </c>
       <c r="E147" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F147" t="n">
-        <v>83</v>
+        <v>5652</v>
       </c>
       <c r="G147" t="n">
-        <v>49.28500000000001</v>
+        <v>49.27666666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5695,10 +5691,10 @@
         <v>49.6</v>
       </c>
       <c r="F148" t="n">
-        <v>1900</v>
+        <v>83</v>
       </c>
       <c r="G148" t="n">
-        <v>49.29500000000001</v>
+        <v>49.28500000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,10 +5726,10 @@
         <v>49.6</v>
       </c>
       <c r="F149" t="n">
-        <v>447.4079</v>
+        <v>1900</v>
       </c>
       <c r="G149" t="n">
-        <v>49.31333333333335</v>
+        <v>49.29500000000001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5765,10 +5761,10 @@
         <v>49.6</v>
       </c>
       <c r="F150" t="n">
-        <v>100</v>
+        <v>447.4079</v>
       </c>
       <c r="G150" t="n">
-        <v>49.33666666666668</v>
+        <v>49.31333333333335</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5788,22 +5784,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C151" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D151" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E151" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F151" t="n">
-        <v>266.1145</v>
+        <v>100</v>
       </c>
       <c r="G151" t="n">
-        <v>49.36833333333335</v>
+        <v>49.33666666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5826,19 +5822,19 @@
         <v>49.7</v>
       </c>
       <c r="C152" t="n">
-        <v>49</v>
+        <v>49.8</v>
       </c>
       <c r="D152" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E152" t="n">
         <v>49.7</v>
       </c>
-      <c r="E152" t="n">
-        <v>49</v>
-      </c>
       <c r="F152" t="n">
-        <v>25000</v>
+        <v>266.1145</v>
       </c>
       <c r="G152" t="n">
-        <v>49.39000000000001</v>
+        <v>49.36833333333335</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5858,22 +5854,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C153" t="n">
         <v>49</v>
       </c>
-      <c r="C153" t="n">
-        <v>48.5</v>
-      </c>
       <c r="D153" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E153" t="n">
         <v>49</v>
       </c>
-      <c r="E153" t="n">
-        <v>48.5</v>
-      </c>
       <c r="F153" t="n">
-        <v>5053.9927</v>
+        <v>25000</v>
       </c>
       <c r="G153" t="n">
-        <v>49.41500000000001</v>
+        <v>49.39000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5893,22 +5889,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C154" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="D154" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E154" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="F154" t="n">
-        <v>1000</v>
+        <v>5053.9927</v>
       </c>
       <c r="G154" t="n">
-        <v>49.44666666666669</v>
+        <v>49.41500000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5928,22 +5924,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F155" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G155" t="n">
-        <v>49.46666666666668</v>
+        <v>49.44666666666669</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5963,22 +5959,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="C156" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="D156" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="E156" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="F156" t="n">
-        <v>5267.2498</v>
+        <v>900</v>
       </c>
       <c r="G156" t="n">
-        <v>49.50166666666668</v>
+        <v>49.46666666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6001,19 +5997,19 @@
         <v>49.3</v>
       </c>
       <c r="C157" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="D157" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="E157" t="n">
         <v>49.3</v>
       </c>
       <c r="F157" t="n">
-        <v>18</v>
+        <v>5267.2498</v>
       </c>
       <c r="G157" t="n">
-        <v>49.49833333333335</v>
+        <v>49.50166666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6033,19 +6029,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C158" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="D158" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="E158" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F158" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G158" t="n">
         <v>49.49833333333335</v>
@@ -6068,22 +6064,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C159" t="n">
         <v>49.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>49.3</v>
       </c>
       <c r="D159" t="n">
         <v>49.5</v>
       </c>
       <c r="E159" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F159" t="n">
-        <v>447.408</v>
+        <v>22</v>
       </c>
       <c r="G159" t="n">
-        <v>49.51833333333335</v>
+        <v>49.49833333333335</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6103,22 +6099,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="C160" t="n">
         <v>49.3</v>
       </c>
       <c r="D160" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="E160" t="n">
         <v>49.3</v>
       </c>
       <c r="F160" t="n">
-        <v>2000</v>
+        <v>447.408</v>
       </c>
       <c r="G160" t="n">
-        <v>49.54000000000003</v>
+        <v>49.51833333333335</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6138,22 +6134,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="C161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="D161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="E161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="F161" t="n">
-        <v>136.5265</v>
+        <v>2000</v>
       </c>
       <c r="G161" t="n">
-        <v>49.58166666666669</v>
+        <v>49.54000000000003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6173,22 +6169,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F162" t="n">
-        <v>129.9787</v>
+        <v>136.5265</v>
       </c>
       <c r="G162" t="n">
-        <v>49.60000000000002</v>
+        <v>49.58166666666669</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6208,22 +6204,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="C163" t="n">
-        <v>48</v>
+        <v>49.6</v>
       </c>
       <c r="D163" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="E163" t="n">
-        <v>48</v>
+        <v>49.6</v>
       </c>
       <c r="F163" t="n">
-        <v>17493.4956</v>
+        <v>129.9787</v>
       </c>
       <c r="G163" t="n">
-        <v>49.59166666666669</v>
+        <v>49.60000000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6243,22 +6239,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C164" t="n">
         <v>48</v>
       </c>
-      <c r="C164" t="n">
-        <v>47.2</v>
-      </c>
       <c r="D164" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E164" t="n">
         <v>48</v>
       </c>
-      <c r="E164" t="n">
-        <v>47.2</v>
-      </c>
       <c r="F164" t="n">
-        <v>4000</v>
+        <v>17493.4956</v>
       </c>
       <c r="G164" t="n">
-        <v>49.57000000000002</v>
+        <v>49.59166666666669</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6278,22 +6274,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="C165" t="n">
-        <v>48.7</v>
+        <v>47.2</v>
       </c>
       <c r="D165" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="E165" t="n">
-        <v>48.7</v>
+        <v>47.2</v>
       </c>
       <c r="F165" t="n">
-        <v>1257.9675</v>
+        <v>4000</v>
       </c>
       <c r="G165" t="n">
-        <v>49.56000000000002</v>
+        <v>49.57000000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6325,10 +6321,10 @@
         <v>48.7</v>
       </c>
       <c r="F166" t="n">
-        <v>14</v>
+        <v>1257.9675</v>
       </c>
       <c r="G166" t="n">
-        <v>49.54833333333334</v>
+        <v>49.56000000000002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6348,22 +6344,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="C167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="D167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="E167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="F167" t="n">
-        <v>742.1754</v>
+        <v>14</v>
       </c>
       <c r="G167" t="n">
-        <v>49.51833333333334</v>
+        <v>49.54833333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6383,22 +6379,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="C168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="D168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="E168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="F168" t="n">
-        <v>1476.1303</v>
+        <v>742.1754</v>
       </c>
       <c r="G168" t="n">
-        <v>49.49833333333334</v>
+        <v>49.51833333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6430,10 +6426,10 @@
         <v>48.3</v>
       </c>
       <c r="F169" t="n">
-        <v>1046.2846</v>
+        <v>1476.1303</v>
       </c>
       <c r="G169" t="n">
-        <v>49.48000000000001</v>
+        <v>49.49833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6465,10 +6461,10 @@
         <v>48.3</v>
       </c>
       <c r="F170" t="n">
-        <v>52.489</v>
+        <v>1046.2846</v>
       </c>
       <c r="G170" t="n">
-        <v>49.46166666666668</v>
+        <v>49.48000000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6500,10 +6496,10 @@
         <v>48.3</v>
       </c>
       <c r="F171" t="n">
-        <v>5174.3933</v>
+        <v>52.489</v>
       </c>
       <c r="G171" t="n">
-        <v>49.43500000000002</v>
+        <v>49.46166666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6518,6 +6514,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5174.3933</v>
+      </c>
+      <c r="G172" t="n">
+        <v>49.43500000000002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2530.0175</v>
       </c>
       <c r="G2" t="n">
+        <v>47.54666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>47.97666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1183</v>
       </c>
       <c r="G3" t="n">
+        <v>47.53999999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>47.99</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>4674.2925</v>
       </c>
       <c r="G4" t="n">
+        <v>47.66666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>48.00166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>48</v>
+      </c>
+      <c r="L4" t="n">
+        <v>48</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>98313.56050000001</v>
       </c>
       <c r="G5" t="n">
+        <v>47.80666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>48.03833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,21 @@
         <v>3363</v>
       </c>
       <c r="G6" t="n">
+        <v>47.90666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>48.06833333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +663,21 @@
         <v>6537</v>
       </c>
       <c r="G7" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="H7" t="n">
         <v>48.10333333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +701,21 @@
         <v>15184.5368</v>
       </c>
       <c r="G8" t="n">
+        <v>48.16</v>
+      </c>
+      <c r="H8" t="n">
         <v>48.14</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +739,21 @@
         <v>29018.2855</v>
       </c>
       <c r="G9" t="n">
+        <v>48.25333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>48.165</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +777,21 @@
         <v>3814.6923</v>
       </c>
       <c r="G10" t="n">
+        <v>48.43333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>48.20166666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +815,21 @@
         <v>6427.0905</v>
       </c>
       <c r="G11" t="n">
+        <v>48.54</v>
+      </c>
+      <c r="H11" t="n">
         <v>48.23000000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +853,21 @@
         <v>21909.7908</v>
       </c>
       <c r="G12" t="n">
+        <v>48.68666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>48.26000000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +891,21 @@
         <v>21860.2551</v>
       </c>
       <c r="G13" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H13" t="n">
         <v>48.295</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +929,21 @@
         <v>3.391</v>
       </c>
       <c r="G14" t="n">
+        <v>48.98666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>48.33166666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +967,21 @@
         <v>10.5799</v>
       </c>
       <c r="G15" t="n">
+        <v>49.12666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>48.37166666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1005,21 @@
         <v>9102.762500000001</v>
       </c>
       <c r="G16" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>48.39833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1043,21 @@
         <v>9917.6854</v>
       </c>
       <c r="G17" t="n">
+        <v>49.22666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>48.41333333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1081,21 @@
         <v>6250</v>
       </c>
       <c r="G18" t="n">
+        <v>49.29333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>48.43833333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1119,21 @@
         <v>47746.4164</v>
       </c>
       <c r="G19" t="n">
+        <v>49.22</v>
+      </c>
+      <c r="H19" t="n">
         <v>48.44166666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1157,21 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
+        <v>49.17333333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>48.46333333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1195,21 @@
         <v>3000</v>
       </c>
       <c r="G21" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="H21" t="n">
         <v>48.48500000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1233,21 @@
         <v>22231</v>
       </c>
       <c r="G22" t="n">
+        <v>49.08666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>48.51833333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1271,21 @@
         <v>111</v>
       </c>
       <c r="G23" t="n">
+        <v>49.13333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>48.56833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1309,21 @@
         <v>5116.8509</v>
       </c>
       <c r="G24" t="n">
+        <v>49.17333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>48.62000000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1347,21 @@
         <v>20819.6684</v>
       </c>
       <c r="G25" t="n">
+        <v>49.17333333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>48.64000000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1385,21 @@
         <v>3712.7859</v>
       </c>
       <c r="G26" t="n">
+        <v>49.11999999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>48.62666666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1423,21 @@
         <v>12</v>
       </c>
       <c r="G27" t="n">
+        <v>49.02666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>48.59666666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1461,21 @@
         <v>11.8334</v>
       </c>
       <c r="G28" t="n">
+        <v>48.95999999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>48.57833333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1499,21 @@
         <v>72</v>
       </c>
       <c r="G29" t="n">
+        <v>48.84666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>48.54833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1537,21 @@
         <v>19230.0765</v>
       </c>
       <c r="G30" t="n">
+        <v>48.70666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>48.50666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1575,21 @@
         <v>36046.2578</v>
       </c>
       <c r="G31" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>48.48500000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1613,21 @@
         <v>26230.6578</v>
       </c>
       <c r="G32" t="n">
+        <v>48.67999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>48.46333333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1651,21 @@
         <v>10101.3863</v>
       </c>
       <c r="G33" t="n">
+        <v>48.60666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>48.43166666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1689,21 @@
         <v>400</v>
       </c>
       <c r="G34" t="n">
+        <v>48.70666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>48.44666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1727,21 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>48.45333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1765,21 @@
         <v>22</v>
       </c>
       <c r="G36" t="n">
+        <v>48.88666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>48.45333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1803,21 @@
         <v>1681</v>
       </c>
       <c r="G37" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H37" t="n">
         <v>48.42833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1841,21 @@
         <v>1111</v>
       </c>
       <c r="G38" t="n">
+        <v>48.80666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>48.43333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1879,21 @@
         <v>100</v>
       </c>
       <c r="G39" t="n">
+        <v>48.75333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>48.43333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1917,21 @@
         <v>44.4444</v>
       </c>
       <c r="G40" t="n">
+        <v>48.69333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>48.44666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1955,21 @@
         <v>4033.8157</v>
       </c>
       <c r="G41" t="n">
+        <v>48.73333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>48.46666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1993,21 @@
         <v>19913.2477</v>
       </c>
       <c r="G42" t="n">
+        <v>48.81333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>48.49166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2031,21 @@
         <v>243.5699</v>
       </c>
       <c r="G43" t="n">
+        <v>48.81333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>48.51166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2069,21 @@
         <v>7597</v>
       </c>
       <c r="G44" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="H44" t="n">
         <v>48.515</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2107,21 @@
         <v>6907.291</v>
       </c>
       <c r="G45" t="n">
+        <v>48.76666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>48.52666666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2145,21 @@
         <v>22</v>
       </c>
       <c r="G46" t="n">
+        <v>48.71333333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>48.52666666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2183,21 @@
         <v>22</v>
       </c>
       <c r="G47" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="H47" t="n">
         <v>48.52833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2221,21 @@
         <v>6178</v>
       </c>
       <c r="G48" t="n">
+        <v>48.62666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>48.51666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2259,21 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
+        <v>48.51333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>48.52666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2297,21 @@
         <v>33</v>
       </c>
       <c r="G50" t="n">
+        <v>48.35333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>48.53333333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2335,21 @@
         <v>89</v>
       </c>
       <c r="G51" t="n">
+        <v>48.19333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>48.52666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2373,21 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
+        <v>48.13333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>48.52</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2411,21 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
+        <v>48</v>
+      </c>
+      <c r="H53" t="n">
         <v>48.52500000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,22 +2449,21 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
+        <v>47.89333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>48.51833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K54" t="n">
-        <v>47.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2307,1655 +2487,1673 @@
         <v>22</v>
       </c>
       <c r="G55" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="H55" t="n">
         <v>48.52500000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>18</v>
+      </c>
+      <c r="G56" t="n">
+        <v>47.69333333333334</v>
+      </c>
+      <c r="H56" t="n">
+        <v>48.52166666666667</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C57" t="n">
         <v>47.4</v>
       </c>
-      <c r="K55" t="n">
+      <c r="D57" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5582.0273</v>
+      </c>
+      <c r="G57" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="H57" t="n">
+        <v>48.52166666666667</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5592.3639</v>
+      </c>
+      <c r="G58" t="n">
+        <v>47.48</v>
+      </c>
+      <c r="H58" t="n">
+        <v>48.52333333333333</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="n">
+        <v>47.48666666666666</v>
+      </c>
+      <c r="H59" t="n">
+        <v>48.52500000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>126</v>
+      </c>
+      <c r="G60" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="H60" t="n">
+        <v>48.515</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>111</v>
+      </c>
+      <c r="G61" t="n">
+        <v>47.48666666666666</v>
+      </c>
+      <c r="H61" t="n">
+        <v>48.51666666666667</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="n">
+        <v>47.48</v>
+      </c>
+      <c r="H62" t="n">
+        <v>48.51166666666666</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>488</v>
+      </c>
+      <c r="G63" t="n">
+        <v>47.46000000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>48.49666666666666</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>47</v>
+      </c>
+      <c r="C64" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>47</v>
+      </c>
+      <c r="E64" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>33</v>
+      </c>
+      <c r="G64" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="H64" t="n">
+        <v>48.465</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>77</v>
+      </c>
+      <c r="G65" t="n">
+        <v>47.43333333333334</v>
+      </c>
+      <c r="H65" t="n">
+        <v>48.44</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>340</v>
+      </c>
+      <c r="G66" t="n">
+        <v>47.41333333333333</v>
+      </c>
+      <c r="H66" t="n">
+        <v>48.40333333333334</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>532.7226000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>47.40666666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>48.36666666666667</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>47.3</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="C68" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>54</v>
+      </c>
+      <c r="G68" t="n">
+        <v>47.40000000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>48.335</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3419</v>
+      </c>
+      <c r="G69" t="n">
+        <v>47.42000000000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>48</v>
+      </c>
+      <c r="D70" t="n">
+        <v>48</v>
+      </c>
+      <c r="E70" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>900</v>
+      </c>
+      <c r="G70" t="n">
+        <v>47.44666666666668</v>
+      </c>
+      <c r="H70" t="n">
+        <v>48.27833333333333</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>121</v>
+      </c>
+      <c r="G71" t="n">
+        <v>47.42000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>48.24166666666666</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>48</v>
+      </c>
+      <c r="C72" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>48</v>
+      </c>
+      <c r="F72" t="n">
+        <v>51435.137</v>
+      </c>
+      <c r="G72" t="n">
+        <v>47.56666666666668</v>
+      </c>
+      <c r="H72" t="n">
+        <v>48.24166666666666</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15</v>
+      </c>
+      <c r="G73" t="n">
+        <v>47.60000000000002</v>
+      </c>
+      <c r="H73" t="n">
+        <v>48.21333333333332</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2636.5135</v>
+      </c>
+      <c r="G74" t="n">
+        <v>47.72000000000002</v>
+      </c>
+      <c r="H74" t="n">
+        <v>48.20833333333332</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50</v>
+      </c>
+      <c r="D75" t="n">
+        <v>50</v>
+      </c>
+      <c r="E75" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4731.565</v>
+      </c>
+      <c r="G75" t="n">
+        <v>47.90666666666668</v>
+      </c>
+      <c r="H75" t="n">
+        <v>48.20999999999999</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
+      </c>
+      <c r="D76" t="n">
+        <v>50</v>
+      </c>
+      <c r="E76" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>818.6838</v>
+      </c>
+      <c r="G76" t="n">
+        <v>48.03333333333335</v>
+      </c>
+      <c r="H76" t="n">
+        <v>48.22499999999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" t="n">
+        <v>50</v>
+      </c>
+      <c r="E77" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>200</v>
+      </c>
+      <c r="G77" t="n">
+        <v>48.18666666666668</v>
+      </c>
+      <c r="H77" t="n">
+        <v>48.25166666666665</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7604.5639</v>
+      </c>
+      <c r="G78" t="n">
+        <v>48.19333333333335</v>
+      </c>
+      <c r="H78" t="n">
+        <v>48.22166666666665</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" t="n">
+        <v>48.30000000000002</v>
+      </c>
+      <c r="H79" t="n">
+        <v>48.23499999999999</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>48</v>
+      </c>
+      <c r="C80" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>48</v>
+      </c>
+      <c r="F80" t="n">
+        <v>44</v>
+      </c>
+      <c r="G80" t="n">
+        <v>48.35333333333335</v>
+      </c>
+      <c r="H80" t="n">
+        <v>48.23499999999999</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E81" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>111</v>
+      </c>
+      <c r="G81" t="n">
+        <v>48.46000000000002</v>
+      </c>
+      <c r="H81" t="n">
+        <v>48.23833333333332</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>49</v>
+      </c>
+      <c r="D82" t="n">
+        <v>49</v>
+      </c>
+      <c r="E82" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2563.8881</v>
+      </c>
+      <c r="G82" t="n">
+        <v>48.58666666666668</v>
+      </c>
+      <c r="H82" t="n">
+        <v>48.24166666666665</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3733</v>
+      </c>
+      <c r="G83" t="n">
+        <v>48.70000000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>48.22666666666665</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>49</v>
+      </c>
+      <c r="C84" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>49</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1364.4001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>48.80666666666666</v>
+      </c>
+      <c r="H84" t="n">
+        <v>48.21833333333332</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="n">
+        <v>48.91333333333333</v>
+      </c>
+      <c r="H85" t="n">
+        <v>48.21333333333332</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3568</v>
+      </c>
+      <c r="G86" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="H86" t="n">
+        <v>48.22666666666665</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>18944.4137</v>
+      </c>
+      <c r="G87" t="n">
+        <v>49.03999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>48.24499999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>51.9831</v>
+      </c>
+      <c r="G88" t="n">
+        <v>49.09999999999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>48.24833333333332</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>49</v>
+      </c>
+      <c r="D89" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>962.2654</v>
+      </c>
+      <c r="G89" t="n">
+        <v>49.05999999999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>48.26166666666666</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>48.95999999999999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>48.27333333333332</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1423.4978</v>
+      </c>
+      <c r="G91" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H91" t="n">
+        <v>48.26833333333332</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>192.2148</v>
+      </c>
+      <c r="G92" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>48.25666666666665</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>18128.2934</v>
+      </c>
+      <c r="G93" t="n">
+        <v>48.73333333333333</v>
+      </c>
+      <c r="H93" t="n">
+        <v>48.25333333333332</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>47</v>
+      </c>
+      <c r="D94" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>47</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1465.4263</v>
+      </c>
+      <c r="G94" t="n">
+        <v>48.63999999999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>48.21833333333332</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>47</v>
+      </c>
+      <c r="C95" t="n">
+        <v>47</v>
+      </c>
+      <c r="D95" t="n">
+        <v>47</v>
+      </c>
+      <c r="E95" t="n">
+        <v>47</v>
+      </c>
+      <c r="F95" t="n">
+        <v>818.6838</v>
+      </c>
+      <c r="G95" t="n">
+        <v>48.55333333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>48.17333333333332</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2962.2797</v>
+      </c>
+      <c r="G96" t="n">
+        <v>48.51333333333333</v>
+      </c>
+      <c r="H96" t="n">
+        <v>48.14499999999999</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>47</v>
+      </c>
+      <c r="L96" t="n">
+        <v>47</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16048.9489</v>
+      </c>
+      <c r="G97" t="n">
+        <v>48.43333333333332</v>
+      </c>
+      <c r="H97" t="n">
+        <v>48.13999999999999</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="L97" t="n">
+        <v>47</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C56" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E56" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>18</v>
-      </c>
-      <c r="G56" t="n">
-        <v>48.52166666666667</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="K56" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>48.47333333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>48.14333333333332</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>47</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5582.0273</v>
-      </c>
-      <c r="G57" t="n">
-        <v>48.52166666666667</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C58" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D58" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E58" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5592.3639</v>
-      </c>
-      <c r="G58" t="n">
-        <v>48.52333333333333</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>11</v>
-      </c>
-      <c r="G59" t="n">
-        <v>48.52500000000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>126</v>
-      </c>
-      <c r="G60" t="n">
-        <v>48.515</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>111</v>
-      </c>
-      <c r="G61" t="n">
-        <v>48.51666666666667</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C62" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D62" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E62" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F62" t="n">
-        <v>11</v>
-      </c>
-      <c r="G62" t="n">
-        <v>48.51166666666666</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>488</v>
-      </c>
-      <c r="G63" t="n">
-        <v>48.49666666666666</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>47</v>
-      </c>
-      <c r="C64" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>47</v>
-      </c>
-      <c r="E64" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>33</v>
-      </c>
-      <c r="G64" t="n">
-        <v>48.465</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C65" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D65" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E65" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>77</v>
-      </c>
-      <c r="G65" t="n">
-        <v>48.44</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C66" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D66" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E66" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>340</v>
-      </c>
-      <c r="G66" t="n">
-        <v>48.40333333333334</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C67" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E67" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>532.7226000000001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>48.36666666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>54</v>
-      </c>
-      <c r="G68" t="n">
-        <v>48.335</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C69" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D69" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E69" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3419</v>
-      </c>
-      <c r="G69" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C70" t="n">
-        <v>48</v>
-      </c>
-      <c r="D70" t="n">
-        <v>48</v>
-      </c>
-      <c r="E70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F70" t="n">
-        <v>900</v>
-      </c>
-      <c r="G70" t="n">
-        <v>48.27833333333333</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F71" t="n">
-        <v>121</v>
-      </c>
-      <c r="G71" t="n">
-        <v>48.24166666666666</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>48</v>
-      </c>
-      <c r="C72" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E72" t="n">
-        <v>48</v>
-      </c>
-      <c r="F72" t="n">
-        <v>51435.137</v>
-      </c>
-      <c r="G72" t="n">
-        <v>48.24166666666666</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>15</v>
-      </c>
-      <c r="G73" t="n">
-        <v>48.21333333333332</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D74" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E74" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2636.5135</v>
-      </c>
-      <c r="G74" t="n">
-        <v>48.20833333333332</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C75" t="n">
-        <v>50</v>
-      </c>
-      <c r="D75" t="n">
-        <v>50</v>
-      </c>
-      <c r="E75" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4731.565</v>
-      </c>
-      <c r="G75" t="n">
-        <v>48.20999999999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>50</v>
-      </c>
-      <c r="D76" t="n">
-        <v>50</v>
-      </c>
-      <c r="E76" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F76" t="n">
-        <v>818.6838</v>
-      </c>
-      <c r="G76" t="n">
-        <v>48.22499999999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1.049852320675106</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C77" t="n">
-        <v>50</v>
-      </c>
-      <c r="D77" t="n">
-        <v>50</v>
-      </c>
-      <c r="E77" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F77" t="n">
-        <v>200</v>
-      </c>
-      <c r="G77" t="n">
-        <v>48.25166666666665</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D78" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="E78" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7604.5639</v>
-      </c>
-      <c r="G78" t="n">
-        <v>48.22166666666665</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C79" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D79" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E79" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F79" t="n">
-        <v>11</v>
-      </c>
-      <c r="G79" t="n">
-        <v>48.23499999999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>48</v>
-      </c>
-      <c r="C80" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>48</v>
-      </c>
-      <c r="F80" t="n">
-        <v>44</v>
-      </c>
-      <c r="G80" t="n">
-        <v>48.23499999999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C81" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E81" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>111</v>
-      </c>
-      <c r="G81" t="n">
-        <v>48.23833333333332</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C82" t="n">
-        <v>49</v>
-      </c>
-      <c r="D82" t="n">
-        <v>49</v>
-      </c>
-      <c r="E82" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2563.8881</v>
-      </c>
-      <c r="G82" t="n">
-        <v>48.24166666666665</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3733</v>
-      </c>
-      <c r="G83" t="n">
-        <v>48.22666666666665</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>49</v>
-      </c>
-      <c r="C84" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>49</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1364.4001</v>
-      </c>
-      <c r="G84" t="n">
-        <v>48.21833333333332</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C85" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D85" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E85" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F85" t="n">
-        <v>11</v>
-      </c>
-      <c r="G85" t="n">
-        <v>48.21333333333332</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C86" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E86" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3568</v>
-      </c>
-      <c r="G86" t="n">
-        <v>48.22666666666665</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>18944.4137</v>
-      </c>
-      <c r="G87" t="n">
-        <v>48.24499999999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F88" t="n">
-        <v>51.9831</v>
-      </c>
-      <c r="G88" t="n">
-        <v>48.24833333333332</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>49</v>
-      </c>
-      <c r="D89" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="E89" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F89" t="n">
-        <v>962.2654</v>
-      </c>
-      <c r="G89" t="n">
-        <v>48.26166666666666</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D90" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>11</v>
-      </c>
-      <c r="G90" t="n">
-        <v>48.27333333333332</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C91" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E91" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1423.4978</v>
-      </c>
-      <c r="G91" t="n">
-        <v>48.26833333333332</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D92" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F92" t="n">
-        <v>192.2148</v>
-      </c>
-      <c r="G92" t="n">
-        <v>48.25666666666665</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C93" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E93" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>18128.2934</v>
-      </c>
-      <c r="G93" t="n">
-        <v>48.25333333333332</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>47</v>
-      </c>
-      <c r="D94" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>47</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1465.4263</v>
-      </c>
-      <c r="G94" t="n">
-        <v>48.21833333333332</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>47</v>
-      </c>
-      <c r="C95" t="n">
-        <v>47</v>
-      </c>
-      <c r="D95" t="n">
-        <v>47</v>
-      </c>
-      <c r="E95" t="n">
-        <v>47</v>
-      </c>
-      <c r="F95" t="n">
-        <v>818.6838</v>
-      </c>
-      <c r="G95" t="n">
-        <v>48.17333333333332</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D96" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E96" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2962.2797</v>
-      </c>
-      <c r="G96" t="n">
-        <v>48.14499999999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D97" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>16048.9489</v>
-      </c>
-      <c r="G97" t="n">
-        <v>48.13999999999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4001</v>
-      </c>
-      <c r="G98" t="n">
-        <v>48.14333333333332</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3979,18 +4177,21 @@
         <v>304</v>
       </c>
       <c r="G99" t="n">
+        <v>48.48666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>48.15166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,18 +4215,21 @@
         <v>20353.9489</v>
       </c>
       <c r="G100" t="n">
+        <v>48.38666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>48.13666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,18 +4253,21 @@
         <v>30</v>
       </c>
       <c r="G101" t="n">
+        <v>48.29333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>48.11666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,18 +4291,21 @@
         <v>800</v>
       </c>
       <c r="G102" t="n">
+        <v>48.15333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>48.07999999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,18 +4329,21 @@
         <v>25.7903</v>
       </c>
       <c r="G103" t="n">
+        <v>48.11333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>48.07333333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,18 +4367,21 @@
         <v>3680.8313</v>
       </c>
       <c r="G104" t="n">
+        <v>48.08000000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>48.08666666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4189,18 +4405,21 @@
         <v>9021.839400000001</v>
       </c>
       <c r="G105" t="n">
+        <v>48.08000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>48.10166666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,18 +4443,21 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
+        <v>48.15333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>48.12833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,18 +4481,21 @@
         <v>6943.1207</v>
       </c>
       <c r="G107" t="n">
+        <v>48.25333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>48.15499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,18 +4519,21 @@
         <v>4937.0478</v>
       </c>
       <c r="G108" t="n">
+        <v>48.37333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>48.18999999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4329,18 +4557,21 @@
         <v>8345.9522</v>
       </c>
       <c r="G109" t="n">
+        <v>48.53999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>48.22499999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,18 +4595,21 @@
         <v>793.3421</v>
       </c>
       <c r="G110" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="H110" t="n">
         <v>48.25999999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4399,18 +4633,21 @@
         <v>894.8159000000001</v>
       </c>
       <c r="G111" t="n">
+        <v>48.80666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>48.29833333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,18 +4671,21 @@
         <v>1455.2242</v>
       </c>
       <c r="G112" t="n">
+        <v>48.94666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>48.34333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,18 +4709,21 @@
         <v>1073.6413</v>
       </c>
       <c r="G113" t="n">
+        <v>48.90666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>48.37</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,18 +4747,21 @@
         <v>1319.2072</v>
       </c>
       <c r="G114" t="n">
+        <v>48.93333333333332</v>
+      </c>
+      <c r="H114" t="n">
         <v>48.41166666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,18 +4785,21 @@
         <v>3000</v>
       </c>
       <c r="G115" t="n">
+        <v>49.05333333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>48.45</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,18 +4823,21 @@
         <v>15661.8751</v>
       </c>
       <c r="G116" t="n">
+        <v>49.18666666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>48.49</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,18 +4861,21 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
+        <v>49.36666666666665</v>
+      </c>
+      <c r="H117" t="n">
         <v>48.53166666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4644,18 +4899,21 @@
         <v>844.0572</v>
       </c>
       <c r="G118" t="n">
+        <v>49.45999999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>48.56833333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4679,18 +4937,21 @@
         <v>759.8619</v>
       </c>
       <c r="G119" t="n">
+        <v>49.55333333333331</v>
+      </c>
+      <c r="H119" t="n">
         <v>48.60333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,18 +4975,21 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
+        <v>49.63999999999998</v>
+      </c>
+      <c r="H120" t="n">
         <v>48.64666666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4749,18 +5013,21 @@
         <v>17335.9909</v>
       </c>
       <c r="G121" t="n">
+        <v>49.67333333333331</v>
+      </c>
+      <c r="H121" t="n">
         <v>48.67500000000002</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,18 +5051,21 @@
         <v>742.1754</v>
       </c>
       <c r="G122" t="n">
+        <v>49.69999999999997</v>
+      </c>
+      <c r="H122" t="n">
         <v>48.71000000000002</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,18 +5089,21 @@
         <v>904.9109</v>
       </c>
       <c r="G123" t="n">
+        <v>49.71333333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>48.75333333333335</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,18 +5127,21 @@
         <v>503.212</v>
       </c>
       <c r="G124" t="n">
+        <v>49.72666666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>48.80166666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4889,18 +5165,21 @@
         <v>17652.7113</v>
       </c>
       <c r="G125" t="n">
+        <v>49.73999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>48.83666666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,18 +5203,21 @@
         <v>82</v>
       </c>
       <c r="G126" t="n">
+        <v>49.72666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>48.87666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,18 +5241,21 @@
         <v>2023.9029</v>
       </c>
       <c r="G127" t="n">
+        <v>49.67999999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>48.91166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,18 +5279,21 @@
         <v>800</v>
       </c>
       <c r="G128" t="n">
+        <v>49.72666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>48.95166666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,18 +5317,21 @@
         <v>1169.1713</v>
       </c>
       <c r="G129" t="n">
+        <v>49.70666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>48.98333333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,18 +5355,21 @@
         <v>4842.8952</v>
       </c>
       <c r="G130" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="H130" t="n">
         <v>49.01333333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5099,18 +5393,21 @@
         <v>13555.4786</v>
       </c>
       <c r="G131" t="n">
+        <v>49.72666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>49.06666666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,18 +5431,21 @@
         <v>90.6262</v>
       </c>
       <c r="G132" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="H132" t="n">
         <v>49.08000000000002</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,18 +5469,21 @@
         <v>1200</v>
       </c>
       <c r="G133" t="n">
+        <v>49.79333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>49.11666666666669</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,18 +5507,21 @@
         <v>4792.3496</v>
       </c>
       <c r="G134" t="n">
+        <v>49.82666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>49.13000000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,18 +5545,21 @@
         <v>1409.555</v>
       </c>
       <c r="G135" t="n">
+        <v>49.89333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>49.14333333333336</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,18 +5583,21 @@
         <v>503.4447</v>
       </c>
       <c r="G136" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="H136" t="n">
         <v>49.15166666666669</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5309,18 +5621,21 @@
         <v>200</v>
       </c>
       <c r="G137" t="n">
+        <v>49.96666666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>49.15500000000002</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,18 +5659,21 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
+        <v>49.99333333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>49.20333333333336</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5379,18 +5697,21 @@
         <v>6300</v>
       </c>
       <c r="G139" t="n">
+        <v>50</v>
+      </c>
+      <c r="H139" t="n">
         <v>49.22666666666669</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,18 +5735,21 @@
         <v>2420.2245</v>
       </c>
       <c r="G140" t="n">
+        <v>49.96666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>49.24000000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5449,18 +5773,21 @@
         <v>3427.8212</v>
       </c>
       <c r="G141" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="H141" t="n">
         <v>49.25166666666669</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5484,18 +5811,21 @@
         <v>1372.1788</v>
       </c>
       <c r="G142" t="n">
+        <v>49.95333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>49.25333333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5519,18 +5849,21 @@
         <v>496</v>
       </c>
       <c r="G143" t="n">
+        <v>49.96666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>49.26833333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5554,18 +5887,21 @@
         <v>2997</v>
       </c>
       <c r="G144" t="n">
+        <v>49.95999999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>49.27166666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5589,18 +5925,21 @@
         <v>19142.9134</v>
       </c>
       <c r="G145" t="n">
+        <v>49.93999999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>49.27000000000002</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,18 +5963,21 @@
         <v>9749.144700000001</v>
       </c>
       <c r="G146" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="H146" t="n">
         <v>49.27166666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5659,18 +6001,21 @@
         <v>5652</v>
       </c>
       <c r="G147" t="n">
+        <v>49.82666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>49.27666666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,18 +6039,21 @@
         <v>83</v>
       </c>
       <c r="G148" t="n">
+        <v>49.77333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>49.28500000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,18 +6077,21 @@
         <v>1900</v>
       </c>
       <c r="G149" t="n">
+        <v>49.72000000000001</v>
+      </c>
+      <c r="H149" t="n">
         <v>49.29500000000001</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,18 +6115,21 @@
         <v>447.4079</v>
       </c>
       <c r="G150" t="n">
+        <v>49.64000000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>49.31333333333335</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5799,18 +6153,21 @@
         <v>100</v>
       </c>
       <c r="G151" t="n">
+        <v>49.58000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>49.33666666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,18 +6191,21 @@
         <v>266.1145</v>
       </c>
       <c r="G152" t="n">
+        <v>49.55333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>49.36833333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5869,18 +6229,21 @@
         <v>25000</v>
       </c>
       <c r="G153" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="H153" t="n">
         <v>49.39000000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5904,18 +6267,21 @@
         <v>5053.9927</v>
       </c>
       <c r="G154" t="n">
+        <v>49.39333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>49.41500000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5939,18 +6305,21 @@
         <v>1000</v>
       </c>
       <c r="G155" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="H155" t="n">
         <v>49.44666666666669</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,18 +6343,21 @@
         <v>900</v>
       </c>
       <c r="G156" t="n">
+        <v>49.37333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>49.46666666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,18 +6381,21 @@
         <v>5267.2498</v>
       </c>
       <c r="G157" t="n">
+        <v>49.42666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>49.50166666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,18 +6419,21 @@
         <v>18</v>
       </c>
       <c r="G158" t="n">
+        <v>49.39333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>49.49833333333335</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6079,18 +6457,21 @@
         <v>22</v>
       </c>
       <c r="G159" t="n">
+        <v>49.39333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>49.49833333333335</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6114,18 +6495,21 @@
         <v>447.408</v>
       </c>
       <c r="G160" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="H160" t="n">
         <v>49.51833333333335</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6149,18 +6533,21 @@
         <v>2000</v>
       </c>
       <c r="G161" t="n">
+        <v>49.36666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>49.54000000000003</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6184,18 +6571,21 @@
         <v>136.5265</v>
       </c>
       <c r="G162" t="n">
+        <v>49.37333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>49.58166666666669</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6219,18 +6609,21 @@
         <v>129.9787</v>
       </c>
       <c r="G163" t="n">
+        <v>49.37333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>49.60000000000002</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,18 +6647,21 @@
         <v>17493.4956</v>
       </c>
       <c r="G164" t="n">
+        <v>49.26666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>49.59166666666669</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6289,18 +6685,21 @@
         <v>4000</v>
       </c>
       <c r="G165" t="n">
+        <v>49.10666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>49.57000000000002</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,18 +6723,21 @@
         <v>1257.9675</v>
       </c>
       <c r="G166" t="n">
+        <v>49.04666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>49.56000000000002</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6359,18 +6761,21 @@
         <v>14</v>
       </c>
       <c r="G167" t="n">
+        <v>48.97333333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>49.54833333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,18 +6799,21 @@
         <v>742.1754</v>
       </c>
       <c r="G168" t="n">
+        <v>48.88666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>49.51833333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6429,18 +6837,21 @@
         <v>1476.1303</v>
       </c>
       <c r="G169" t="n">
+        <v>48.87333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>49.49833333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,18 +6875,21 @@
         <v>1046.2846</v>
       </c>
       <c r="G170" t="n">
+        <v>48.83333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>49.48000000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6499,18 +6913,21 @@
         <v>52.489</v>
       </c>
       <c r="G171" t="n">
+        <v>48.78666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>49.46166666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,18 +6951,401 @@
         <v>5174.3933</v>
       </c>
       <c r="G172" t="n">
+        <v>48.67999999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>49.43500000000002</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>48.53333333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>49.40500000000001</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>48</v>
+      </c>
+      <c r="C174" t="n">
+        <v>48</v>
+      </c>
+      <c r="D174" t="n">
+        <v>48</v>
+      </c>
+      <c r="E174" t="n">
+        <v>48</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1249.6458</v>
+      </c>
+      <c r="G174" t="n">
+        <v>48.43333333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>49.37333333333334</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>48</v>
+      </c>
+      <c r="C175" t="n">
+        <v>48</v>
+      </c>
+      <c r="D175" t="n">
+        <v>48</v>
+      </c>
+      <c r="E175" t="n">
+        <v>48</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G175" t="n">
+        <v>48.34666666666667</v>
+      </c>
+      <c r="H175" t="n">
+        <v>49.34166666666668</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>48</v>
+      </c>
+      <c r="C176" t="n">
+        <v>48</v>
+      </c>
+      <c r="D176" t="n">
+        <v>48</v>
+      </c>
+      <c r="E176" t="n">
+        <v>48</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1745</v>
+      </c>
+      <c r="G176" t="n">
+        <v>48.26000000000001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>49.30833333333334</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>48</v>
+      </c>
+      <c r="C177" t="n">
+        <v>48</v>
+      </c>
+      <c r="D177" t="n">
+        <v>48</v>
+      </c>
+      <c r="E177" t="n">
+        <v>48</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2208</v>
+      </c>
+      <c r="G177" t="n">
+        <v>48.14666666666667</v>
+      </c>
+      <c r="H177" t="n">
+        <v>49.27666666666667</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>48</v>
+      </c>
+      <c r="C178" t="n">
+        <v>49</v>
+      </c>
+      <c r="D178" t="n">
+        <v>49</v>
+      </c>
+      <c r="E178" t="n">
+        <v>48</v>
+      </c>
+      <c r="F178" t="n">
+        <v>59211.5777</v>
+      </c>
+      <c r="G178" t="n">
+        <v>48.10666666666667</v>
+      </c>
+      <c r="H178" t="n">
+        <v>49.26166666666667</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>49</v>
+      </c>
+      <c r="C179" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>49</v>
+      </c>
+      <c r="F179" t="n">
+        <v>145066.2801</v>
+      </c>
+      <c r="G179" t="n">
+        <v>48.23333333333333</v>
+      </c>
+      <c r="H179" t="n">
+        <v>49.26166666666667</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>72508.5998</v>
+      </c>
+      <c r="G180" t="n">
+        <v>48.45333333333333</v>
+      </c>
+      <c r="H180" t="n">
+        <v>49.27333333333333</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="G181" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="H181" t="n">
+        <v>49.27166666666666</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>11</v>
+      </c>
+      <c r="G182" t="n">
+        <v>48.63333333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>49.28166666666666</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="C2" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="D2" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E2" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>10.5799</v>
       </c>
       <c r="G2" t="n">
-        <v>50448.10140717301</v>
+        <v>145398.487307173</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.3</v>
+        <v>49.6</v>
       </c>
       <c r="C3" t="n">
-        <v>48.2</v>
+        <v>49.1</v>
       </c>
       <c r="D3" t="n">
-        <v>48.3</v>
+        <v>50.1</v>
       </c>
       <c r="E3" t="n">
-        <v>48.2</v>
+        <v>49.1</v>
       </c>
       <c r="F3" t="n">
-        <v>2789.5074</v>
+        <v>9102.762500000001</v>
       </c>
       <c r="G3" t="n">
-        <v>47658.59400717301</v>
+        <v>136295.724807173</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="C4" t="n">
-        <v>49.3</v>
+        <v>48.4</v>
       </c>
       <c r="D4" t="n">
         <v>49.3</v>
       </c>
       <c r="E4" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>9917.6854</v>
       </c>
       <c r="G4" t="n">
-        <v>47704.59400717301</v>
+        <v>126378.039407173</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,19 +549,19 @@
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
         <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>499</v>
+        <v>6250</v>
       </c>
       <c r="G5" t="n">
-        <v>48203.59400717301</v>
+        <v>132628.039407173</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>49.6</v>
+        <v>47.6</v>
       </c>
       <c r="D6" t="n">
-        <v>49.6</v>
+        <v>50.2</v>
       </c>
       <c r="E6" t="n">
-        <v>49.5</v>
+        <v>47.6</v>
       </c>
       <c r="F6" t="n">
-        <v>450</v>
+        <v>47746.4164</v>
       </c>
       <c r="G6" t="n">
-        <v>48653.59400717301</v>
+        <v>84881.623007173</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>48.3</v>
       </c>
       <c r="D7" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>48.3</v>
       </c>
       <c r="F7" t="n">
-        <v>461.0043</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>48192.58970717301</v>
+        <v>84892.623007173</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="D8" t="n">
-        <v>49.2</v>
+        <v>48.2</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="F8" t="n">
-        <v>55532.1135</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="n">
-        <v>48192.58970717301</v>
+        <v>81892.623007173</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48.7</v>
+        <v>48.2</v>
       </c>
       <c r="C9" t="n">
-        <v>48.2</v>
+        <v>48.8</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E9" t="n">
         <v>48.2</v>
       </c>
       <c r="F9" t="n">
-        <v>14120.2001</v>
+        <v>22231</v>
       </c>
       <c r="G9" t="n">
-        <v>34072.38960717301</v>
+        <v>104123.623007173</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="D10" t="n">
-        <v>48.2</v>
+        <v>49.8</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="F10" t="n">
-        <v>966.6182</v>
+        <v>111</v>
       </c>
       <c r="G10" t="n">
-        <v>33105.77140717301</v>
+        <v>104234.623007173</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47.9</v>
+        <v>49.2</v>
       </c>
       <c r="C11" t="n">
-        <v>47.9</v>
+        <v>49.8</v>
       </c>
       <c r="D11" t="n">
-        <v>47.9</v>
+        <v>49.8</v>
       </c>
       <c r="E11" t="n">
-        <v>47.9</v>
+        <v>49.2</v>
       </c>
       <c r="F11" t="n">
-        <v>757.3233</v>
+        <v>5116.8509</v>
       </c>
       <c r="G11" t="n">
-        <v>32348.44810717301</v>
+        <v>104234.623007173</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="C12" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="D12" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="E12" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="F12" t="n">
-        <v>17391.0737</v>
+        <v>20819.6684</v>
       </c>
       <c r="G12" t="n">
-        <v>14957.37440717301</v>
+        <v>125054.291407173</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="C13" t="n">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="D13" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="E13" t="n">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="F13" t="n">
-        <v>1582.5472</v>
+        <v>3712.7859</v>
       </c>
       <c r="G13" t="n">
-        <v>13374.82720717301</v>
+        <v>121341.505507173</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9</v>
+        <v>48.2</v>
       </c>
       <c r="D14" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="E14" t="n">
-        <v>46.9</v>
+        <v>48.2</v>
       </c>
       <c r="F14" t="n">
-        <v>17380.4605</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>-4005.633292826995</v>
+        <v>121329.505507173</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.9</v>
+        <v>48.9</v>
       </c>
       <c r="C15" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="D15" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="E15" t="n">
-        <v>46.9</v>
+        <v>48.9</v>
       </c>
       <c r="F15" t="n">
-        <v>10334.7624</v>
+        <v>11.8334</v>
       </c>
       <c r="G15" t="n">
-        <v>6329.129107173005</v>
+        <v>121341.338907173</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.7</v>
+        <v>48.5</v>
       </c>
       <c r="C16" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="D16" t="n">
-        <v>47.7</v>
+        <v>48.5</v>
       </c>
       <c r="E16" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="F16" t="n">
-        <v>5096.3046</v>
+        <v>72</v>
       </c>
       <c r="G16" t="n">
-        <v>6329.129107173005</v>
+        <v>121269.338907173</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,16 +971,17 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C17" t="n">
         <v>47.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>48.1</v>
       </c>
       <c r="D17" t="n">
         <v>48.1</v>
@@ -970,10 +990,10 @@
         <v>47.8</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>19230.0765</v>
       </c>
       <c r="G17" t="n">
-        <v>6371.129107173005</v>
+        <v>102039.262407173</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.8</v>
+        <v>48.5</v>
       </c>
       <c r="D18" t="n">
-        <v>47.9</v>
+        <v>48.5</v>
       </c>
       <c r="E18" t="n">
-        <v>46.8</v>
+        <v>48.1</v>
       </c>
       <c r="F18" t="n">
-        <v>5054.9453</v>
+        <v>36046.2578</v>
       </c>
       <c r="G18" t="n">
-        <v>1316.183807173004</v>
+        <v>138085.520207173</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46.9</v>
+        <v>48.5</v>
       </c>
       <c r="C19" t="n">
-        <v>46.9</v>
+        <v>48.6</v>
       </c>
       <c r="D19" t="n">
-        <v>46.9</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
-        <v>46.9</v>
+        <v>48.5</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>26230.6578</v>
       </c>
       <c r="G19" t="n">
-        <v>1327.183807173004</v>
+        <v>164316.178007173</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46.9</v>
+        <v>48.8</v>
       </c>
       <c r="C20" t="n">
-        <v>47.5</v>
+        <v>47.9</v>
       </c>
       <c r="D20" t="n">
-        <v>47.5</v>
+        <v>49.1</v>
       </c>
       <c r="E20" t="n">
-        <v>46.9</v>
+        <v>47.9</v>
       </c>
       <c r="F20" t="n">
-        <v>143</v>
+        <v>10101.3863</v>
       </c>
       <c r="G20" t="n">
-        <v>1470.183807173004</v>
+        <v>154214.791707173</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="C21" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="D21" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="E21" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="F21" t="n">
-        <v>10.585</v>
+        <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>1480.768807173004</v>
+        <v>154614.791707173</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>47.8</v>
+        <v>49.7</v>
       </c>
       <c r="C22" t="n">
-        <v>47</v>
+        <v>49.7</v>
       </c>
       <c r="D22" t="n">
-        <v>47.8</v>
+        <v>49.7</v>
       </c>
       <c r="E22" t="n">
-        <v>47</v>
+        <v>49.7</v>
       </c>
       <c r="F22" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>1360.768807173004</v>
+        <v>154625.791707173</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.8</v>
+        <v>49.6</v>
       </c>
       <c r="C23" t="n">
-        <v>47.8</v>
+        <v>49.5</v>
       </c>
       <c r="D23" t="n">
-        <v>47.8</v>
+        <v>49.6</v>
       </c>
       <c r="E23" t="n">
-        <v>47.8</v>
+        <v>49.5</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>1371.768807173004</v>
+        <v>154603.791707173</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47.2</v>
+        <v>49.4</v>
       </c>
       <c r="C24" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="D24" t="n">
-        <v>47.2</v>
+        <v>49.4</v>
       </c>
       <c r="E24" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>1681</v>
       </c>
       <c r="G24" t="n">
-        <v>1360.768807173004</v>
+        <v>152922.791707173</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47.2</v>
+        <v>49.3</v>
       </c>
       <c r="C25" t="n">
-        <v>47.8</v>
+        <v>49.3</v>
       </c>
       <c r="D25" t="n">
-        <v>47.8</v>
+        <v>49.3</v>
       </c>
       <c r="E25" t="n">
-        <v>47.2</v>
+        <v>49.3</v>
       </c>
       <c r="F25" t="n">
-        <v>97.4688</v>
+        <v>1111</v>
       </c>
       <c r="G25" t="n">
-        <v>1458.237607173005</v>
+        <v>154033.791707173</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,151 +1295,137 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="D26" t="n">
-        <v>47.9</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="F26" t="n">
-        <v>25562.346</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>-24104.108392827</v>
+        <v>153933.791707173</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>47.5</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="D27" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
-        <v>47.5</v>
+        <v>49</v>
       </c>
       <c r="F27" t="n">
-        <v>2888</v>
+        <v>44.4444</v>
       </c>
       <c r="G27" t="n">
-        <v>-21216.108392827</v>
+        <v>153933.791707173</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>47.4</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>47.7</v>
+        <v>49.2</v>
       </c>
       <c r="C28" t="n">
-        <v>47.7</v>
+        <v>49.2</v>
       </c>
       <c r="D28" t="n">
-        <v>47.7</v>
+        <v>49.2</v>
       </c>
       <c r="E28" t="n">
-        <v>47.7</v>
+        <v>49.2</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>4033.8157</v>
       </c>
       <c r="G28" t="n">
-        <v>-21205.108392827</v>
+        <v>157967.607407173</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>47.6</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>47.8</v>
+        <v>49.3</v>
       </c>
       <c r="C29" t="n">
-        <v>47.8</v>
+        <v>49.4</v>
       </c>
       <c r="D29" t="n">
-        <v>47.8</v>
+        <v>49.4</v>
       </c>
       <c r="E29" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="F29" t="n">
-        <v>2065.39</v>
+        <v>19913.2477</v>
       </c>
       <c r="G29" t="n">
-        <v>-19139.718392827</v>
+        <v>177880.855107173</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1421,36 +1435,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>47.9</v>
+        <v>48.9</v>
       </c>
       <c r="C30" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="E30" t="n">
-        <v>47.9</v>
+        <v>48.9</v>
       </c>
       <c r="F30" t="n">
-        <v>21.9563</v>
+        <v>243.5699</v>
       </c>
       <c r="G30" t="n">
-        <v>-19117.762092827</v>
+        <v>177637.285207173</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,36 +1471,33 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="C31" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="D31" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="F31" t="n">
-        <v>2530.0175</v>
+        <v>7597</v>
       </c>
       <c r="G31" t="n">
-        <v>-19117.762092827</v>
+        <v>170040.285207173</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1499,36 +1507,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="C32" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="D32" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="E32" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="F32" t="n">
-        <v>1183</v>
+        <v>6907.291</v>
       </c>
       <c r="G32" t="n">
-        <v>-19117.762092827</v>
+        <v>163132.994207173</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1538,36 +1543,33 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="C33" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="D33" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="E33" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F33" t="n">
-        <v>4674.2925</v>
+        <v>22</v>
       </c>
       <c r="G33" t="n">
-        <v>-14443.469592827</v>
+        <v>163154.994207173</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1577,36 +1579,33 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48.8</v>
+        <v>47.8</v>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="D34" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="E34" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="F34" t="n">
-        <v>98313.56050000001</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>83870.09090717301</v>
+        <v>163176.994207173</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1616,36 +1615,33 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="C35" t="n">
-        <v>49</v>
+        <v>47.4</v>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="E35" t="n">
-        <v>48.4</v>
+        <v>47.4</v>
       </c>
       <c r="F35" t="n">
-        <v>3363</v>
+        <v>6178</v>
       </c>
       <c r="G35" t="n">
-        <v>83870.09090717301</v>
+        <v>156998.994207173</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1655,36 +1651,33 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>49.1</v>
+        <v>47.4</v>
       </c>
       <c r="C36" t="n">
-        <v>49.3</v>
+        <v>47.4</v>
       </c>
       <c r="D36" t="n">
-        <v>49.3</v>
+        <v>47.4</v>
       </c>
       <c r="E36" t="n">
-        <v>49.1</v>
+        <v>47.4</v>
       </c>
       <c r="F36" t="n">
-        <v>6537</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>90407.09090717301</v>
+        <v>156998.994207173</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1694,36 +1687,33 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49.4</v>
+        <v>47.1</v>
       </c>
       <c r="C37" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="D37" t="n">
-        <v>49.6</v>
+        <v>47.3</v>
       </c>
       <c r="E37" t="n">
-        <v>49.1</v>
+        <v>47.1</v>
       </c>
       <c r="F37" t="n">
-        <v>15184.5368</v>
+        <v>33</v>
       </c>
       <c r="G37" t="n">
-        <v>75222.55410717301</v>
+        <v>156965.994207173</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1733,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="C38" t="n">
-        <v>49.2</v>
+        <v>47.1</v>
       </c>
       <c r="D38" t="n">
-        <v>49.6</v>
+        <v>47.6</v>
       </c>
       <c r="E38" t="n">
-        <v>49.2</v>
+        <v>47.1</v>
       </c>
       <c r="F38" t="n">
-        <v>29018.2855</v>
+        <v>89</v>
       </c>
       <c r="G38" t="n">
-        <v>104240.839607173</v>
+        <v>156876.994207173</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1772,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="C39" t="n">
-        <v>49.9</v>
+        <v>47.2</v>
       </c>
       <c r="D39" t="n">
-        <v>49.9</v>
+        <v>47.2</v>
       </c>
       <c r="E39" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="F39" t="n">
-        <v>3814.6923</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>108055.531907173</v>
+        <v>156887.994207173</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1811,192 +1795,201 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.9</v>
+        <v>47.3</v>
       </c>
       <c r="C40" t="n">
-        <v>49.4</v>
+        <v>47.3</v>
       </c>
       <c r="D40" t="n">
-        <v>49.9</v>
+        <v>47.3</v>
       </c>
       <c r="E40" t="n">
-        <v>49.4</v>
+        <v>47.3</v>
       </c>
       <c r="F40" t="n">
-        <v>6427.0905</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>101628.441407173</v>
+        <v>156898.994207173</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="C41" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="D41" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="E41" t="n">
-        <v>49.5</v>
+        <v>47.4</v>
       </c>
       <c r="F41" t="n">
-        <v>21909.7908</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>123538.232207173</v>
+        <v>156909.994207173</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>47.2</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49.6</v>
+        <v>47.5</v>
       </c>
       <c r="C42" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="D42" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="E42" t="n">
-        <v>49.3</v>
+        <v>47.5</v>
       </c>
       <c r="F42" t="n">
-        <v>21860.2551</v>
+        <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>145398.487307173</v>
+        <v>156931.994207173</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>47.2</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="C43" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="D43" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="E43" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="F43" t="n">
-        <v>3.391</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>145398.487307173</v>
+        <v>156931.994207173</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="C44" t="n">
-        <v>49.9</v>
+        <v>47.4</v>
       </c>
       <c r="D44" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="E44" t="n">
-        <v>49.9</v>
+        <v>47.4</v>
       </c>
       <c r="F44" t="n">
-        <v>10.5799</v>
+        <v>5582.0273</v>
       </c>
       <c r="G44" t="n">
-        <v>145398.487307173</v>
+        <v>151349.966907173</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2005,37 +1998,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.6</v>
+        <v>47.5</v>
       </c>
       <c r="C45" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="D45" t="n">
-        <v>50.1</v>
+        <v>47.7</v>
       </c>
       <c r="E45" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="F45" t="n">
-        <v>9102.762500000001</v>
+        <v>5592.3639</v>
       </c>
       <c r="G45" t="n">
-        <v>136295.724807173</v>
+        <v>156942.330807173</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2044,7 +2040,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,28 +2051,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>49.3</v>
+        <v>47.8</v>
       </c>
       <c r="C46" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="D46" t="n">
-        <v>49.3</v>
+        <v>47.8</v>
       </c>
       <c r="E46" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="F46" t="n">
-        <v>9917.6854</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>126378.039407173</v>
+        <v>156953.330807173</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2083,7 +2082,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,28 +2093,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="C47" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="D47" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="E47" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="F47" t="n">
-        <v>6250</v>
+        <v>126</v>
       </c>
       <c r="G47" t="n">
-        <v>132628.039407173</v>
+        <v>156827.330807173</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2122,7 +2124,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,28 +2135,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="C48" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="D48" t="n">
-        <v>50.2</v>
+        <v>48.1</v>
       </c>
       <c r="E48" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="F48" t="n">
-        <v>47746.4164</v>
+        <v>111</v>
       </c>
       <c r="G48" t="n">
-        <v>84881.623007173</v>
+        <v>156938.330807173</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2161,7 +2166,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,28 +2177,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="C49" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="D49" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="E49" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="F49" t="n">
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>84892.623007173</v>
+        <v>156927.330807173</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2200,7 +2208,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,28 +2219,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="C50" t="n">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
       <c r="D50" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="E50" t="n">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>488</v>
       </c>
       <c r="G50" t="n">
-        <v>81892.623007173</v>
+        <v>156439.330807173</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2239,7 +2250,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,28 +2261,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48.2</v>
+        <v>47</v>
       </c>
       <c r="C51" t="n">
-        <v>48.8</v>
+        <v>46.8</v>
       </c>
       <c r="D51" t="n">
-        <v>48.8</v>
+        <v>47</v>
       </c>
       <c r="E51" t="n">
-        <v>48.2</v>
+        <v>46.8</v>
       </c>
       <c r="F51" t="n">
-        <v>22231</v>
+        <v>33</v>
       </c>
       <c r="G51" t="n">
-        <v>104123.623007173</v>
+        <v>156406.330807173</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2278,7 +2292,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,28 +2303,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48.9</v>
+        <v>46.9</v>
       </c>
       <c r="C52" t="n">
-        <v>49.8</v>
+        <v>47.5</v>
       </c>
       <c r="D52" t="n">
-        <v>49.8</v>
+        <v>47.5</v>
       </c>
       <c r="E52" t="n">
-        <v>48.9</v>
+        <v>46.9</v>
       </c>
       <c r="F52" t="n">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>104234.623007173</v>
+        <v>156483.330807173</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2317,7 +2334,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2326,28 +2345,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="C53" t="n">
-        <v>49.8</v>
+        <v>46.8</v>
       </c>
       <c r="D53" t="n">
-        <v>49.8</v>
+        <v>47.6</v>
       </c>
       <c r="E53" t="n">
-        <v>49.2</v>
+        <v>46.8</v>
       </c>
       <c r="F53" t="n">
-        <v>5116.8509</v>
+        <v>340</v>
       </c>
       <c r="G53" t="n">
-        <v>104234.623007173</v>
+        <v>156143.330807173</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2356,7 +2376,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2365,28 +2387,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="C54" t="n">
-        <v>49.9</v>
+        <v>47.1</v>
       </c>
       <c r="D54" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="E54" t="n">
-        <v>49.9</v>
+        <v>47.1</v>
       </c>
       <c r="F54" t="n">
-        <v>20819.6684</v>
+        <v>532.7226000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>125054.291407173</v>
+        <v>156676.053407173</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2395,7 +2418,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2404,28 +2429,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="C55" t="n">
-        <v>48.6</v>
+        <v>47.2</v>
       </c>
       <c r="D55" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="E55" t="n">
-        <v>48.6</v>
+        <v>47.2</v>
       </c>
       <c r="F55" t="n">
-        <v>3712.7859</v>
+        <v>54</v>
       </c>
       <c r="G55" t="n">
-        <v>121341.505507173</v>
+        <v>156730.053407173</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2434,7 +2460,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2443,28 +2471,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="C56" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="D56" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="E56" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>3419</v>
       </c>
       <c r="G56" t="n">
-        <v>121329.505507173</v>
+        <v>160149.053407173</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2473,7 +2502,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,28 +2513,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="C57" t="n">
-        <v>48.9</v>
+        <v>48</v>
       </c>
       <c r="D57" t="n">
-        <v>48.9</v>
+        <v>48</v>
       </c>
       <c r="E57" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="F57" t="n">
-        <v>11.8334</v>
+        <v>900</v>
       </c>
       <c r="G57" t="n">
-        <v>121341.338907173</v>
+        <v>161049.053407173</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2512,7 +2544,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2521,28 +2555,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="C58" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="D58" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E58" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="F58" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="G58" t="n">
-        <v>121269.338907173</v>
+        <v>160928.053407173</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2551,7 +2586,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,28 +2597,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C59" t="n">
-        <v>47.8</v>
+        <v>49.6</v>
       </c>
       <c r="D59" t="n">
-        <v>48.1</v>
+        <v>49.6</v>
       </c>
       <c r="E59" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="F59" t="n">
-        <v>19230.0765</v>
+        <v>51435.137</v>
       </c>
       <c r="G59" t="n">
-        <v>102039.262407173</v>
+        <v>212363.190407173</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2590,7 +2628,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,6 +2639,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2608,19 +2649,19 @@
         <v>48.2</v>
       </c>
       <c r="C60" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="D60" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="E60" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="F60" t="n">
-        <v>36046.2578</v>
+        <v>15</v>
       </c>
       <c r="G60" t="n">
-        <v>138085.520207173</v>
+        <v>212348.190407173</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2629,7 +2670,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,28 +2681,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="C61" t="n">
-        <v>48.6</v>
+        <v>49.6</v>
       </c>
       <c r="D61" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="E61" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="F61" t="n">
-        <v>26230.6578</v>
+        <v>2636.5135</v>
       </c>
       <c r="G61" t="n">
-        <v>164316.178007173</v>
+        <v>214984.703907173</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2668,7 +2712,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2677,28 +2723,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.8</v>
+        <v>49.6</v>
       </c>
       <c r="C62" t="n">
-        <v>47.9</v>
+        <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>49.1</v>
+        <v>50</v>
       </c>
       <c r="E62" t="n">
-        <v>47.9</v>
+        <v>49.6</v>
       </c>
       <c r="F62" t="n">
-        <v>10101.3863</v>
+        <v>4731.565</v>
       </c>
       <c r="G62" t="n">
-        <v>154214.791707173</v>
+        <v>219716.268907173</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2707,7 +2754,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2716,28 +2765,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>49.1</v>
+        <v>49.5</v>
       </c>
       <c r="C63" t="n">
-        <v>49.1</v>
+        <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>49.1</v>
+        <v>50</v>
       </c>
       <c r="E63" t="n">
-        <v>49.1</v>
+        <v>49.5</v>
       </c>
       <c r="F63" t="n">
-        <v>400</v>
+        <v>818.6838</v>
       </c>
       <c r="G63" t="n">
-        <v>154614.791707173</v>
+        <v>219716.268907173</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2746,7 +2796,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2755,28 +2807,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.7</v>
+        <v>48.4</v>
       </c>
       <c r="C64" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="E64" t="n">
-        <v>49.7</v>
+        <v>48.4</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>154625.791707173</v>
+        <v>219716.268907173</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2785,7 +2838,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,28 +2849,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>49.6</v>
+        <v>49.1</v>
       </c>
       <c r="C65" t="n">
-        <v>49.5</v>
+        <v>47.2</v>
       </c>
       <c r="D65" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E65" t="n">
-        <v>49.5</v>
+        <v>47.2</v>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>7604.5639</v>
       </c>
       <c r="G65" t="n">
-        <v>154603.791707173</v>
+        <v>212111.705007173</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2824,7 +2880,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,28 +2891,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>49.4</v>
+        <v>48.4</v>
       </c>
       <c r="C66" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="D66" t="n">
-        <v>49.4</v>
+        <v>48.4</v>
       </c>
       <c r="E66" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="F66" t="n">
-        <v>1681</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>152922.791707173</v>
+        <v>212122.705007173</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2863,7 +2922,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,28 +2933,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>49.3</v>
+        <v>48</v>
       </c>
       <c r="C67" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="D67" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="E67" t="n">
-        <v>49.3</v>
+        <v>48</v>
       </c>
       <c r="F67" t="n">
-        <v>1111</v>
+        <v>44</v>
       </c>
       <c r="G67" t="n">
-        <v>154033.791707173</v>
+        <v>212078.705007173</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2902,7 +2964,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,28 +2975,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="C68" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="D68" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="E68" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G68" t="n">
-        <v>153933.791707173</v>
+        <v>212189.705007173</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2941,7 +3006,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,13 +3017,14 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C69" t="n">
         <v>49</v>
@@ -2965,13 +3033,13 @@
         <v>49</v>
       </c>
       <c r="E69" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="F69" t="n">
-        <v>44.4444</v>
+        <v>2563.8881</v>
       </c>
       <c r="G69" t="n">
-        <v>153933.791707173</v>
+        <v>214753.593107173</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2980,7 +3048,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,28 +3059,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="C70" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="D70" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="E70" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="F70" t="n">
-        <v>4033.8157</v>
+        <v>3733</v>
       </c>
       <c r="G70" t="n">
-        <v>157967.607407173</v>
+        <v>211020.593107173</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3019,7 +3090,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,28 +3101,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>49</v>
+      </c>
+      <c r="C71" t="n">
         <v>49.3</v>
       </c>
-      <c r="C71" t="n">
-        <v>49.4</v>
-      </c>
       <c r="D71" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E71" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="F71" t="n">
-        <v>19913.2477</v>
+        <v>1364.4001</v>
       </c>
       <c r="G71" t="n">
-        <v>177880.855107173</v>
+        <v>212384.993207173</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3058,7 +3132,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,28 +3143,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="C72" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="D72" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="E72" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="F72" t="n">
-        <v>243.5699</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>177637.285207173</v>
+        <v>212395.993207173</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3097,7 +3174,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,28 +3185,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="C73" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="D73" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="E73" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="F73" t="n">
-        <v>7597</v>
+        <v>3568</v>
       </c>
       <c r="G73" t="n">
-        <v>170040.285207173</v>
+        <v>208827.993207173</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3136,7 +3216,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3145,28 +3227,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>47.6</v>
+        <v>49.3</v>
       </c>
       <c r="C74" t="n">
-        <v>47.6</v>
+        <v>49.3</v>
       </c>
       <c r="D74" t="n">
-        <v>47.6</v>
+        <v>49.3</v>
       </c>
       <c r="E74" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="F74" t="n">
-        <v>6907.291</v>
+        <v>18944.4137</v>
       </c>
       <c r="G74" t="n">
-        <v>163132.994207173</v>
+        <v>189883.579507173</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3175,7 +3258,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,28 +3269,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="C75" t="n">
-        <v>47.7</v>
+        <v>49.1</v>
       </c>
       <c r="D75" t="n">
-        <v>47.7</v>
+        <v>49.1</v>
       </c>
       <c r="E75" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>51.9831</v>
       </c>
       <c r="G75" t="n">
-        <v>163154.994207173</v>
+        <v>189831.596407173</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3214,7 +3300,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,28 +3311,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47.8</v>
+        <v>49.2</v>
       </c>
       <c r="C76" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>47.8</v>
+        <v>49.2</v>
       </c>
       <c r="E76" t="n">
-        <v>47.8</v>
+        <v>48.6</v>
       </c>
       <c r="F76" t="n">
-        <v>22</v>
+        <v>962.2654</v>
       </c>
       <c r="G76" t="n">
-        <v>163176.994207173</v>
+        <v>188869.331007173</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3253,7 +3342,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3262,28 +3353,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="C77" t="n">
-        <v>47.4</v>
+        <v>48.5</v>
       </c>
       <c r="D77" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="E77" t="n">
-        <v>47.4</v>
+        <v>48.5</v>
       </c>
       <c r="F77" t="n">
-        <v>6178</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>156998.994207173</v>
+        <v>188858.331007173</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3292,7 +3384,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,28 +3395,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>47.4</v>
+        <v>48.4</v>
       </c>
       <c r="C78" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="D78" t="n">
-        <v>47.4</v>
+        <v>48.4</v>
       </c>
       <c r="E78" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>1423.4978</v>
       </c>
       <c r="G78" t="n">
-        <v>156998.994207173</v>
+        <v>187434.833207173</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3331,7 +3426,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,28 +3437,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>47.1</v>
+        <v>48.1</v>
       </c>
       <c r="C79" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="D79" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="E79" t="n">
-        <v>47.1</v>
+        <v>47.9</v>
       </c>
       <c r="F79" t="n">
-        <v>33</v>
+        <v>192.2148</v>
       </c>
       <c r="G79" t="n">
-        <v>156965.994207173</v>
+        <v>187242.618407173</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3370,7 +3468,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3379,28 +3479,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="C80" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="D80" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E80" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="F80" t="n">
-        <v>89</v>
+        <v>18128.2934</v>
       </c>
       <c r="G80" t="n">
-        <v>156876.994207173</v>
+        <v>169114.325007173</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3409,7 +3510,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,28 +3521,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="C81" t="n">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="D81" t="n">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="E81" t="n">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>1465.4263</v>
       </c>
       <c r="G81" t="n">
-        <v>156887.994207173</v>
+        <v>167648.898707173</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3448,7 +3552,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,28 +3563,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>47.3</v>
+        <v>47</v>
       </c>
       <c r="C82" t="n">
-        <v>47.3</v>
+        <v>47</v>
       </c>
       <c r="D82" t="n">
-        <v>47.3</v>
+        <v>47</v>
       </c>
       <c r="E82" t="n">
-        <v>47.3</v>
+        <v>47</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>818.6838</v>
       </c>
       <c r="G82" t="n">
-        <v>156898.994207173</v>
+        <v>167648.898707173</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3487,7 +3594,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,28 +3605,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
       <c r="C83" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="D83" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="E83" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>2962.2797</v>
       </c>
       <c r="G83" t="n">
-        <v>156909.994207173</v>
+        <v>170611.178407173</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3526,7 +3636,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,28 +3647,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="C84" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="D84" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E84" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>16048.9489</v>
       </c>
       <c r="G84" t="n">
-        <v>156931.994207173</v>
+        <v>170611.178407173</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3565,7 +3678,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,28 +3689,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="C85" t="n">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
       <c r="D85" t="n">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
       <c r="E85" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="F85" t="n">
-        <v>18</v>
+        <v>4001</v>
       </c>
       <c r="G85" t="n">
-        <v>156931.994207173</v>
+        <v>174612.178407173</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3604,7 +3720,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,28 +3731,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C86" t="n">
-        <v>47.4</v>
+        <v>49.5</v>
       </c>
       <c r="D86" t="n">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
       <c r="E86" t="n">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="F86" t="n">
-        <v>5582.0273</v>
+        <v>304</v>
       </c>
       <c r="G86" t="n">
-        <v>151349.966907173</v>
+        <v>174612.178407173</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3643,7 +3762,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,28 +3773,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="C87" t="n">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="D87" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="E87" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="F87" t="n">
-        <v>5592.3639</v>
+        <v>20353.9489</v>
       </c>
       <c r="G87" t="n">
-        <v>156942.330807173</v>
+        <v>154258.229507173</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3682,7 +3804,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,28 +3815,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="C88" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="D88" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="E88" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
-        <v>156953.330807173</v>
+        <v>154228.229507173</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3721,7 +3846,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,28 +3857,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="C89" t="n">
         <v>47.2</v>
       </c>
       <c r="D89" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="E89" t="n">
         <v>47.2</v>
       </c>
       <c r="F89" t="n">
-        <v>126</v>
+        <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>156827.330807173</v>
+        <v>153428.229507173</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3760,7 +3888,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3769,28 +3899,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="C90" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="D90" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="E90" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="F90" t="n">
-        <v>111</v>
+        <v>25.7903</v>
       </c>
       <c r="G90" t="n">
-        <v>156938.330807173</v>
+        <v>153454.019807173</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3799,7 +3930,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,28 +3941,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="C91" t="n">
-        <v>47.7</v>
+        <v>48.5</v>
       </c>
       <c r="D91" t="n">
-        <v>47.7</v>
+        <v>48.5</v>
       </c>
       <c r="E91" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>3680.8313</v>
       </c>
       <c r="G91" t="n">
-        <v>156927.330807173</v>
+        <v>153454.019807173</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3838,7 +3972,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,28 +3983,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="C92" t="n">
-        <v>47.1</v>
+        <v>48.5</v>
       </c>
       <c r="D92" t="n">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="E92" t="n">
-        <v>47.1</v>
+        <v>48.5</v>
       </c>
       <c r="F92" t="n">
-        <v>488</v>
+        <v>9021.839400000001</v>
       </c>
       <c r="G92" t="n">
-        <v>156439.330807173</v>
+        <v>153454.019807173</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3877,7 +4014,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,28 +4025,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47</v>
+        <v>49.3</v>
       </c>
       <c r="C93" t="n">
-        <v>46.8</v>
+        <v>49.3</v>
       </c>
       <c r="D93" t="n">
-        <v>47</v>
+        <v>49.3</v>
       </c>
       <c r="E93" t="n">
-        <v>46.8</v>
+        <v>49.3</v>
       </c>
       <c r="F93" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>156406.330807173</v>
+        <v>153465.019807173</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3916,7 +4056,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3925,28 +4067,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>46.9</v>
+        <v>49.3</v>
       </c>
       <c r="C94" t="n">
-        <v>47.5</v>
+        <v>49.4</v>
       </c>
       <c r="D94" t="n">
-        <v>47.5</v>
+        <v>49.4</v>
       </c>
       <c r="E94" t="n">
-        <v>46.9</v>
+        <v>49.3</v>
       </c>
       <c r="F94" t="n">
-        <v>77</v>
+        <v>6943.1207</v>
       </c>
       <c r="G94" t="n">
-        <v>156483.330807173</v>
+        <v>160408.140507173</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3955,7 +4098,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,28 +4109,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
       <c r="C95" t="n">
-        <v>46.8</v>
+        <v>49.5</v>
       </c>
       <c r="D95" t="n">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
       <c r="E95" t="n">
-        <v>46.8</v>
+        <v>49.5</v>
       </c>
       <c r="F95" t="n">
-        <v>340</v>
+        <v>4937.0478</v>
       </c>
       <c r="G95" t="n">
-        <v>156143.330807173</v>
+        <v>165345.188307173</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3994,7 +4140,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,28 +4151,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.6</v>
+        <v>49.6</v>
       </c>
       <c r="C96" t="n">
-        <v>47.1</v>
+        <v>49.5</v>
       </c>
       <c r="D96" t="n">
-        <v>47.6</v>
+        <v>49.8</v>
       </c>
       <c r="E96" t="n">
-        <v>47.1</v>
+        <v>49.5</v>
       </c>
       <c r="F96" t="n">
-        <v>532.7226000000001</v>
+        <v>8345.9522</v>
       </c>
       <c r="G96" t="n">
-        <v>156676.053407173</v>
+        <v>165345.188307173</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4033,7 +4182,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4042,28 +4193,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>47.3</v>
+        <v>49.4</v>
       </c>
       <c r="C97" t="n">
-        <v>47.2</v>
+        <v>49.4</v>
       </c>
       <c r="D97" t="n">
-        <v>47.3</v>
+        <v>49.4</v>
       </c>
       <c r="E97" t="n">
-        <v>47.2</v>
+        <v>49.4</v>
       </c>
       <c r="F97" t="n">
-        <v>54</v>
+        <v>793.3421</v>
       </c>
       <c r="G97" t="n">
-        <v>156730.053407173</v>
+        <v>164551.846207173</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4072,7 +4224,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,28 +4235,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="C98" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="D98" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="E98" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="F98" t="n">
-        <v>3419</v>
+        <v>894.8159000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>160149.053407173</v>
+        <v>164551.846207173</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4111,7 +4266,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,28 +4277,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47.5</v>
+        <v>49.9</v>
       </c>
       <c r="C99" t="n">
-        <v>48</v>
+        <v>49.9</v>
       </c>
       <c r="D99" t="n">
-        <v>48</v>
+        <v>49.9</v>
       </c>
       <c r="E99" t="n">
-        <v>47.5</v>
+        <v>49.9</v>
       </c>
       <c r="F99" t="n">
-        <v>900</v>
+        <v>1455.2242</v>
       </c>
       <c r="G99" t="n">
-        <v>161049.053407173</v>
+        <v>166007.070407173</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4150,7 +4308,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,28 +4319,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48.1</v>
+        <v>49.9</v>
       </c>
       <c r="C100" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="D100" t="n">
-        <v>48.1</v>
+        <v>49.9</v>
       </c>
       <c r="E100" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="F100" t="n">
-        <v>121</v>
+        <v>1073.6413</v>
       </c>
       <c r="G100" t="n">
-        <v>160928.053407173</v>
+        <v>164933.429107173</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4189,7 +4350,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,28 +4361,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>48</v>
+        <v>49.9</v>
       </c>
       <c r="C101" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="D101" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="E101" t="n">
-        <v>48</v>
+        <v>49.9</v>
       </c>
       <c r="F101" t="n">
-        <v>51435.137</v>
+        <v>1319.2072</v>
       </c>
       <c r="G101" t="n">
-        <v>212363.190407173</v>
+        <v>166252.636307173</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4228,7 +4392,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4237,28 +4403,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>48.2</v>
+        <v>49.9</v>
       </c>
       <c r="C102" t="n">
-        <v>48.2</v>
+        <v>49.9</v>
       </c>
       <c r="D102" t="n">
-        <v>48.2</v>
+        <v>49.9</v>
       </c>
       <c r="E102" t="n">
-        <v>48.2</v>
+        <v>49.9</v>
       </c>
       <c r="F102" t="n">
-        <v>15</v>
+        <v>3000</v>
       </c>
       <c r="G102" t="n">
-        <v>212348.190407173</v>
+        <v>166252.636307173</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4267,7 +4434,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,28 +4445,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>49.1</v>
+        <v>50</v>
       </c>
       <c r="C103" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="E103" t="n">
-        <v>48.2</v>
+        <v>49.9</v>
       </c>
       <c r="F103" t="n">
-        <v>2636.5135</v>
+        <v>15661.8751</v>
       </c>
       <c r="G103" t="n">
-        <v>214984.703907173</v>
+        <v>181914.511407173</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4306,7 +4476,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,28 +4487,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="C104" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D104" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E104" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="F104" t="n">
-        <v>4731.565</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>219716.268907173</v>
+        <v>181814.511407173</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4345,7 +4518,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,28 +4529,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="C105" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D105" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E105" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="F105" t="n">
-        <v>818.6838</v>
+        <v>844.0572</v>
       </c>
       <c r="G105" t="n">
-        <v>219716.268907173</v>
+        <v>181814.511407173</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4384,7 +4560,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,67 +4571,71 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>48.4</v>
+        <v>49.9</v>
       </c>
       <c r="C106" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D106" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E106" t="n">
-        <v>48.4</v>
+        <v>49.9</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>759.8619</v>
       </c>
       <c r="G106" t="n">
-        <v>219716.268907173</v>
+        <v>181814.511407173</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>47.6</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
-      </c>
+        <v>1.043319327731092</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="C107" t="n">
-        <v>47.2</v>
+        <v>49.8</v>
       </c>
       <c r="D107" t="n">
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="E107" t="n">
-        <v>47.2</v>
+        <v>49.8</v>
       </c>
       <c r="F107" t="n">
-        <v>7604.5639</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>212111.705007173</v>
+        <v>181714.511407173</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4463,36 +4645,33 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>48.4</v>
+        <v>49.8</v>
       </c>
       <c r="C108" t="n">
-        <v>48.4</v>
+        <v>49.8</v>
       </c>
       <c r="D108" t="n">
-        <v>48.4</v>
+        <v>49.8</v>
       </c>
       <c r="E108" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>17335.9909</v>
       </c>
       <c r="G108" t="n">
-        <v>212122.705007173</v>
+        <v>181714.511407173</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4502,36 +4681,33 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="C109" t="n">
-        <v>48.3</v>
+        <v>49.8</v>
       </c>
       <c r="D109" t="n">
-        <v>48.3</v>
+        <v>49.8</v>
       </c>
       <c r="E109" t="n">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="F109" t="n">
-        <v>44</v>
+        <v>742.1754</v>
       </c>
       <c r="G109" t="n">
-        <v>212078.705007173</v>
+        <v>181714.511407173</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4541,36 +4717,33 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="C110" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="D110" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="E110" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="F110" t="n">
-        <v>111</v>
+        <v>904.9109</v>
       </c>
       <c r="G110" t="n">
-        <v>212189.705007173</v>
+        <v>180809.600507173</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4580,36 +4753,33 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="C111" t="n">
-        <v>49</v>
+        <v>49.7</v>
       </c>
       <c r="D111" t="n">
-        <v>49</v>
+        <v>49.7</v>
       </c>
       <c r="E111" t="n">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="F111" t="n">
-        <v>2563.8881</v>
+        <v>503.212</v>
       </c>
       <c r="G111" t="n">
-        <v>214753.593107173</v>
+        <v>180809.600507173</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4619,36 +4789,33 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="C112" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="D112" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="E112" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="F112" t="n">
-        <v>3733</v>
+        <v>17652.7113</v>
       </c>
       <c r="G112" t="n">
-        <v>211020.593107173</v>
+        <v>163156.8892071731</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4658,36 +4825,33 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="C113" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="D113" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="E113" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="F113" t="n">
-        <v>1364.4001</v>
+        <v>82</v>
       </c>
       <c r="G113" t="n">
-        <v>212384.993207173</v>
+        <v>163074.8892071731</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4697,36 +4861,33 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="C114" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="D114" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E114" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="F114" t="n">
-        <v>11</v>
+        <v>2023.9029</v>
       </c>
       <c r="G114" t="n">
-        <v>212395.993207173</v>
+        <v>163074.8892071731</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4736,36 +4897,33 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C115" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D115" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E115" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F115" t="n">
-        <v>3568</v>
+        <v>800</v>
       </c>
       <c r="G115" t="n">
-        <v>208827.993207173</v>
+        <v>163874.8892071731</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4775,36 +4933,33 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C116" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="D116" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="E116" t="n">
-        <v>48.6</v>
+        <v>49.6</v>
       </c>
       <c r="F116" t="n">
-        <v>18944.4137</v>
+        <v>1169.1713</v>
       </c>
       <c r="G116" t="n">
-        <v>189883.579507173</v>
+        <v>163874.8892071731</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4814,36 +4969,33 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="C117" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="D117" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="E117" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="F117" t="n">
-        <v>51.9831</v>
+        <v>4842.8952</v>
       </c>
       <c r="G117" t="n">
-        <v>189831.596407173</v>
+        <v>168717.7844071731</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4853,36 +5005,33 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="C118" t="n">
-        <v>49</v>
+        <v>50.4</v>
       </c>
       <c r="D118" t="n">
-        <v>49.2</v>
+        <v>50.4</v>
       </c>
       <c r="E118" t="n">
-        <v>48.6</v>
+        <v>49.8</v>
       </c>
       <c r="F118" t="n">
-        <v>962.2654</v>
+        <v>13555.4786</v>
       </c>
       <c r="G118" t="n">
-        <v>188869.331007173</v>
+        <v>182273.2630071731</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4892,36 +5041,33 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="C119" t="n">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="D119" t="n">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="E119" t="n">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="F119" t="n">
-        <v>11</v>
+        <v>90.6262</v>
       </c>
       <c r="G119" t="n">
-        <v>188858.331007173</v>
+        <v>182273.2630071731</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4931,36 +5077,33 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>48.4</v>
+        <v>50.4</v>
       </c>
       <c r="C120" t="n">
-        <v>48.2</v>
+        <v>50.4</v>
       </c>
       <c r="D120" t="n">
-        <v>48.4</v>
+        <v>50.4</v>
       </c>
       <c r="E120" t="n">
-        <v>48.2</v>
+        <v>50.4</v>
       </c>
       <c r="F120" t="n">
-        <v>1423.4978</v>
+        <v>1200</v>
       </c>
       <c r="G120" t="n">
-        <v>187434.833207173</v>
+        <v>182273.2630071731</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4970,270 +5113,249 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>48.1</v>
+        <v>50.4</v>
       </c>
       <c r="C121" t="n">
-        <v>47.9</v>
+        <v>50.4</v>
       </c>
       <c r="D121" t="n">
-        <v>48.1</v>
+        <v>50.4</v>
       </c>
       <c r="E121" t="n">
-        <v>47.9</v>
+        <v>50.4</v>
       </c>
       <c r="F121" t="n">
-        <v>192.2148</v>
+        <v>4792.3496</v>
       </c>
       <c r="G121" t="n">
-        <v>187242.618407173</v>
+        <v>182273.2630071731</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>47.8</v>
+        <v>50.5</v>
       </c>
       <c r="C122" t="n">
-        <v>47.7</v>
+        <v>50.8</v>
       </c>
       <c r="D122" t="n">
-        <v>47.8</v>
+        <v>50.8</v>
       </c>
       <c r="E122" t="n">
-        <v>47.7</v>
+        <v>50.5</v>
       </c>
       <c r="F122" t="n">
-        <v>18128.2934</v>
+        <v>1409.555</v>
       </c>
       <c r="G122" t="n">
-        <v>169114.325007173</v>
+        <v>183682.818007173</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>47.6</v>
+        <v>50.5</v>
       </c>
       <c r="C123" t="n">
-        <v>47</v>
+        <v>50.5</v>
       </c>
       <c r="D123" t="n">
-        <v>47.6</v>
+        <v>50.5</v>
       </c>
       <c r="E123" t="n">
-        <v>47</v>
+        <v>50.5</v>
       </c>
       <c r="F123" t="n">
-        <v>1465.4263</v>
+        <v>503.4447</v>
       </c>
       <c r="G123" t="n">
-        <v>167648.898707173</v>
+        <v>183179.3733071731</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>47</v>
+        <v>50.3</v>
       </c>
       <c r="C124" t="n">
-        <v>47</v>
+        <v>50.2</v>
       </c>
       <c r="D124" t="n">
-        <v>47</v>
+        <v>50.3</v>
       </c>
       <c r="E124" t="n">
-        <v>47</v>
+        <v>50.2</v>
       </c>
       <c r="F124" t="n">
-        <v>818.6838</v>
+        <v>200</v>
       </c>
       <c r="G124" t="n">
-        <v>167648.898707173</v>
+        <v>182979.3733071731</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="C125" t="n">
-        <v>47.8</v>
+        <v>50.1</v>
       </c>
       <c r="D125" t="n">
-        <v>47.8</v>
+        <v>50.1</v>
       </c>
       <c r="E125" t="n">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="F125" t="n">
-        <v>2962.2797</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>170611.178407173</v>
+        <v>182879.3733071731</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="C126" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="D126" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="E126" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="F126" t="n">
-        <v>16048.9489</v>
+        <v>6300</v>
       </c>
       <c r="G126" t="n">
-        <v>170611.178407173</v>
+        <v>176579.3733071731</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>48.5</v>
+        <v>49.8</v>
       </c>
       <c r="C127" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="D127" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="E127" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="F127" t="n">
-        <v>4001</v>
+        <v>2420.2245</v>
       </c>
       <c r="G127" t="n">
-        <v>174612.178407173</v>
+        <v>174159.148807173</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5243,36 +5365,33 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C128" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="D128" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="E128" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="F128" t="n">
-        <v>304</v>
+        <v>3427.8212</v>
       </c>
       <c r="G128" t="n">
-        <v>174612.178407173</v>
+        <v>174159.148807173</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5282,36 +5401,33 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>48.2</v>
+        <v>49</v>
       </c>
       <c r="C129" t="n">
-        <v>48.1</v>
+        <v>49.1</v>
       </c>
       <c r="D129" t="n">
-        <v>48.2</v>
+        <v>49.1</v>
       </c>
       <c r="E129" t="n">
-        <v>48.1</v>
+        <v>48.9</v>
       </c>
       <c r="F129" t="n">
-        <v>20353.9489</v>
+        <v>1372.1788</v>
       </c>
       <c r="G129" t="n">
-        <v>154258.229507173</v>
+        <v>174159.148807173</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5321,36 +5437,33 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>48.5</v>
+        <v>49.8</v>
       </c>
       <c r="C130" t="n">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="D130" t="n">
-        <v>48.5</v>
+        <v>49.8</v>
       </c>
       <c r="E130" t="n">
-        <v>48</v>
+        <v>49.8</v>
       </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>496</v>
       </c>
       <c r="G130" t="n">
-        <v>154228.229507173</v>
+        <v>174655.148807173</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5360,36 +5473,33 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="C131" t="n">
-        <v>47.2</v>
+        <v>49.5</v>
       </c>
       <c r="D131" t="n">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="E131" t="n">
-        <v>47.2</v>
+        <v>49.5</v>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>2997</v>
       </c>
       <c r="G131" t="n">
-        <v>153428.229507173</v>
+        <v>171658.148807173</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5399,153 +5509,141 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.5</v>
+        <v>49.6</v>
       </c>
       <c r="C132" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="D132" t="n">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="E132" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="F132" t="n">
-        <v>25.7903</v>
+        <v>19142.9134</v>
       </c>
       <c r="G132" t="n">
-        <v>153454.019807173</v>
+        <v>171658.148807173</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>47.2</v>
+        <v>49.5</v>
       </c>
       <c r="C133" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="D133" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="E133" t="n">
-        <v>47.2</v>
+        <v>49.5</v>
       </c>
       <c r="F133" t="n">
-        <v>3680.8313</v>
+        <v>9749.144700000001</v>
       </c>
       <c r="G133" t="n">
-        <v>153454.019807173</v>
+        <v>171658.148807173</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="C134" t="n">
-        <v>48.5</v>
+        <v>49.6</v>
       </c>
       <c r="D134" t="n">
-        <v>48.5</v>
+        <v>49.6</v>
       </c>
       <c r="E134" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="F134" t="n">
-        <v>9021.839400000001</v>
+        <v>5652</v>
       </c>
       <c r="G134" t="n">
-        <v>153454.019807173</v>
+        <v>177310.148807173</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C135" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="D135" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="E135" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="F135" t="n">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G135" t="n">
-        <v>153465.019807173</v>
+        <v>177310.148807173</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5555,75 +5653,69 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C136" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D136" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E136" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="F136" t="n">
-        <v>6943.1207</v>
+        <v>1900</v>
       </c>
       <c r="G136" t="n">
-        <v>160408.140507173</v>
+        <v>177310.148807173</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C137" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D137" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="E137" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F137" t="n">
-        <v>4937.0478</v>
+        <v>447.4079</v>
       </c>
       <c r="G137" t="n">
-        <v>165345.188307173</v>
+        <v>177310.148807173</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5633,14 +5725,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5650,58 +5739,55 @@
         <v>49.6</v>
       </c>
       <c r="C138" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="D138" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E138" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F138" t="n">
-        <v>8345.9522</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>165345.188307173</v>
+        <v>177310.148807173</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C139" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="D139" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="E139" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F139" t="n">
-        <v>793.3421</v>
+        <v>266.1145</v>
       </c>
       <c r="G139" t="n">
-        <v>164551.846207173</v>
+        <v>177576.263307173</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5711,75 +5797,69 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="C140" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="D140" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="E140" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="F140" t="n">
-        <v>894.8159000000001</v>
+        <v>25000</v>
       </c>
       <c r="G140" t="n">
-        <v>164551.846207173</v>
+        <v>152576.263307173</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="C141" t="n">
-        <v>49.9</v>
+        <v>48.5</v>
       </c>
       <c r="D141" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="E141" t="n">
-        <v>49.9</v>
+        <v>48.5</v>
       </c>
       <c r="F141" t="n">
-        <v>1455.2242</v>
+        <v>5053.9927</v>
       </c>
       <c r="G141" t="n">
-        <v>166007.070407173</v>
+        <v>147522.270607173</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5789,36 +5869,33 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="C142" t="n">
         <v>48.9</v>
       </c>
       <c r="D142" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="E142" t="n">
         <v>48.9</v>
       </c>
       <c r="F142" t="n">
-        <v>1073.6413</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>164933.429107173</v>
+        <v>148522.270607173</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5828,36 +5905,33 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="C143" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="D143" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="E143" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="F143" t="n">
-        <v>1319.2072</v>
+        <v>900</v>
       </c>
       <c r="G143" t="n">
-        <v>166252.636307173</v>
+        <v>149422.270607173</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5867,21 +5941,18 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="C144" t="n">
         <v>49.9</v>
@@ -5890,13 +5961,13 @@
         <v>49.9</v>
       </c>
       <c r="E144" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F144" t="n">
-        <v>3000</v>
+        <v>5267.2498</v>
       </c>
       <c r="G144" t="n">
-        <v>166252.636307173</v>
+        <v>154689.520407173</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5906,36 +5977,33 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>50</v>
+        <v>49.3</v>
       </c>
       <c r="C145" t="n">
-        <v>50</v>
+        <v>49.3</v>
       </c>
       <c r="D145" t="n">
-        <v>50</v>
+        <v>49.3</v>
       </c>
       <c r="E145" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F145" t="n">
-        <v>15661.8751</v>
+        <v>18</v>
       </c>
       <c r="G145" t="n">
-        <v>181914.511407173</v>
+        <v>154671.520407173</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5945,75 +6013,69 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="C146" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D146" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E146" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G146" t="n">
-        <v>181814.511407173</v>
+        <v>154693.520407173</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C147" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="D147" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E147" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F147" t="n">
-        <v>844.0572</v>
+        <v>447.408</v>
       </c>
       <c r="G147" t="n">
-        <v>181814.511407173</v>
+        <v>154246.112407173</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6023,75 +6085,69 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="C148" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="D148" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="E148" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F148" t="n">
-        <v>759.8619</v>
+        <v>2000</v>
       </c>
       <c r="G148" t="n">
-        <v>181814.511407173</v>
+        <v>154246.112407173</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C149" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="D149" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E149" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F149" t="n">
-        <v>100</v>
+        <v>136.5265</v>
       </c>
       <c r="G149" t="n">
-        <v>181714.511407173</v>
+        <v>154382.638907173</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6101,36 +6157,33 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="C150" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D150" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E150" t="n">
-        <v>48.7</v>
+        <v>49.6</v>
       </c>
       <c r="F150" t="n">
-        <v>17335.9909</v>
+        <v>129.9787</v>
       </c>
       <c r="G150" t="n">
-        <v>181714.511407173</v>
+        <v>154252.660207173</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6140,36 +6193,33 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>49.8</v>
+        <v>48.9</v>
       </c>
       <c r="C151" t="n">
-        <v>49.8</v>
+        <v>48</v>
       </c>
       <c r="D151" t="n">
-        <v>49.8</v>
+        <v>48.9</v>
       </c>
       <c r="E151" t="n">
-        <v>49.8</v>
+        <v>48</v>
       </c>
       <c r="F151" t="n">
-        <v>742.1754</v>
+        <v>17493.4956</v>
       </c>
       <c r="G151" t="n">
-        <v>181714.511407173</v>
+        <v>136759.164607173</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6179,36 +6229,33 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>49.7</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="D152" t="n">
-        <v>49.7</v>
+        <v>48</v>
       </c>
       <c r="E152" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="F152" t="n">
-        <v>904.9109</v>
+        <v>4000</v>
       </c>
       <c r="G152" t="n">
-        <v>180809.600507173</v>
+        <v>132759.164607173</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6218,36 +6265,33 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="C153" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="D153" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="E153" t="n">
-        <v>49.7</v>
+        <v>48.7</v>
       </c>
       <c r="F153" t="n">
-        <v>503.212</v>
+        <v>1257.9675</v>
       </c>
       <c r="G153" t="n">
-        <v>180809.600507173</v>
+        <v>134017.132107173</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6257,36 +6301,33 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>49.6</v>
+        <v>48.7</v>
       </c>
       <c r="C154" t="n">
-        <v>49.6</v>
+        <v>48.7</v>
       </c>
       <c r="D154" t="n">
-        <v>49.6</v>
+        <v>48.7</v>
       </c>
       <c r="E154" t="n">
-        <v>49.6</v>
+        <v>48.7</v>
       </c>
       <c r="F154" t="n">
-        <v>17652.7113</v>
+        <v>14</v>
       </c>
       <c r="G154" t="n">
-        <v>163156.8892071731</v>
+        <v>134017.132107173</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6296,36 +6337,33 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="C155" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="D155" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="E155" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="F155" t="n">
-        <v>82</v>
+        <v>742.1754</v>
       </c>
       <c r="G155" t="n">
-        <v>163074.8892071731</v>
+        <v>133274.956707173</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6335,36 +6373,33 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>49.2</v>
+        <v>48.3</v>
       </c>
       <c r="C156" t="n">
-        <v>49.2</v>
+        <v>48.3</v>
       </c>
       <c r="D156" t="n">
-        <v>49.2</v>
+        <v>48.3</v>
       </c>
       <c r="E156" t="n">
-        <v>49.2</v>
+        <v>48.3</v>
       </c>
       <c r="F156" t="n">
-        <v>2023.9029</v>
+        <v>1476.1303</v>
       </c>
       <c r="G156" t="n">
-        <v>163074.8892071731</v>
+        <v>134751.087007173</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6374,36 +6409,33 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="C157" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="D157" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="E157" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="F157" t="n">
-        <v>800</v>
+        <v>1046.2846</v>
       </c>
       <c r="G157" t="n">
-        <v>163874.8892071731</v>
+        <v>134751.087007173</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6413,36 +6445,33 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="C158" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="D158" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="E158" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="F158" t="n">
-        <v>1169.1713</v>
+        <v>52.489</v>
       </c>
       <c r="G158" t="n">
-        <v>163874.8892071731</v>
+        <v>134751.087007173</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6452,36 +6481,33 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>49.4</v>
+        <v>48.3</v>
       </c>
       <c r="C159" t="n">
-        <v>49.8</v>
+        <v>48.3</v>
       </c>
       <c r="D159" t="n">
-        <v>49.8</v>
+        <v>48.3</v>
       </c>
       <c r="E159" t="n">
-        <v>49.4</v>
+        <v>48.3</v>
       </c>
       <c r="F159" t="n">
-        <v>4842.8952</v>
+        <v>5174.3933</v>
       </c>
       <c r="G159" t="n">
-        <v>168717.7844071731</v>
+        <v>134751.087007173</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6491,36 +6517,33 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>49.8</v>
+        <v>48.2</v>
       </c>
       <c r="C160" t="n">
-        <v>50.4</v>
+        <v>47.1</v>
       </c>
       <c r="D160" t="n">
-        <v>50.4</v>
+        <v>48.2</v>
       </c>
       <c r="E160" t="n">
-        <v>49.8</v>
+        <v>47.1</v>
       </c>
       <c r="F160" t="n">
-        <v>13555.4786</v>
+        <v>6000</v>
       </c>
       <c r="G160" t="n">
-        <v>182273.2630071731</v>
+        <v>128751.087007173</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6530,36 +6553,33 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="C161" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="D161" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="E161" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="F161" t="n">
-        <v>90.6262</v>
+        <v>1249.6458</v>
       </c>
       <c r="G161" t="n">
-        <v>182273.2630071731</v>
+        <v>130000.732807173</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6569,36 +6589,33 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="C162" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="D162" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="E162" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="F162" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G162" t="n">
-        <v>182273.2630071731</v>
+        <v>130000.732807173</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6608,36 +6625,33 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="C163" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="D163" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="E163" t="n">
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="F163" t="n">
-        <v>4792.3496</v>
+        <v>1745</v>
       </c>
       <c r="G163" t="n">
-        <v>182273.2630071731</v>
+        <v>130000.732807173</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6647,36 +6661,33 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C164" t="n">
-        <v>50.8</v>
+        <v>48</v>
       </c>
       <c r="D164" t="n">
-        <v>50.8</v>
+        <v>48</v>
       </c>
       <c r="E164" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="F164" t="n">
-        <v>1409.555</v>
+        <v>2208</v>
       </c>
       <c r="G164" t="n">
-        <v>183682.818007173</v>
+        <v>130000.732807173</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6686,36 +6697,33 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="C165" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="D165" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="E165" t="n">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="F165" t="n">
-        <v>503.4447</v>
+        <v>59211.5777</v>
       </c>
       <c r="G165" t="n">
-        <v>183179.3733071731</v>
+        <v>189212.310507173</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6725,73 +6733,69 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="C166" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="D166" t="n">
-        <v>50.3</v>
+        <v>49.9</v>
       </c>
       <c r="E166" t="n">
-        <v>50.2</v>
+        <v>49</v>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>145066.2801</v>
       </c>
       <c r="G166" t="n">
-        <v>182979.3733071731</v>
+        <v>334278.590607173</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="C167" t="n">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="D167" t="n">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="E167" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>72508.5998</v>
       </c>
       <c r="G167" t="n">
-        <v>182879.3733071731</v>
+        <v>406787.190407173</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6805,28 +6809,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="C168" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="E168" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F168" t="n">
-        <v>6300</v>
+        <v>998.5</v>
       </c>
       <c r="G168" t="n">
-        <v>176579.3733071731</v>
+        <v>405788.690407173</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6840,28 +6845,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>49.8</v>
+        <v>50.4</v>
       </c>
       <c r="C169" t="n">
-        <v>49.1</v>
+        <v>50.4</v>
       </c>
       <c r="D169" t="n">
-        <v>49.8</v>
+        <v>50.4</v>
       </c>
       <c r="E169" t="n">
-        <v>49.1</v>
+        <v>50.4</v>
       </c>
       <c r="F169" t="n">
-        <v>2420.2245</v>
+        <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>174159.148807173</v>
+        <v>405799.690407173</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6875,1476 +6881,7 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3427.8212</v>
-      </c>
-      <c r="G170" t="n">
-        <v>174159.148807173</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>49</v>
-      </c>
-      <c r="C171" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1372.1788</v>
-      </c>
-      <c r="G171" t="n">
-        <v>174159.148807173</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D172" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F172" t="n">
-        <v>496</v>
-      </c>
-      <c r="G172" t="n">
-        <v>174655.148807173</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D173" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2997</v>
-      </c>
-      <c r="G173" t="n">
-        <v>171658.148807173</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C174" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>19142.9134</v>
-      </c>
-      <c r="G174" t="n">
-        <v>171658.148807173</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C175" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>9749.144700000001</v>
-      </c>
-      <c r="G175" t="n">
-        <v>171658.148807173</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C176" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>5652</v>
-      </c>
-      <c r="G176" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C177" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F177" t="n">
-        <v>83</v>
-      </c>
-      <c r="G177" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C178" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G178" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C179" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D179" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E179" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F179" t="n">
-        <v>447.4079</v>
-      </c>
-      <c r="G179" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C180" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D180" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F180" t="n">
-        <v>100</v>
-      </c>
-      <c r="G180" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>266.1145</v>
-      </c>
-      <c r="G181" t="n">
-        <v>177576.263307173</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>49</v>
-      </c>
-      <c r="D182" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>49</v>
-      </c>
-      <c r="F182" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G182" t="n">
-        <v>152576.263307173</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>49</v>
-      </c>
-      <c r="C183" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>49</v>
-      </c>
-      <c r="E183" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>5053.9927</v>
-      </c>
-      <c r="G183" t="n">
-        <v>147522.270607173</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C184" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G184" t="n">
-        <v>148522.270607173</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>49</v>
-      </c>
-      <c r="C185" t="n">
-        <v>49</v>
-      </c>
-      <c r="D185" t="n">
-        <v>49</v>
-      </c>
-      <c r="E185" t="n">
-        <v>49</v>
-      </c>
-      <c r="F185" t="n">
-        <v>900</v>
-      </c>
-      <c r="G185" t="n">
-        <v>149422.270607173</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C186" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5267.2498</v>
-      </c>
-      <c r="G186" t="n">
-        <v>154689.520407173</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D187" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="F187" t="n">
-        <v>18</v>
-      </c>
-      <c r="G187" t="n">
-        <v>154671.520407173</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C188" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>22</v>
-      </c>
-      <c r="G188" t="n">
-        <v>154693.520407173</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C189" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D189" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>447.408</v>
-      </c>
-      <c r="G189" t="n">
-        <v>154246.112407173</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C190" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D190" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E190" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G190" t="n">
-        <v>154246.112407173</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D191" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E191" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F191" t="n">
-        <v>136.5265</v>
-      </c>
-      <c r="G191" t="n">
-        <v>154382.638907173</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C192" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="E192" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="F192" t="n">
-        <v>129.9787</v>
-      </c>
-      <c r="G192" t="n">
-        <v>154252.660207173</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>48</v>
-      </c>
-      <c r="D193" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E193" t="n">
-        <v>48</v>
-      </c>
-      <c r="F193" t="n">
-        <v>17493.4956</v>
-      </c>
-      <c r="G193" t="n">
-        <v>136759.164607173</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>48</v>
-      </c>
-      <c r="C194" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>48</v>
-      </c>
-      <c r="E194" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G194" t="n">
-        <v>132759.164607173</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1257.9675</v>
-      </c>
-      <c r="G195" t="n">
-        <v>134017.132107173</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>14</v>
-      </c>
-      <c r="G196" t="n">
-        <v>134017.132107173</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F197" t="n">
-        <v>742.1754</v>
-      </c>
-      <c r="G197" t="n">
-        <v>133274.956707173</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C198" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D198" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E198" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1476.1303</v>
-      </c>
-      <c r="G198" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D199" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E199" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1046.2846</v>
-      </c>
-      <c r="G199" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D200" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>52.489</v>
-      </c>
-      <c r="G200" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C201" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D201" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E201" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F201" t="n">
-        <v>5174.3933</v>
-      </c>
-      <c r="G201" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E202" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>128751.087007173</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>48</v>
-      </c>
-      <c r="C203" t="n">
-        <v>48</v>
-      </c>
-      <c r="D203" t="n">
-        <v>48</v>
-      </c>
-      <c r="E203" t="n">
-        <v>48</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1249.6458</v>
-      </c>
-      <c r="G203" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>48</v>
-      </c>
-      <c r="C204" t="n">
-        <v>48</v>
-      </c>
-      <c r="D204" t="n">
-        <v>48</v>
-      </c>
-      <c r="E204" t="n">
-        <v>48</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G204" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>48</v>
-      </c>
-      <c r="C205" t="n">
-        <v>48</v>
-      </c>
-      <c r="D205" t="n">
-        <v>48</v>
-      </c>
-      <c r="E205" t="n">
-        <v>48</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1745</v>
-      </c>
-      <c r="G205" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>48</v>
-      </c>
-      <c r="C206" t="n">
-        <v>48</v>
-      </c>
-      <c r="D206" t="n">
-        <v>48</v>
-      </c>
-      <c r="E206" t="n">
-        <v>48</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2208</v>
-      </c>
-      <c r="G206" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>48</v>
-      </c>
-      <c r="C207" t="n">
-        <v>49</v>
-      </c>
-      <c r="D207" t="n">
-        <v>49</v>
-      </c>
-      <c r="E207" t="n">
-        <v>48</v>
-      </c>
-      <c r="F207" t="n">
-        <v>59211.5777</v>
-      </c>
-      <c r="G207" t="n">
-        <v>189212.310507173</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>49</v>
-      </c>
-      <c r="C208" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D208" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E208" t="n">
-        <v>49</v>
-      </c>
-      <c r="F208" t="n">
-        <v>145066.2801</v>
-      </c>
-      <c r="G208" t="n">
-        <v>334278.590607173</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C209" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D209" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E209" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F209" t="n">
-        <v>72508.5998</v>
-      </c>
-      <c r="G209" t="n">
-        <v>406787.190407173</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C210" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D210" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E210" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F210" t="n">
-        <v>998.5</v>
-      </c>
-      <c r="G210" t="n">
-        <v>405788.690407173</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C211" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D211" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E211" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>11</v>
-      </c>
-      <c r="G211" t="n">
-        <v>405799.690407173</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
+      <c r="N169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.9</v>
+        <v>47.3</v>
       </c>
       <c r="C2" t="n">
-        <v>49.9</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>49.9</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>49.9</v>
+        <v>47.3</v>
       </c>
       <c r="F2" t="n">
-        <v>10.5799</v>
+        <v>16365.5311</v>
       </c>
       <c r="G2" t="n">
-        <v>145398.487307173</v>
+        <v>-35876.2425464135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.6</v>
+        <v>46.8</v>
       </c>
       <c r="C3" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="D3" t="n">
-        <v>50.1</v>
+        <v>46.8</v>
       </c>
       <c r="E3" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="F3" t="n">
-        <v>9102.762500000001</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>136295.724807173</v>
+        <v>-35887.2425464135</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.3</v>
+        <v>46.9</v>
       </c>
       <c r="C4" t="n">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
       <c r="D4" t="n">
-        <v>49.3</v>
+        <v>47.2</v>
       </c>
       <c r="E4" t="n">
-        <v>48.4</v>
+        <v>46.9</v>
       </c>
       <c r="F4" t="n">
-        <v>9917.6854</v>
+        <v>4500</v>
       </c>
       <c r="G4" t="n">
-        <v>126378.039407173</v>
+        <v>-31387.2425464135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="F5" t="n">
-        <v>6250</v>
+        <v>66</v>
       </c>
       <c r="G5" t="n">
-        <v>132628.039407173</v>
+        <v>-31387.2425464135</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>46.9</v>
       </c>
       <c r="C6" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="D6" t="n">
-        <v>50.2</v>
+        <v>46.9</v>
       </c>
       <c r="E6" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="F6" t="n">
-        <v>47746.4164</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>84881.623007173</v>
+        <v>-31398.2425464135</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48.3</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="D7" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="E7" t="n">
-        <v>48.3</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>14005.5563</v>
       </c>
       <c r="G7" t="n">
-        <v>84892.623007173</v>
+        <v>-17392.6862464135</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48.2</v>
+        <v>47.3</v>
       </c>
       <c r="C8" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="D8" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="E8" t="n">
-        <v>48.2</v>
+        <v>47.3</v>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>3941</v>
       </c>
       <c r="G8" t="n">
-        <v>81892.623007173</v>
+        <v>-17392.6862464135</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C9" t="n">
-        <v>48.8</v>
+        <v>47.7</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8</v>
+        <v>47.7</v>
       </c>
       <c r="E9" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="F9" t="n">
-        <v>22231</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>104123.623007173</v>
+        <v>-17392.6862464135</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
       <c r="C10" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="D10" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E10" t="n">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
       <c r="F10" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>104234.623007173</v>
+        <v>-17348.6862464135</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.2</v>
+        <v>47.8</v>
       </c>
       <c r="C11" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E11" t="n">
-        <v>49.2</v>
+        <v>47.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5116.8509</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>104234.623007173</v>
+        <v>-17348.6862464135</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="C12" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="E12" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="F12" t="n">
-        <v>20819.6684</v>
+        <v>5399.3547</v>
       </c>
       <c r="G12" t="n">
-        <v>125054.291407173</v>
+        <v>-22748.0409464135</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="C13" t="n">
-        <v>48.6</v>
+        <v>47.5</v>
       </c>
       <c r="D13" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="E13" t="n">
-        <v>48.6</v>
+        <v>47.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3712.7859</v>
+        <v>854</v>
       </c>
       <c r="G13" t="n">
-        <v>121341.505507173</v>
+        <v>-23602.0409464135</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,31 +870,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="C14" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="D14" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="E14" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>1741.6652</v>
       </c>
       <c r="G14" t="n">
-        <v>121329.505507173</v>
+        <v>-23602.0409464135</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>47.5</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -906,32 +910,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="D15" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="E15" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="F15" t="n">
-        <v>11.8334</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>121341.338907173</v>
+        <v>-23602.0409464135</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +954,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="C16" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="D16" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="E16" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="F16" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>121269.338907173</v>
+        <v>-23602.0409464135</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +998,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C17" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="D17" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="E17" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="F17" t="n">
-        <v>19230.0765</v>
+        <v>4820.3348</v>
       </c>
       <c r="G17" t="n">
-        <v>102039.262407173</v>
+        <v>-28422.3757464135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1042,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>48.2</v>
+        <v>47.3</v>
       </c>
       <c r="C18" t="n">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>48.5</v>
+        <v>47.3</v>
       </c>
       <c r="E18" t="n">
-        <v>48.1</v>
+        <v>47</v>
       </c>
       <c r="F18" t="n">
-        <v>36046.2578</v>
+        <v>9094.4185</v>
       </c>
       <c r="G18" t="n">
-        <v>138085.520207173</v>
+        <v>-37516.7942464135</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1066,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1084,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="C19" t="n">
-        <v>48.6</v>
+        <v>46.9</v>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>46.9</v>
       </c>
       <c r="E19" t="n">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="F19" t="n">
-        <v>26230.6578</v>
+        <v>1156</v>
       </c>
       <c r="G19" t="n">
-        <v>164316.178007173</v>
+        <v>-38672.7942464135</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1108,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1126,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.8</v>
+        <v>46.8</v>
       </c>
       <c r="C20" t="n">
-        <v>47.9</v>
+        <v>46.8</v>
       </c>
       <c r="D20" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="E20" t="n">
-        <v>47.9</v>
+        <v>46.8</v>
       </c>
       <c r="F20" t="n">
-        <v>10101.3863</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>154214.791707173</v>
+        <v>-38691.7942464135</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1168,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="C21" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="D21" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="E21" t="n">
-        <v>49.1</v>
+        <v>46.8</v>
       </c>
       <c r="F21" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="G21" t="n">
-        <v>154614.791707173</v>
+        <v>-38691.7942464135</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1212,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.7</v>
+        <v>46.7</v>
       </c>
       <c r="C22" t="n">
-        <v>49.7</v>
+        <v>46.7</v>
       </c>
       <c r="D22" t="n">
-        <v>49.7</v>
+        <v>46.8</v>
       </c>
       <c r="E22" t="n">
-        <v>49.7</v>
+        <v>46.7</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>9238.058800000001</v>
       </c>
       <c r="G22" t="n">
-        <v>154625.791707173</v>
+        <v>-47929.8530464135</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1256,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.6</v>
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>49.5</v>
+        <v>48.7</v>
       </c>
       <c r="D23" t="n">
-        <v>49.6</v>
+        <v>48.7</v>
       </c>
       <c r="E23" t="n">
-        <v>49.5</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>87441.9373535865</v>
       </c>
       <c r="G23" t="n">
-        <v>154603.791707173</v>
+        <v>39512.08430717301</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1300,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C24" t="n">
         <v>49.4</v>
       </c>
-      <c r="C24" t="n">
-        <v>48.1</v>
-      </c>
       <c r="D24" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E24" t="n">
-        <v>48.1</v>
+        <v>48.6</v>
       </c>
       <c r="F24" t="n">
-        <v>1681</v>
+        <v>8375.421899999999</v>
       </c>
       <c r="G24" t="n">
-        <v>152922.791707173</v>
+        <v>47887.50620717301</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1324,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1342,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C25" t="n">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>49.3</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F25" t="n">
-        <v>1111</v>
+        <v>2972.2758</v>
       </c>
       <c r="G25" t="n">
-        <v>154033.791707173</v>
+        <v>50859.78200717301</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1366,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1384,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>18899.4169</v>
       </c>
       <c r="G26" t="n">
-        <v>153933.791707173</v>
+        <v>50859.78200717301</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1408,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1426,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>44.4444</v>
+        <v>2789.5074</v>
       </c>
       <c r="G27" t="n">
-        <v>153933.791707173</v>
+        <v>50859.78200717301</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1450,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1468,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.2</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>49.2</v>
+        <v>50.3</v>
       </c>
       <c r="D28" t="n">
-        <v>49.2</v>
+        <v>50.3</v>
       </c>
       <c r="E28" t="n">
-        <v>49.2</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>4033.8157</v>
+        <v>1226.0556</v>
       </c>
       <c r="G28" t="n">
-        <v>157967.607407173</v>
+        <v>52085.83760717301</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1492,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1510,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="C29" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="D29" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E29" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="F29" t="n">
-        <v>19913.2477</v>
+        <v>9565.3577</v>
       </c>
       <c r="G29" t="n">
-        <v>177880.855107173</v>
+        <v>42520.47990717301</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1534,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1552,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="C30" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="D30" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="E30" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="F30" t="n">
-        <v>243.5699</v>
+        <v>7940.6215</v>
       </c>
       <c r="G30" t="n">
-        <v>177637.285207173</v>
+        <v>50461.10140717301</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1576,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1594,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="C31" t="n">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="D31" t="n">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="E31" t="n">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="F31" t="n">
-        <v>7597</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>170040.285207173</v>
+        <v>50448.10140717301</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1636,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>47.6</v>
+        <v>48.3</v>
       </c>
       <c r="C32" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="D32" t="n">
-        <v>47.6</v>
+        <v>48.3</v>
       </c>
       <c r="E32" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="F32" t="n">
-        <v>6907.291</v>
+        <v>2789.5074</v>
       </c>
       <c r="G32" t="n">
-        <v>163132.994207173</v>
+        <v>47658.59400717301</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1660,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1678,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="C33" t="n">
-        <v>47.7</v>
+        <v>49.3</v>
       </c>
       <c r="D33" t="n">
-        <v>47.7</v>
+        <v>49.3</v>
       </c>
       <c r="E33" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G33" t="n">
-        <v>163154.994207173</v>
+        <v>47704.59400717301</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1720,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="C34" t="n">
-        <v>47.8</v>
+        <v>49.5</v>
       </c>
       <c r="D34" t="n">
-        <v>47.8</v>
+        <v>49.5</v>
       </c>
       <c r="E34" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="F34" t="n">
-        <v>22</v>
+        <v>499</v>
       </c>
       <c r="G34" t="n">
-        <v>163176.994207173</v>
+        <v>48203.59400717301</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1744,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1762,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47.8</v>
+        <v>49.5</v>
       </c>
       <c r="C35" t="n">
-        <v>47.4</v>
+        <v>49.6</v>
       </c>
       <c r="D35" t="n">
-        <v>47.8</v>
+        <v>49.6</v>
       </c>
       <c r="E35" t="n">
-        <v>47.4</v>
+        <v>49.5</v>
       </c>
       <c r="F35" t="n">
-        <v>6178</v>
+        <v>450</v>
       </c>
       <c r="G35" t="n">
-        <v>156998.994207173</v>
+        <v>48653.59400717301</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1786,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1804,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>47.4</v>
+        <v>49.3</v>
       </c>
       <c r="C36" t="n">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="D36" t="n">
-        <v>47.4</v>
+        <v>49.3</v>
       </c>
       <c r="E36" t="n">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>461.0043</v>
       </c>
       <c r="G36" t="n">
-        <v>156998.994207173</v>
+        <v>48192.58970717301</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1828,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1846,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>47.1</v>
+        <v>49</v>
       </c>
       <c r="C37" t="n">
-        <v>47.3</v>
+        <v>49</v>
       </c>
       <c r="D37" t="n">
-        <v>47.3</v>
+        <v>49.2</v>
       </c>
       <c r="E37" t="n">
-        <v>47.1</v>
+        <v>49</v>
       </c>
       <c r="F37" t="n">
-        <v>33</v>
+        <v>55532.1135</v>
       </c>
       <c r="G37" t="n">
-        <v>156965.994207173</v>
+        <v>48192.58970717301</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1888,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="C38" t="n">
-        <v>47.1</v>
+        <v>48.2</v>
       </c>
       <c r="D38" t="n">
-        <v>47.6</v>
+        <v>48.7</v>
       </c>
       <c r="E38" t="n">
-        <v>47.1</v>
+        <v>48.2</v>
       </c>
       <c r="F38" t="n">
-        <v>89</v>
+        <v>14120.2001</v>
       </c>
       <c r="G38" t="n">
-        <v>156876.994207173</v>
+        <v>34072.38960717301</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1912,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1930,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="C39" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="E39" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>966.6182</v>
       </c>
       <c r="G39" t="n">
-        <v>156887.994207173</v>
+        <v>33105.77140717301</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,36 +1972,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="C40" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="D40" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="E40" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>757.3233</v>
       </c>
       <c r="G40" t="n">
-        <v>156898.994207173</v>
+        <v>32348.44810717301</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>47.2</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>47.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1846,38 +2014,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="C41" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
       <c r="D41" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="E41" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>17391.0737</v>
       </c>
       <c r="G41" t="n">
-        <v>156909.994207173</v>
+        <v>14957.37440717301</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>47.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1890,10 +2056,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C42" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="D42" t="n">
         <v>47.6</v>
@@ -1902,26 +2068,24 @@
         <v>47.5</v>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>1582.5472</v>
       </c>
       <c r="G42" t="n">
-        <v>156931.994207173</v>
+        <v>13374.82720717301</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>47.4</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1934,36 +2098,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="C43" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="D43" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="E43" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="F43" t="n">
-        <v>18</v>
+        <v>17380.4605</v>
       </c>
       <c r="G43" t="n">
-        <v>156931.994207173</v>
+        <v>-4005.633292826995</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>47.6</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>47.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1974,22 +2140,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="C44" t="n">
-        <v>47.4</v>
+        <v>47.7</v>
       </c>
       <c r="D44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="E44" t="n">
-        <v>47.4</v>
+        <v>46.9</v>
       </c>
       <c r="F44" t="n">
-        <v>5582.0273</v>
+        <v>10334.7624</v>
       </c>
       <c r="G44" t="n">
-        <v>151349.966907173</v>
+        <v>6329.129107173005</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1999,11 +2165,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2016,7 +2182,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C45" t="n">
         <v>47.7</v>
@@ -2025,13 +2191,13 @@
         <v>47.7</v>
       </c>
       <c r="E45" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F45" t="n">
-        <v>5592.3639</v>
+        <v>5096.3046</v>
       </c>
       <c r="G45" t="n">
-        <v>156942.330807173</v>
+        <v>6329.129107173005</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2041,7 +2207,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2061,19 +2227,19 @@
         <v>47.8</v>
       </c>
       <c r="C46" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="D46" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E46" t="n">
         <v>47.8</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>156953.330807173</v>
+        <v>6371.129107173005</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2083,7 +2249,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2100,22 +2266,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C47" t="n">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="D47" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E47" t="n">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="F47" t="n">
-        <v>126</v>
+        <v>5054.9453</v>
       </c>
       <c r="G47" t="n">
-        <v>156827.330807173</v>
+        <v>1316.183807173004</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2125,7 +2291,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2142,22 +2308,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>47.2</v>
+        <v>46.9</v>
       </c>
       <c r="C48" t="n">
-        <v>48.1</v>
+        <v>46.9</v>
       </c>
       <c r="D48" t="n">
-        <v>48.1</v>
+        <v>46.9</v>
       </c>
       <c r="E48" t="n">
-        <v>47.2</v>
+        <v>46.9</v>
       </c>
       <c r="F48" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>156938.330807173</v>
+        <v>1327.183807173004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2167,7 +2333,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2184,22 +2350,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47.7</v>
+        <v>46.9</v>
       </c>
       <c r="C49" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="D49" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="E49" t="n">
-        <v>47.7</v>
+        <v>46.9</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G49" t="n">
-        <v>156927.330807173</v>
+        <v>1470.183807173004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2209,7 +2375,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2226,22 +2392,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C50" t="n">
-        <v>47.1</v>
+        <v>47.6</v>
       </c>
       <c r="D50" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="E50" t="n">
-        <v>47.1</v>
+        <v>47.6</v>
       </c>
       <c r="F50" t="n">
-        <v>488</v>
+        <v>10.585</v>
       </c>
       <c r="G50" t="n">
-        <v>156439.330807173</v>
+        <v>1480.768807173004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2251,7 +2417,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2268,22 +2434,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C51" t="n">
         <v>47</v>
       </c>
-      <c r="C51" t="n">
-        <v>46.8</v>
-      </c>
       <c r="D51" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E51" t="n">
         <v>47</v>
       </c>
-      <c r="E51" t="n">
-        <v>46.8</v>
-      </c>
       <c r="F51" t="n">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="G51" t="n">
-        <v>156406.330807173</v>
+        <v>1360.768807173004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2293,7 +2459,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2310,22 +2476,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>46.9</v>
+        <v>47.8</v>
       </c>
       <c r="C52" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="D52" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="E52" t="n">
-        <v>46.9</v>
+        <v>47.8</v>
       </c>
       <c r="F52" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>156483.330807173</v>
+        <v>1371.768807173004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2335,7 +2501,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2352,22 +2518,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="C53" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="D53" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="E53" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="F53" t="n">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>156143.330807173</v>
+        <v>1360.768807173004</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2377,7 +2543,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2394,22 +2560,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="C54" t="n">
-        <v>47.1</v>
+        <v>47.8</v>
       </c>
       <c r="D54" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E54" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F54" t="n">
-        <v>532.7226000000001</v>
+        <v>97.4688</v>
       </c>
       <c r="G54" t="n">
-        <v>156676.053407173</v>
+        <v>1458.237607173005</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2419,7 +2585,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2436,22 +2602,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="C55" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="D55" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="E55" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="F55" t="n">
-        <v>54</v>
+        <v>25562.346</v>
       </c>
       <c r="G55" t="n">
-        <v>156730.053407173</v>
+        <v>-24104.108392827</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2461,7 +2627,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2478,22 +2644,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="C56" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D56" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="E56" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3419</v>
+        <v>2888</v>
       </c>
       <c r="G56" t="n">
-        <v>160149.053407173</v>
+        <v>-21216.108392827</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2503,7 +2669,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2520,22 +2686,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C57" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="E57" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F57" t="n">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>161049.053407173</v>
+        <v>-21205.108392827</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2545,7 +2711,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2562,32 +2728,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="C58" t="n">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="D58" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="E58" t="n">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="F58" t="n">
-        <v>121</v>
+        <v>2065.39</v>
       </c>
       <c r="G58" t="n">
-        <v>160928.053407173</v>
+        <v>-19139.718392827</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>47.7</v>
+      </c>
       <c r="K58" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2604,22 +2772,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C59" t="n">
         <v>48</v>
       </c>
-      <c r="C59" t="n">
-        <v>49.6</v>
-      </c>
       <c r="D59" t="n">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="E59" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F59" t="n">
-        <v>51435.137</v>
+        <v>21.9563</v>
       </c>
       <c r="G59" t="n">
-        <v>212363.190407173</v>
+        <v>-19117.762092827</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2629,7 +2797,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2646,22 +2814,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C60" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="D60" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E60" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F60" t="n">
-        <v>15</v>
+        <v>2530.0175</v>
       </c>
       <c r="G60" t="n">
-        <v>212348.190407173</v>
+        <v>-19117.762092827</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2671,7 +2839,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2688,22 +2856,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.1</v>
+        <v>48</v>
       </c>
       <c r="C61" t="n">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="D61" t="n">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="E61" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F61" t="n">
-        <v>2636.5135</v>
+        <v>1183</v>
       </c>
       <c r="G61" t="n">
-        <v>214984.703907173</v>
+        <v>-19117.762092827</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2713,7 +2881,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2730,22 +2898,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="C62" t="n">
-        <v>50</v>
+        <v>48.7</v>
       </c>
       <c r="D62" t="n">
-        <v>50</v>
+        <v>48.7</v>
       </c>
       <c r="E62" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="F62" t="n">
-        <v>4731.565</v>
+        <v>4674.2925</v>
       </c>
       <c r="G62" t="n">
-        <v>219716.268907173</v>
+        <v>-14443.469592827</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2755,7 +2923,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2772,22 +2940,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>49.5</v>
+        <v>48.8</v>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" t="n">
-        <v>49.5</v>
+        <v>48.4</v>
       </c>
       <c r="F63" t="n">
-        <v>818.6838</v>
+        <v>98313.56050000001</v>
       </c>
       <c r="G63" t="n">
-        <v>219716.268907173</v>
+        <v>83870.09090717301</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2797,7 +2965,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2814,22 +2982,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" t="n">
         <v>48.4</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>3363</v>
       </c>
       <c r="G64" t="n">
-        <v>219716.268907173</v>
+        <v>83870.09090717301</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2839,7 +3007,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2859,19 +3027,19 @@
         <v>49.1</v>
       </c>
       <c r="C65" t="n">
-        <v>47.2</v>
+        <v>49.3</v>
       </c>
       <c r="D65" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="E65" t="n">
-        <v>47.2</v>
+        <v>49.1</v>
       </c>
       <c r="F65" t="n">
-        <v>7604.5639</v>
+        <v>6537</v>
       </c>
       <c r="G65" t="n">
-        <v>212111.705007173</v>
+        <v>90407.09090717301</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2881,7 +3049,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2898,22 +3066,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48.4</v>
+        <v>49.4</v>
       </c>
       <c r="C66" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="D66" t="n">
-        <v>48.4</v>
+        <v>49.6</v>
       </c>
       <c r="E66" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>15184.5368</v>
       </c>
       <c r="G66" t="n">
-        <v>212122.705007173</v>
+        <v>75222.55410717301</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2923,7 +3091,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2940,22 +3108,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>48</v>
+        <v>49.6</v>
       </c>
       <c r="C67" t="n">
-        <v>48.3</v>
+        <v>49.2</v>
       </c>
       <c r="D67" t="n">
-        <v>48.3</v>
+        <v>49.6</v>
       </c>
       <c r="E67" t="n">
-        <v>48</v>
+        <v>49.2</v>
       </c>
       <c r="F67" t="n">
-        <v>44</v>
+        <v>29018.2855</v>
       </c>
       <c r="G67" t="n">
-        <v>212078.705007173</v>
+        <v>104240.839607173</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2965,7 +3133,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2982,22 +3150,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="C68" t="n">
-        <v>48.4</v>
+        <v>49.9</v>
       </c>
       <c r="D68" t="n">
-        <v>48.4</v>
+        <v>49.9</v>
       </c>
       <c r="E68" t="n">
-        <v>48.4</v>
+        <v>49.7</v>
       </c>
       <c r="F68" t="n">
-        <v>111</v>
+        <v>3814.6923</v>
       </c>
       <c r="G68" t="n">
-        <v>212189.705007173</v>
+        <v>108055.531907173</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3007,7 +3175,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3024,22 +3192,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>48.5</v>
+        <v>49.9</v>
       </c>
       <c r="C69" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="D69" t="n">
-        <v>49</v>
+        <v>49.9</v>
       </c>
       <c r="E69" t="n">
-        <v>48.5</v>
+        <v>49.4</v>
       </c>
       <c r="F69" t="n">
-        <v>2563.8881</v>
+        <v>6427.0905</v>
       </c>
       <c r="G69" t="n">
-        <v>214753.593107173</v>
+        <v>101628.441407173</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3049,7 +3217,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3066,22 +3234,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>48.9</v>
+        <v>49.8</v>
       </c>
       <c r="C70" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="D70" t="n">
-        <v>48.9</v>
+        <v>49.8</v>
       </c>
       <c r="E70" t="n">
-        <v>48.9</v>
+        <v>49.5</v>
       </c>
       <c r="F70" t="n">
-        <v>3733</v>
+        <v>21909.7908</v>
       </c>
       <c r="G70" t="n">
-        <v>211020.593107173</v>
+        <v>123538.232207173</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3091,7 +3259,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3108,22 +3276,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="C71" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E71" t="n">
         <v>49.3</v>
       </c>
-      <c r="D71" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E71" t="n">
-        <v>49</v>
-      </c>
       <c r="F71" t="n">
-        <v>1364.4001</v>
+        <v>21860.2551</v>
       </c>
       <c r="G71" t="n">
-        <v>212384.993207173</v>
+        <v>145398.487307173</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3133,7 +3301,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3150,22 +3318,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="C72" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="D72" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="E72" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>3.391</v>
       </c>
       <c r="G72" t="n">
-        <v>212395.993207173</v>
+        <v>145398.487307173</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3175,7 +3343,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3192,22 +3360,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="C73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="D73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E73" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="F73" t="n">
-        <v>3568</v>
+        <v>10.5799</v>
       </c>
       <c r="G73" t="n">
-        <v>208827.993207173</v>
+        <v>145398.487307173</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3217,7 +3385,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3234,22 +3402,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C74" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="D74" t="n">
-        <v>49.3</v>
+        <v>50.1</v>
       </c>
       <c r="E74" t="n">
-        <v>48.6</v>
+        <v>49.1</v>
       </c>
       <c r="F74" t="n">
-        <v>18944.4137</v>
+        <v>9102.762500000001</v>
       </c>
       <c r="G74" t="n">
-        <v>189883.579507173</v>
+        <v>136295.724807173</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3259,7 +3427,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3276,22 +3444,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>48.6</v>
+        <v>49.3</v>
       </c>
       <c r="C75" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="D75" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="E75" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="F75" t="n">
-        <v>51.9831</v>
+        <v>9917.6854</v>
       </c>
       <c r="G75" t="n">
-        <v>189831.596407173</v>
+        <v>126378.039407173</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3301,7 +3469,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3318,22 +3486,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C76" t="n">
         <v>49</v>
       </c>
       <c r="D76" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="E76" t="n">
-        <v>48.6</v>
+        <v>49</v>
       </c>
       <c r="F76" t="n">
-        <v>962.2654</v>
+        <v>6250</v>
       </c>
       <c r="G76" t="n">
-        <v>188869.331007173</v>
+        <v>132628.039407173</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3343,7 +3511,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3360,22 +3528,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="C77" t="n">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="D77" t="n">
-        <v>48.5</v>
+        <v>50.2</v>
       </c>
       <c r="E77" t="n">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="F77" t="n">
-        <v>11</v>
+        <v>47746.4164</v>
       </c>
       <c r="G77" t="n">
-        <v>188858.331007173</v>
+        <v>84881.623007173</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3385,7 +3553,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3402,22 +3570,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C78" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D78" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E78" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="F78" t="n">
-        <v>1423.4978</v>
+        <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>187434.833207173</v>
+        <v>84892.623007173</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3427,7 +3595,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3444,22 +3612,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C79" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="D79" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E79" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="F79" t="n">
-        <v>192.2148</v>
+        <v>3000</v>
       </c>
       <c r="G79" t="n">
-        <v>187242.618407173</v>
+        <v>81892.623007173</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3469,7 +3637,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3486,22 +3654,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="C80" t="n">
-        <v>47.7</v>
+        <v>48.8</v>
       </c>
       <c r="D80" t="n">
-        <v>47.8</v>
+        <v>48.8</v>
       </c>
       <c r="E80" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="F80" t="n">
-        <v>18128.2934</v>
+        <v>22231</v>
       </c>
       <c r="G80" t="n">
-        <v>169114.325007173</v>
+        <v>104123.623007173</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3511,7 +3679,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3528,22 +3696,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>47.6</v>
+        <v>48.9</v>
       </c>
       <c r="C81" t="n">
-        <v>47</v>
+        <v>49.8</v>
       </c>
       <c r="D81" t="n">
-        <v>47.6</v>
+        <v>49.8</v>
       </c>
       <c r="E81" t="n">
-        <v>47</v>
+        <v>48.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1465.4263</v>
+        <v>111</v>
       </c>
       <c r="G81" t="n">
-        <v>167648.898707173</v>
+        <v>104234.623007173</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3553,7 +3721,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3570,22 +3738,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>47</v>
+        <v>49.2</v>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>49.8</v>
       </c>
       <c r="D82" t="n">
-        <v>47</v>
+        <v>49.8</v>
       </c>
       <c r="E82" t="n">
-        <v>47</v>
+        <v>49.2</v>
       </c>
       <c r="F82" t="n">
-        <v>818.6838</v>
+        <v>5116.8509</v>
       </c>
       <c r="G82" t="n">
-        <v>167648.898707173</v>
+        <v>104234.623007173</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3595,7 +3763,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3612,22 +3780,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="C83" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="D83" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="E83" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="F83" t="n">
-        <v>2962.2797</v>
+        <v>20819.6684</v>
       </c>
       <c r="G83" t="n">
-        <v>170611.178407173</v>
+        <v>125054.291407173</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3637,7 +3805,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3654,22 +3822,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="C84" t="n">
-        <v>47.8</v>
+        <v>48.6</v>
       </c>
       <c r="D84" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="E84" t="n">
-        <v>47.8</v>
+        <v>48.6</v>
       </c>
       <c r="F84" t="n">
-        <v>16048.9489</v>
+        <v>3712.7859</v>
       </c>
       <c r="G84" t="n">
-        <v>170611.178407173</v>
+        <v>121341.505507173</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3679,7 +3847,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3699,19 +3867,19 @@
         <v>48.5</v>
       </c>
       <c r="C85" t="n">
-        <v>49.5</v>
+        <v>48.2</v>
       </c>
       <c r="D85" t="n">
-        <v>49.5</v>
+        <v>48.5</v>
       </c>
       <c r="E85" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="F85" t="n">
-        <v>4001</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>174612.178407173</v>
+        <v>121329.505507173</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3721,7 +3889,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3738,22 +3906,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C86" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="D86" t="n">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
       <c r="E86" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F86" t="n">
-        <v>304</v>
+        <v>11.8334</v>
       </c>
       <c r="G86" t="n">
-        <v>174612.178407173</v>
+        <v>121341.338907173</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3763,7 +3931,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3780,22 +3948,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C87" t="n">
         <v>48.2</v>
       </c>
-      <c r="C87" t="n">
-        <v>48.1</v>
-      </c>
       <c r="D87" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E87" t="n">
         <v>48.2</v>
       </c>
-      <c r="E87" t="n">
-        <v>48.1</v>
-      </c>
       <c r="F87" t="n">
-        <v>20353.9489</v>
+        <v>72</v>
       </c>
       <c r="G87" t="n">
-        <v>154258.229507173</v>
+        <v>121269.338907173</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3805,7 +3973,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3822,22 +3990,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="C88" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="D88" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E88" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>19230.0765</v>
       </c>
       <c r="G88" t="n">
-        <v>154228.229507173</v>
+        <v>102039.262407173</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3847,7 +4015,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3864,22 +4032,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C89" t="n">
         <v>48.5</v>
-      </c>
-      <c r="C89" t="n">
-        <v>47.2</v>
       </c>
       <c r="D89" t="n">
         <v>48.5</v>
       </c>
       <c r="E89" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>36046.2578</v>
       </c>
       <c r="G89" t="n">
-        <v>153428.229507173</v>
+        <v>138085.520207173</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3889,7 +4057,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3909,19 +4077,19 @@
         <v>48.5</v>
       </c>
       <c r="C90" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D90" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="E90" t="n">
         <v>48.5</v>
       </c>
       <c r="F90" t="n">
-        <v>25.7903</v>
+        <v>26230.6578</v>
       </c>
       <c r="G90" t="n">
-        <v>153454.019807173</v>
+        <v>164316.178007173</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3931,7 +4099,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3948,22 +4116,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>47.2</v>
+        <v>48.8</v>
       </c>
       <c r="C91" t="n">
-        <v>48.5</v>
+        <v>47.9</v>
       </c>
       <c r="D91" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="E91" t="n">
-        <v>47.2</v>
+        <v>47.9</v>
       </c>
       <c r="F91" t="n">
-        <v>3680.8313</v>
+        <v>10101.3863</v>
       </c>
       <c r="G91" t="n">
-        <v>153454.019807173</v>
+        <v>154214.791707173</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3973,7 +4141,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3990,22 +4158,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="C92" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="D92" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="E92" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="F92" t="n">
-        <v>9021.839400000001</v>
+        <v>400</v>
       </c>
       <c r="G92" t="n">
-        <v>153454.019807173</v>
+        <v>154614.791707173</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4015,7 +4183,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4032,22 +4200,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="C93" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="D93" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="E93" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="F93" t="n">
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>153465.019807173</v>
+        <v>154625.791707173</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4057,7 +4225,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4074,22 +4242,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C94" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D94" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E94" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="F94" t="n">
-        <v>6943.1207</v>
+        <v>22</v>
       </c>
       <c r="G94" t="n">
-        <v>160408.140507173</v>
+        <v>154603.791707173</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4099,7 +4267,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4116,22 +4284,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C95" t="n">
-        <v>49.5</v>
+        <v>48.1</v>
       </c>
       <c r="D95" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E95" t="n">
-        <v>49.5</v>
+        <v>48.1</v>
       </c>
       <c r="F95" t="n">
-        <v>4937.0478</v>
+        <v>1681</v>
       </c>
       <c r="G95" t="n">
-        <v>165345.188307173</v>
+        <v>152922.791707173</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4141,7 +4309,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4158,22 +4326,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="C96" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="D96" t="n">
-        <v>49.8</v>
+        <v>49.3</v>
       </c>
       <c r="E96" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="F96" t="n">
-        <v>8345.9522</v>
+        <v>1111</v>
       </c>
       <c r="G96" t="n">
-        <v>165345.188307173</v>
+        <v>154033.791707173</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4183,7 +4351,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4200,22 +4368,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="D97" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="E97" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="F97" t="n">
-        <v>793.3421</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>164551.846207173</v>
+        <v>153933.791707173</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4225,7 +4393,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4242,22 +4410,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="C98" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="D98" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="E98" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="F98" t="n">
-        <v>894.8159000000001</v>
+        <v>44.4444</v>
       </c>
       <c r="G98" t="n">
-        <v>164551.846207173</v>
+        <v>153933.791707173</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4267,7 +4435,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4284,22 +4452,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="C99" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="D99" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="E99" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="F99" t="n">
-        <v>1455.2242</v>
+        <v>4033.8157</v>
       </c>
       <c r="G99" t="n">
-        <v>166007.070407173</v>
+        <v>157967.607407173</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4309,7 +4477,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4326,22 +4494,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="C100" t="n">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="D100" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="E100" t="n">
-        <v>48.9</v>
+        <v>48.1</v>
       </c>
       <c r="F100" t="n">
-        <v>1073.6413</v>
+        <v>19913.2477</v>
       </c>
       <c r="G100" t="n">
-        <v>164933.429107173</v>
+        <v>177880.855107173</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4351,7 +4519,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4368,22 +4536,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="C101" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="D101" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="E101" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="F101" t="n">
-        <v>1319.2072</v>
+        <v>243.5699</v>
       </c>
       <c r="G101" t="n">
-        <v>166252.636307173</v>
+        <v>177637.285207173</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4393,7 +4561,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4410,22 +4578,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="C102" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="D102" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="E102" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="F102" t="n">
-        <v>3000</v>
+        <v>7597</v>
       </c>
       <c r="G102" t="n">
-        <v>166252.636307173</v>
+        <v>170040.285207173</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4435,7 +4603,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4452,22 +4620,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>50</v>
+        <v>47.6</v>
       </c>
       <c r="C103" t="n">
-        <v>50</v>
+        <v>47.6</v>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>47.6</v>
       </c>
       <c r="E103" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="F103" t="n">
-        <v>15661.8751</v>
+        <v>6907.291</v>
       </c>
       <c r="G103" t="n">
-        <v>181914.511407173</v>
+        <v>163132.994207173</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4477,7 +4645,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4494,22 +4662,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="C104" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="D104" t="n">
-        <v>49.9</v>
+        <v>47.7</v>
       </c>
       <c r="E104" t="n">
-        <v>49.9</v>
+        <v>47.6</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G104" t="n">
-        <v>181814.511407173</v>
+        <v>163154.994207173</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4519,7 +4687,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4536,22 +4704,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.9</v>
+        <v>47.8</v>
       </c>
       <c r="C105" t="n">
-        <v>49.9</v>
+        <v>47.8</v>
       </c>
       <c r="D105" t="n">
-        <v>49.9</v>
+        <v>47.8</v>
       </c>
       <c r="E105" t="n">
-        <v>49.9</v>
+        <v>47.8</v>
       </c>
       <c r="F105" t="n">
-        <v>844.0572</v>
+        <v>22</v>
       </c>
       <c r="G105" t="n">
-        <v>181814.511407173</v>
+        <v>163176.994207173</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4561,7 +4729,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4578,40 +4746,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>49.9</v>
+        <v>47.8</v>
       </c>
       <c r="C106" t="n">
-        <v>49.9</v>
+        <v>47.4</v>
       </c>
       <c r="D106" t="n">
-        <v>49.9</v>
+        <v>47.8</v>
       </c>
       <c r="E106" t="n">
-        <v>49.9</v>
+        <v>47.4</v>
       </c>
       <c r="F106" t="n">
-        <v>759.8619</v>
+        <v>6178</v>
       </c>
       <c r="G106" t="n">
-        <v>181814.511407173</v>
+        <v>156998.994207173</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>1.043319327731092</v>
+        <v>1</v>
       </c>
       <c r="N106" t="inlineStr"/>
     </row>
@@ -4620,22 +4788,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="C107" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="D107" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="E107" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>181714.511407173</v>
+        <v>156998.994207173</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4644,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4656,22 +4830,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.8</v>
+        <v>47.1</v>
       </c>
       <c r="C108" t="n">
-        <v>49.8</v>
+        <v>47.3</v>
       </c>
       <c r="D108" t="n">
-        <v>49.8</v>
+        <v>47.3</v>
       </c>
       <c r="E108" t="n">
-        <v>48.7</v>
+        <v>47.1</v>
       </c>
       <c r="F108" t="n">
-        <v>17335.9909</v>
+        <v>33</v>
       </c>
       <c r="G108" t="n">
-        <v>181714.511407173</v>
+        <v>156965.994207173</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4680,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4872,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.8</v>
+        <v>47.4</v>
       </c>
       <c r="C109" t="n">
-        <v>49.8</v>
+        <v>47.1</v>
       </c>
       <c r="D109" t="n">
-        <v>49.8</v>
+        <v>47.6</v>
       </c>
       <c r="E109" t="n">
-        <v>49.8</v>
+        <v>47.1</v>
       </c>
       <c r="F109" t="n">
-        <v>742.1754</v>
+        <v>89</v>
       </c>
       <c r="G109" t="n">
-        <v>181714.511407173</v>
+        <v>156876.994207173</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4716,8 +4896,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4728,22 +4914,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="C110" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="D110" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="E110" t="n">
-        <v>49.7</v>
+        <v>47.2</v>
       </c>
       <c r="F110" t="n">
-        <v>904.9109</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>180809.600507173</v>
+        <v>156887.994207173</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4752,8 +4938,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4956,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>49.7</v>
+        <v>47.3</v>
       </c>
       <c r="C111" t="n">
-        <v>49.7</v>
+        <v>47.3</v>
       </c>
       <c r="D111" t="n">
-        <v>49.7</v>
+        <v>47.3</v>
       </c>
       <c r="E111" t="n">
-        <v>49.7</v>
+        <v>47.3</v>
       </c>
       <c r="F111" t="n">
-        <v>503.212</v>
+        <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>180809.600507173</v>
+        <v>156898.994207173</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4788,8 +4980,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4800,22 +4998,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="C112" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="D112" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="E112" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="F112" t="n">
-        <v>17652.7113</v>
+        <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>163156.8892071731</v>
+        <v>156909.994207173</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4824,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4836,22 +5040,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49.2</v>
+        <v>47.5</v>
       </c>
       <c r="C113" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="D113" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="E113" t="n">
-        <v>49.2</v>
+        <v>47.5</v>
       </c>
       <c r="F113" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G113" t="n">
-        <v>163074.8892071731</v>
+        <v>156931.994207173</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4860,8 +5064,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4872,22 +5082,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="C114" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="D114" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="E114" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="F114" t="n">
-        <v>2023.9029</v>
+        <v>18</v>
       </c>
       <c r="G114" t="n">
-        <v>163074.8892071731</v>
+        <v>156931.994207173</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4896,8 +5106,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4908,22 +5124,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>49.3</v>
+        <v>47.6</v>
       </c>
       <c r="C115" t="n">
-        <v>49.6</v>
+        <v>47.4</v>
       </c>
       <c r="D115" t="n">
-        <v>49.6</v>
+        <v>47.6</v>
       </c>
       <c r="E115" t="n">
-        <v>49.3</v>
+        <v>47.4</v>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>5582.0273</v>
       </c>
       <c r="G115" t="n">
-        <v>163874.8892071731</v>
+        <v>151349.966907173</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4932,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4944,22 +5166,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.6</v>
+        <v>47.5</v>
       </c>
       <c r="C116" t="n">
-        <v>49.6</v>
+        <v>47.7</v>
       </c>
       <c r="D116" t="n">
-        <v>49.6</v>
+        <v>47.7</v>
       </c>
       <c r="E116" t="n">
-        <v>49.6</v>
+        <v>47.5</v>
       </c>
       <c r="F116" t="n">
-        <v>1169.1713</v>
+        <v>5592.3639</v>
       </c>
       <c r="G116" t="n">
-        <v>163874.8892071731</v>
+        <v>156942.330807173</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4968,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4980,22 +5208,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>49.4</v>
+        <v>47.8</v>
       </c>
       <c r="C117" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="D117" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E117" t="n">
-        <v>49.4</v>
+        <v>47.8</v>
       </c>
       <c r="F117" t="n">
-        <v>4842.8952</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>168717.7844071731</v>
+        <v>156953.330807173</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5004,8 +5232,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5016,22 +5250,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="C118" t="n">
-        <v>50.4</v>
+        <v>47.2</v>
       </c>
       <c r="D118" t="n">
-        <v>50.4</v>
+        <v>47.8</v>
       </c>
       <c r="E118" t="n">
-        <v>49.8</v>
+        <v>47.2</v>
       </c>
       <c r="F118" t="n">
-        <v>13555.4786</v>
+        <v>126</v>
       </c>
       <c r="G118" t="n">
-        <v>182273.2630071731</v>
+        <v>156827.330807173</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5040,8 +5274,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5052,22 +5292,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>50.4</v>
+        <v>47.2</v>
       </c>
       <c r="C119" t="n">
-        <v>50.4</v>
+        <v>48.1</v>
       </c>
       <c r="D119" t="n">
-        <v>50.4</v>
+        <v>48.1</v>
       </c>
       <c r="E119" t="n">
-        <v>50.4</v>
+        <v>47.2</v>
       </c>
       <c r="F119" t="n">
-        <v>90.6262</v>
+        <v>111</v>
       </c>
       <c r="G119" t="n">
-        <v>182273.2630071731</v>
+        <v>156938.330807173</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5076,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5334,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>50.4</v>
+        <v>47.7</v>
       </c>
       <c r="C120" t="n">
-        <v>50.4</v>
+        <v>47.7</v>
       </c>
       <c r="D120" t="n">
-        <v>50.4</v>
+        <v>47.7</v>
       </c>
       <c r="E120" t="n">
-        <v>50.4</v>
+        <v>47.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1200</v>
+        <v>11</v>
       </c>
       <c r="G120" t="n">
-        <v>182273.2630071731</v>
+        <v>156927.330807173</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5112,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5124,32 +5376,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>50.4</v>
+        <v>47.5</v>
       </c>
       <c r="C121" t="n">
-        <v>50.4</v>
+        <v>47.1</v>
       </c>
       <c r="D121" t="n">
-        <v>50.4</v>
+        <v>47.5</v>
       </c>
       <c r="E121" t="n">
-        <v>50.4</v>
+        <v>47.1</v>
       </c>
       <c r="F121" t="n">
-        <v>4792.3496</v>
+        <v>488</v>
       </c>
       <c r="G121" t="n">
-        <v>182273.2630071731</v>
+        <v>156439.330807173</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5160,32 +5418,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>50.5</v>
+        <v>47</v>
       </c>
       <c r="C122" t="n">
-        <v>50.8</v>
+        <v>46.8</v>
       </c>
       <c r="D122" t="n">
-        <v>50.8</v>
+        <v>47</v>
       </c>
       <c r="E122" t="n">
-        <v>50.5</v>
+        <v>46.8</v>
       </c>
       <c r="F122" t="n">
-        <v>1409.555</v>
+        <v>33</v>
       </c>
       <c r="G122" t="n">
-        <v>183682.818007173</v>
+        <v>156406.330807173</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5196,32 +5460,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>50.5</v>
+        <v>46.9</v>
       </c>
       <c r="C123" t="n">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="D123" t="n">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="E123" t="n">
-        <v>50.5</v>
+        <v>46.9</v>
       </c>
       <c r="F123" t="n">
-        <v>503.4447</v>
+        <v>77</v>
       </c>
       <c r="G123" t="n">
-        <v>183179.3733071731</v>
+        <v>156483.330807173</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5232,32 +5502,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>50.3</v>
+        <v>47.6</v>
       </c>
       <c r="C124" t="n">
-        <v>50.2</v>
+        <v>46.8</v>
       </c>
       <c r="D124" t="n">
-        <v>50.3</v>
+        <v>47.6</v>
       </c>
       <c r="E124" t="n">
-        <v>50.2</v>
+        <v>46.8</v>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="G124" t="n">
-        <v>182979.3733071731</v>
+        <v>156143.330807173</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5268,32 +5544,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>50.1</v>
+        <v>47.6</v>
       </c>
       <c r="C125" t="n">
-        <v>50.1</v>
+        <v>47.1</v>
       </c>
       <c r="D125" t="n">
-        <v>50.1</v>
+        <v>47.6</v>
       </c>
       <c r="E125" t="n">
-        <v>50.1</v>
+        <v>47.1</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>532.7226000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>182879.3733071731</v>
+        <v>156676.053407173</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5304,32 +5586,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>50</v>
+        <v>47.3</v>
       </c>
       <c r="C126" t="n">
-        <v>49.8</v>
+        <v>47.2</v>
       </c>
       <c r="D126" t="n">
-        <v>50</v>
+        <v>47.3</v>
       </c>
       <c r="E126" t="n">
-        <v>49.8</v>
+        <v>47.2</v>
       </c>
       <c r="F126" t="n">
-        <v>6300</v>
+        <v>54</v>
       </c>
       <c r="G126" t="n">
-        <v>176579.3733071731</v>
+        <v>156730.053407173</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5340,22 +5628,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>49.8</v>
+        <v>47.7</v>
       </c>
       <c r="C127" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="D127" t="n">
-        <v>49.8</v>
+        <v>47.7</v>
       </c>
       <c r="E127" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="F127" t="n">
-        <v>2420.2245</v>
+        <v>3419</v>
       </c>
       <c r="G127" t="n">
-        <v>174159.148807173</v>
+        <v>160149.053407173</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5364,8 +5652,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5376,22 +5670,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="C128" t="n">
-        <v>49.1</v>
+        <v>48</v>
       </c>
       <c r="D128" t="n">
-        <v>49.1</v>
+        <v>48</v>
       </c>
       <c r="E128" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="F128" t="n">
-        <v>3427.8212</v>
+        <v>900</v>
       </c>
       <c r="G128" t="n">
-        <v>174159.148807173</v>
+        <v>161049.053407173</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5400,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5412,22 +5712,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>49</v>
+        <v>48.1</v>
       </c>
       <c r="C129" t="n">
-        <v>49.1</v>
+        <v>47.2</v>
       </c>
       <c r="D129" t="n">
-        <v>49.1</v>
+        <v>48.1</v>
       </c>
       <c r="E129" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="F129" t="n">
-        <v>1372.1788</v>
+        <v>121</v>
       </c>
       <c r="G129" t="n">
-        <v>174159.148807173</v>
+        <v>160928.053407173</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5436,8 +5736,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5448,22 +5754,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>49.8</v>
+        <v>48</v>
       </c>
       <c r="C130" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D130" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E130" t="n">
-        <v>49.8</v>
+        <v>48</v>
       </c>
       <c r="F130" t="n">
-        <v>496</v>
+        <v>51435.137</v>
       </c>
       <c r="G130" t="n">
-        <v>174655.148807173</v>
+        <v>212363.190407173</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5472,8 +5778,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5484,22 +5796,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>49.7</v>
+        <v>48.2</v>
       </c>
       <c r="C131" t="n">
-        <v>49.5</v>
+        <v>48.2</v>
       </c>
       <c r="D131" t="n">
-        <v>49.7</v>
+        <v>48.2</v>
       </c>
       <c r="E131" t="n">
-        <v>49.5</v>
+        <v>48.2</v>
       </c>
       <c r="F131" t="n">
-        <v>2997</v>
+        <v>15</v>
       </c>
       <c r="G131" t="n">
-        <v>171658.148807173</v>
+        <v>212348.190407173</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5508,8 +5820,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5520,32 +5838,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C132" t="n">
         <v>49.6</v>
       </c>
-      <c r="C132" t="n">
-        <v>49.5</v>
-      </c>
       <c r="D132" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="E132" t="n">
-        <v>49.5</v>
+        <v>48.2</v>
       </c>
       <c r="F132" t="n">
-        <v>19142.9134</v>
+        <v>2636.5135</v>
       </c>
       <c r="G132" t="n">
-        <v>171658.148807173</v>
+        <v>214984.703907173</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5556,32 +5880,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C133" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="D133" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="E133" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F133" t="n">
-        <v>9749.144700000001</v>
+        <v>4731.565</v>
       </c>
       <c r="G133" t="n">
-        <v>171658.148807173</v>
+        <v>219716.268907173</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5595,29 +5925,35 @@
         <v>49.5</v>
       </c>
       <c r="C134" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="D134" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="E134" t="n">
         <v>49.5</v>
       </c>
       <c r="F134" t="n">
-        <v>5652</v>
+        <v>818.6838</v>
       </c>
       <c r="G134" t="n">
-        <v>177310.148807173</v>
+        <v>219716.268907173</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5628,22 +5964,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="C135" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="D135" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="E135" t="n">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="F135" t="n">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>177310.148807173</v>
+        <v>219716.268907173</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5652,8 +5988,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5664,32 +6006,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>49.6</v>
+        <v>49.1</v>
       </c>
       <c r="C136" t="n">
-        <v>49.6</v>
+        <v>47.2</v>
       </c>
       <c r="D136" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E136" t="n">
-        <v>49.6</v>
+        <v>47.2</v>
       </c>
       <c r="F136" t="n">
-        <v>1900</v>
+        <v>7604.5639</v>
       </c>
       <c r="G136" t="n">
-        <v>177310.148807173</v>
+        <v>212111.705007173</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5700,22 +6048,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="C137" t="n">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="D137" t="n">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="E137" t="n">
-        <v>49.6</v>
+        <v>48.4</v>
       </c>
       <c r="F137" t="n">
-        <v>447.4079</v>
+        <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>177310.148807173</v>
+        <v>212122.705007173</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5724,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5736,32 +6090,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="D138" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="E138" t="n">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>177310.148807173</v>
+        <v>212078.705007173</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5772,22 +6132,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>49.7</v>
+        <v>48.4</v>
       </c>
       <c r="C139" t="n">
-        <v>49.8</v>
+        <v>48.4</v>
       </c>
       <c r="D139" t="n">
-        <v>49.8</v>
+        <v>48.4</v>
       </c>
       <c r="E139" t="n">
-        <v>49.7</v>
+        <v>48.4</v>
       </c>
       <c r="F139" t="n">
-        <v>266.1145</v>
+        <v>111</v>
       </c>
       <c r="G139" t="n">
-        <v>177576.263307173</v>
+        <v>212189.705007173</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5796,8 +6156,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5808,32 +6174,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="C140" t="n">
         <v>49</v>
       </c>
       <c r="D140" t="n">
-        <v>49.7</v>
+        <v>49</v>
       </c>
       <c r="E140" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="F140" t="n">
-        <v>25000</v>
+        <v>2563.8881</v>
       </c>
       <c r="G140" t="n">
-        <v>152576.263307173</v>
+        <v>214753.593107173</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5844,22 +6216,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C141" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="D141" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E141" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="F141" t="n">
-        <v>5053.9927</v>
+        <v>3733</v>
       </c>
       <c r="G141" t="n">
-        <v>147522.270607173</v>
+        <v>211020.593107173</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5868,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5880,22 +6258,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C142" t="n">
-        <v>48.9</v>
+        <v>49.3</v>
       </c>
       <c r="D142" t="n">
-        <v>48.9</v>
+        <v>49.3</v>
       </c>
       <c r="E142" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>1364.4001</v>
       </c>
       <c r="G142" t="n">
-        <v>148522.270607173</v>
+        <v>212384.993207173</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5904,8 +6282,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5916,22 +6300,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="C143" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="D143" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="E143" t="n">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="F143" t="n">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>149422.270607173</v>
+        <v>212395.993207173</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5940,8 +6324,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5952,22 +6342,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C144" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="D144" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="E144" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F144" t="n">
-        <v>5267.2498</v>
+        <v>3568</v>
       </c>
       <c r="G144" t="n">
-        <v>154689.520407173</v>
+        <v>208827.993207173</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5976,8 +6366,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5997,13 +6393,13 @@
         <v>49.3</v>
       </c>
       <c r="E145" t="n">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="F145" t="n">
-        <v>18</v>
+        <v>18944.4137</v>
       </c>
       <c r="G145" t="n">
-        <v>154671.520407173</v>
+        <v>189883.579507173</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6012,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6024,32 +6426,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>49.4</v>
+        <v>48.6</v>
       </c>
       <c r="C146" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="D146" t="n">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="E146" t="n">
-        <v>49.4</v>
+        <v>48.6</v>
       </c>
       <c r="F146" t="n">
-        <v>22</v>
+        <v>51.9831</v>
       </c>
       <c r="G146" t="n">
-        <v>154693.520407173</v>
+        <v>189831.596407173</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6060,22 +6468,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="C147" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="D147" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="E147" t="n">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="F147" t="n">
-        <v>447.408</v>
+        <v>962.2654</v>
       </c>
       <c r="G147" t="n">
-        <v>154246.112407173</v>
+        <v>188869.331007173</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6084,8 +6492,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6096,32 +6510,38 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="C148" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="D148" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="E148" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="F148" t="n">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>154246.112407173</v>
+        <v>188858.331007173</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6132,22 +6552,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>49.7</v>
+        <v>48.4</v>
       </c>
       <c r="C149" t="n">
-        <v>49.7</v>
+        <v>48.2</v>
       </c>
       <c r="D149" t="n">
-        <v>49.7</v>
+        <v>48.4</v>
       </c>
       <c r="E149" t="n">
-        <v>49.7</v>
+        <v>48.2</v>
       </c>
       <c r="F149" t="n">
-        <v>136.5265</v>
+        <v>1423.4978</v>
       </c>
       <c r="G149" t="n">
-        <v>154382.638907173</v>
+        <v>187434.833207173</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6156,8 +6576,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6168,22 +6594,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="C150" t="n">
-        <v>49.6</v>
+        <v>47.9</v>
       </c>
       <c r="D150" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="E150" t="n">
-        <v>49.6</v>
+        <v>47.9</v>
       </c>
       <c r="F150" t="n">
-        <v>129.9787</v>
+        <v>192.2148</v>
       </c>
       <c r="G150" t="n">
-        <v>154252.660207173</v>
+        <v>187242.618407173</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6192,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6204,22 +6636,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="C151" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="D151" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="E151" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="F151" t="n">
-        <v>17493.4956</v>
+        <v>18128.2934</v>
       </c>
       <c r="G151" t="n">
-        <v>136759.164607173</v>
+        <v>169114.325007173</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6228,8 +6660,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6240,22 +6678,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="C152" t="n">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="D152" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="E152" t="n">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="F152" t="n">
-        <v>4000</v>
+        <v>1465.4263</v>
       </c>
       <c r="G152" t="n">
-        <v>132759.164607173</v>
+        <v>167648.898707173</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6264,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6276,22 +6720,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>48.7</v>
+        <v>47</v>
       </c>
       <c r="C153" t="n">
-        <v>48.7</v>
+        <v>47</v>
       </c>
       <c r="D153" t="n">
-        <v>48.7</v>
+        <v>47</v>
       </c>
       <c r="E153" t="n">
-        <v>48.7</v>
+        <v>47</v>
       </c>
       <c r="F153" t="n">
-        <v>1257.9675</v>
+        <v>818.6838</v>
       </c>
       <c r="G153" t="n">
-        <v>134017.132107173</v>
+        <v>167648.898707173</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6300,8 +6744,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6312,22 +6762,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="C154" t="n">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="D154" t="n">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="E154" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="F154" t="n">
-        <v>14</v>
+        <v>2962.2797</v>
       </c>
       <c r="G154" t="n">
-        <v>134017.132107173</v>
+        <v>170611.178407173</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6336,8 +6786,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6348,22 +6804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="C155" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="D155" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="E155" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="F155" t="n">
-        <v>742.1754</v>
+        <v>16048.9489</v>
       </c>
       <c r="G155" t="n">
-        <v>133274.956707173</v>
+        <v>170611.178407173</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6372,8 +6828,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6384,22 +6846,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C156" t="n">
-        <v>48.3</v>
+        <v>49.5</v>
       </c>
       <c r="D156" t="n">
-        <v>48.3</v>
+        <v>49.5</v>
       </c>
       <c r="E156" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="F156" t="n">
-        <v>1476.1303</v>
+        <v>4001</v>
       </c>
       <c r="G156" t="n">
-        <v>134751.087007173</v>
+        <v>174612.178407173</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6408,8 +6870,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6420,22 +6888,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>48.3</v>
+        <v>49</v>
       </c>
       <c r="C157" t="n">
-        <v>48.3</v>
+        <v>49.5</v>
       </c>
       <c r="D157" t="n">
-        <v>48.3</v>
+        <v>49.5</v>
       </c>
       <c r="E157" t="n">
-        <v>48.3</v>
+        <v>49</v>
       </c>
       <c r="F157" t="n">
-        <v>1046.2846</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
-        <v>134751.087007173</v>
+        <v>174612.178407173</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6444,8 +6912,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6456,22 +6930,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C158" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="D158" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E158" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="F158" t="n">
-        <v>52.489</v>
+        <v>20353.9489</v>
       </c>
       <c r="G158" t="n">
-        <v>134751.087007173</v>
+        <v>154258.229507173</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6480,8 +6954,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6492,22 +6972,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C159" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="D159" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E159" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="F159" t="n">
-        <v>5174.3933</v>
+        <v>30</v>
       </c>
       <c r="G159" t="n">
-        <v>134751.087007173</v>
+        <v>154228.229507173</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6516,8 +6996,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6528,22 +7014,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="C160" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="D160" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="E160" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F160" t="n">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="G160" t="n">
-        <v>128751.087007173</v>
+        <v>153428.229507173</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6552,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6564,22 +7056,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="C161" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="D161" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="E161" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="F161" t="n">
-        <v>1249.6458</v>
+        <v>25.7903</v>
       </c>
       <c r="G161" t="n">
-        <v>130000.732807173</v>
+        <v>153454.019807173</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6588,8 +7080,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6600,22 +7098,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="C162" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="D162" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="E162" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="F162" t="n">
-        <v>2500</v>
+        <v>3680.8313</v>
       </c>
       <c r="G162" t="n">
-        <v>130000.732807173</v>
+        <v>153454.019807173</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6624,8 +7122,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6636,22 +7140,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="C163" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="D163" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="E163" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="F163" t="n">
-        <v>1745</v>
+        <v>9021.839400000001</v>
       </c>
       <c r="G163" t="n">
-        <v>130000.732807173</v>
+        <v>153454.019807173</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6660,8 +7164,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6672,22 +7182,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="C164" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="D164" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="E164" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="F164" t="n">
-        <v>2208</v>
+        <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>130000.732807173</v>
+        <v>153465.019807173</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6696,8 +7206,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6708,22 +7224,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="C165" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="D165" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="E165" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="F165" t="n">
-        <v>59211.5777</v>
+        <v>6943.1207</v>
       </c>
       <c r="G165" t="n">
-        <v>189212.310507173</v>
+        <v>160408.140507173</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6732,8 +7248,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6744,22 +7266,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="C166" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D166" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E166" t="n">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="F166" t="n">
-        <v>145066.2801</v>
+        <v>4937.0478</v>
       </c>
       <c r="G166" t="n">
-        <v>334278.590607173</v>
+        <v>165345.188307173</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6768,8 +7290,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6780,22 +7308,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C167" t="n">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="D167" t="n">
-        <v>50.5</v>
+        <v>49.8</v>
       </c>
       <c r="E167" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="F167" t="n">
-        <v>72508.5998</v>
+        <v>8345.9522</v>
       </c>
       <c r="G167" t="n">
-        <v>406787.190407173</v>
+        <v>165345.188307173</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6804,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6816,22 +7350,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="C168" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="D168" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E168" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="F168" t="n">
-        <v>998.5</v>
+        <v>793.3421</v>
       </c>
       <c r="G168" t="n">
-        <v>405788.690407173</v>
+        <v>164551.846207173</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6840,8 +7374,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6852,36 +7392,2634 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>894.8159000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>164551.846207173</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1455.2242</v>
+      </c>
+      <c r="G170" t="n">
+        <v>166007.070407173</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1073.6413</v>
+      </c>
+      <c r="G171" t="n">
+        <v>164933.429107173</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1319.2072</v>
+      </c>
+      <c r="G172" t="n">
+        <v>166252.636307173</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>166252.636307173</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>50</v>
+      </c>
+      <c r="C174" t="n">
+        <v>50</v>
+      </c>
+      <c r="D174" t="n">
+        <v>50</v>
+      </c>
+      <c r="E174" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15661.8751</v>
+      </c>
+      <c r="G174" t="n">
+        <v>181914.511407173</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100</v>
+      </c>
+      <c r="G175" t="n">
+        <v>181814.511407173</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1.045526315789474</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>844.0572</v>
+      </c>
+      <c r="G176" t="n">
+        <v>181814.511407173</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>759.8619</v>
+      </c>
+      <c r="G177" t="n">
+        <v>181814.511407173</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G178" t="n">
+        <v>181714.511407173</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>17335.9909</v>
+      </c>
+      <c r="G179" t="n">
+        <v>181714.511407173</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>742.1754</v>
+      </c>
+      <c r="G180" t="n">
+        <v>181714.511407173</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>904.9109</v>
+      </c>
+      <c r="G181" t="n">
+        <v>180809.600507173</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>503.212</v>
+      </c>
+      <c r="G182" t="n">
+        <v>180809.600507173</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>17652.7113</v>
+      </c>
+      <c r="G183" t="n">
+        <v>163156.8892071731</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>82</v>
+      </c>
+      <c r="G184" t="n">
+        <v>163074.8892071731</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2023.9029</v>
+      </c>
+      <c r="G185" t="n">
+        <v>163074.8892071731</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>800</v>
+      </c>
+      <c r="G186" t="n">
+        <v>163874.8892071731</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1169.1713</v>
+      </c>
+      <c r="G187" t="n">
+        <v>163874.8892071731</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4842.8952</v>
+      </c>
+      <c r="G188" t="n">
+        <v>168717.7844071731</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C189" t="n">
         <v>50.4</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D189" t="n">
         <v>50.4</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E189" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>13555.4786</v>
+      </c>
+      <c r="G189" t="n">
+        <v>182273.2630071731</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>50.4</v>
       </c>
-      <c r="E169" t="n">
+      <c r="C190" t="n">
         <v>50.4</v>
       </c>
-      <c r="F169" t="n">
+      <c r="D190" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>90.6262</v>
+      </c>
+      <c r="G190" t="n">
+        <v>182273.2630071731</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E191" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G191" t="n">
+        <v>182273.2630071731</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4792.3496</v>
+      </c>
+      <c r="G192" t="n">
+        <v>182273.2630071731</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1409.555</v>
+      </c>
+      <c r="G193" t="n">
+        <v>183682.818007173</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>503.4447</v>
+      </c>
+      <c r="G194" t="n">
+        <v>183179.3733071731</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E195" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>200</v>
+      </c>
+      <c r="G195" t="n">
+        <v>182979.3733071731</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100</v>
+      </c>
+      <c r="G196" t="n">
+        <v>182879.3733071731</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>50</v>
+      </c>
+      <c r="C197" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>50</v>
+      </c>
+      <c r="E197" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G197" t="n">
+        <v>176579.3733071731</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E198" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2420.2245</v>
+      </c>
+      <c r="G198" t="n">
+        <v>174159.148807173</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3427.8212</v>
+      </c>
+      <c r="G199" t="n">
+        <v>174159.148807173</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>49</v>
+      </c>
+      <c r="C200" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1372.1788</v>
+      </c>
+      <c r="G200" t="n">
+        <v>174159.148807173</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C201" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D201" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>496</v>
+      </c>
+      <c r="G201" t="n">
+        <v>174655.148807173</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C202" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E202" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2997</v>
+      </c>
+      <c r="G202" t="n">
+        <v>171658.148807173</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19142.9134</v>
+      </c>
+      <c r="G203" t="n">
+        <v>171658.148807173</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>9749.144700000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>171658.148807173</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>5652</v>
+      </c>
+      <c r="G205" t="n">
+        <v>177310.148807173</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>83</v>
+      </c>
+      <c r="G206" t="n">
+        <v>177310.148807173</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G207" t="n">
+        <v>177310.148807173</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>447.4079</v>
+      </c>
+      <c r="G208" t="n">
+        <v>177310.148807173</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C209" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E209" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>100</v>
+      </c>
+      <c r="G209" t="n">
+        <v>177310.148807173</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C210" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>266.1145</v>
+      </c>
+      <c r="G210" t="n">
+        <v>177576.263307173</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C211" t="n">
+        <v>49</v>
+      </c>
+      <c r="D211" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E211" t="n">
+        <v>49</v>
+      </c>
+      <c r="F211" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>152576.263307173</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>49</v>
+      </c>
+      <c r="C212" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>49</v>
+      </c>
+      <c r="E212" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5053.9927</v>
+      </c>
+      <c r="G212" t="n">
+        <v>147522.270607173</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>148522.270607173</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>49</v>
+      </c>
+      <c r="C214" t="n">
+        <v>49</v>
+      </c>
+      <c r="D214" t="n">
+        <v>49</v>
+      </c>
+      <c r="E214" t="n">
+        <v>49</v>
+      </c>
+      <c r="F214" t="n">
+        <v>900</v>
+      </c>
+      <c r="G214" t="n">
+        <v>149422.270607173</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C215" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5267.2498</v>
+      </c>
+      <c r="G215" t="n">
+        <v>154689.520407173</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>18</v>
+      </c>
+      <c r="G216" t="n">
+        <v>154671.520407173</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="n">
+        <v>154693.520407173</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>447.408</v>
+      </c>
+      <c r="G218" t="n">
+        <v>154246.112407173</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E219" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>154246.112407173</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>136.5265</v>
+      </c>
+      <c r="G220" t="n">
+        <v>154382.638907173</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C221" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>129.9787</v>
+      </c>
+      <c r="G221" t="n">
+        <v>154252.660207173</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>48</v>
+      </c>
+      <c r="D222" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E222" t="n">
+        <v>48</v>
+      </c>
+      <c r="F222" t="n">
+        <v>17493.4956</v>
+      </c>
+      <c r="G222" t="n">
+        <v>136759.164607173</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>48</v>
+      </c>
+      <c r="C223" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>48</v>
+      </c>
+      <c r="E223" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>132759.164607173</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1257.9675</v>
+      </c>
+      <c r="G224" t="n">
+        <v>134017.132107173</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C225" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14</v>
+      </c>
+      <c r="G225" t="n">
+        <v>134017.132107173</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C226" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F226" t="n">
+        <v>742.1754</v>
+      </c>
+      <c r="G226" t="n">
+        <v>133274.956707173</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1476.1303</v>
+      </c>
+      <c r="G227" t="n">
+        <v>134751.087007173</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1046.2846</v>
+      </c>
+      <c r="G228" t="n">
+        <v>134751.087007173</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E229" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>52.489</v>
+      </c>
+      <c r="G229" t="n">
+        <v>134751.087007173</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C230" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D230" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E230" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>5174.3933</v>
+      </c>
+      <c r="G230" t="n">
+        <v>134751.087007173</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>128751.087007173</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>48</v>
+      </c>
+      <c r="C232" t="n">
+        <v>48</v>
+      </c>
+      <c r="D232" t="n">
+        <v>48</v>
+      </c>
+      <c r="E232" t="n">
+        <v>48</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1249.6458</v>
+      </c>
+      <c r="G232" t="n">
+        <v>130000.732807173</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>48</v>
+      </c>
+      <c r="C233" t="n">
+        <v>48</v>
+      </c>
+      <c r="D233" t="n">
+        <v>48</v>
+      </c>
+      <c r="E233" t="n">
+        <v>48</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G233" t="n">
+        <v>130000.732807173</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>48</v>
+      </c>
+      <c r="C234" t="n">
+        <v>48</v>
+      </c>
+      <c r="D234" t="n">
+        <v>48</v>
+      </c>
+      <c r="E234" t="n">
+        <v>48</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1745</v>
+      </c>
+      <c r="G234" t="n">
+        <v>130000.732807173</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>48</v>
+      </c>
+      <c r="C235" t="n">
+        <v>48</v>
+      </c>
+      <c r="D235" t="n">
+        <v>48</v>
+      </c>
+      <c r="E235" t="n">
+        <v>48</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2208</v>
+      </c>
+      <c r="G235" t="n">
+        <v>130000.732807173</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>48</v>
+      </c>
+      <c r="C236" t="n">
+        <v>49</v>
+      </c>
+      <c r="D236" t="n">
+        <v>49</v>
+      </c>
+      <c r="E236" t="n">
+        <v>48</v>
+      </c>
+      <c r="F236" t="n">
+        <v>59211.5777</v>
+      </c>
+      <c r="G236" t="n">
+        <v>189212.310507173</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>49</v>
+      </c>
+      <c r="C237" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D237" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>49</v>
+      </c>
+      <c r="F237" t="n">
+        <v>145066.2801</v>
+      </c>
+      <c r="G237" t="n">
+        <v>334278.590607173</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C238" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F238" t="n">
+        <v>72508.5998</v>
+      </c>
+      <c r="G238" t="n">
+        <v>406787.190407173</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C239" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F239" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="G239" t="n">
+        <v>405788.690407173</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C240" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D240" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E240" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F240" t="n">
         <v>11</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G240" t="n">
         <v>405799.690407173</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N240"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,22 +847,15 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -928,70 +880,60 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="J15" t="n">
         <v>47.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-23602.0409464135</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-23602.0409464135</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1016,26 +958,23 @@
         <v>-28422.3757464135</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="J17" t="n">
         <v>47.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1062,22 +1001,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1104,22 +1040,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1146,22 +1079,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1186,26 +1116,21 @@
         <v>-38691.7942464135</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>47.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,26 +1155,21 @@
         <v>-47929.8530464135</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>47.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1274,26 +1194,21 @@
         <v>39512.08430717301</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>47.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,22 +1235,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1362,22 +1274,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,22 +1313,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1446,22 +1352,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1488,22 +1391,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1530,22 +1430,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1572,22 +1469,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1614,22 +1508,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,22 +1547,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1698,22 +1586,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1740,22 +1625,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1782,22 +1664,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1824,22 +1703,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1866,22 +1742,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1908,22 +1781,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1950,22 +1820,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1992,22 +1859,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2034,22 +1898,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2076,22 +1937,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2118,22 +1976,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,22 +2015,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2202,22 +2054,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2244,22 +2093,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2286,22 +2132,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2328,22 +2171,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2370,22 +2210,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2412,22 +2249,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2454,22 +2288,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2496,22 +2327,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2538,22 +2366,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2580,22 +2405,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2622,22 +2444,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2664,22 +2483,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2706,22 +2522,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2746,26 +2559,21 @@
         <v>-19139.718392827</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>47.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2792,22 +2600,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2834,22 +2639,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2876,22 +2678,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2918,22 +2717,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2960,22 +2756,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3000,24 +2793,21 @@
         <v>83870.09090717301</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3044,22 +2834,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3086,22 +2873,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3128,22 +2912,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3170,22 +2951,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3212,22 +2990,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3254,22 +3029,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3296,22 +3068,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3338,22 +3107,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3380,22 +3146,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3422,22 +3185,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3464,22 +3224,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3506,22 +3263,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3548,22 +3302,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3590,22 +3341,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3632,22 +3380,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3674,22 +3419,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3716,22 +3458,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3758,22 +3497,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3800,22 +3536,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3842,22 +3575,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3882,24 +3612,21 @@
         <v>121329.505507173</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1.009736842105263</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3926,22 +3653,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3968,22 +3686,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4010,22 +3719,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4052,22 +3752,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4094,22 +3785,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4136,22 +3818,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4178,22 +3851,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4220,22 +3884,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4262,22 +3917,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4304,22 +3950,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4346,22 +3983,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4388,22 +4016,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4430,22 +4049,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4472,22 +4082,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4514,22 +4115,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4556,22 +4148,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4598,22 +4181,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4640,22 +4214,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4682,22 +4247,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4724,22 +4280,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4766,22 +4313,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4808,22 +4346,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4850,22 +4379,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4892,22 +4412,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4934,22 +4445,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4976,22 +4478,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5018,22 +4511,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5060,22 +4544,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5102,22 +4577,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5144,22 +4610,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5186,22 +4643,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5228,22 +4676,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5270,22 +4709,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5312,22 +4742,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5354,22 +4775,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5396,22 +4808,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5438,22 +4841,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5480,22 +4874,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5522,22 +4907,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5564,22 +4940,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5606,22 +4973,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5648,22 +5006,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5690,22 +5039,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5732,22 +5072,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5774,22 +5105,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5816,22 +5138,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5858,22 +5171,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5900,22 +5204,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5942,22 +5237,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5984,22 +5270,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6026,22 +5303,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6068,22 +5336,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6110,22 +5369,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6152,22 +5402,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6194,22 +5435,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6236,22 +5468,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6278,22 +5501,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6320,22 +5534,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6360,24 +5565,15 @@
         <v>208827.993207173</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6402,24 +5598,15 @@
         <v>189883.579507173</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6444,24 +5631,15 @@
         <v>189831.596407173</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6486,24 +5664,15 @@
         <v>188869.331007173</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6530,22 +5699,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6572,22 +5732,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6614,22 +5765,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6656,22 +5798,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6698,22 +5831,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6740,22 +5864,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6782,22 +5897,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6824,22 +5930,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6866,22 +5963,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6908,22 +5996,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6950,22 +6029,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6992,22 +6062,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7034,22 +6095,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7076,22 +6128,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7118,22 +6161,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7160,22 +6194,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7202,22 +6227,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7244,22 +6260,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7286,22 +6293,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7328,22 +6326,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7370,22 +6359,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7412,22 +6392,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7454,22 +6425,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7496,22 +6458,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7538,22 +6491,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7580,22 +6524,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7622,22 +6557,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7664,22 +6590,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1.045526315789474</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7706,16 +6623,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7742,16 +6656,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7778,16 +6689,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7814,16 +6722,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7850,16 +6755,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7886,16 +6788,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7922,16 +6821,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7958,16 +6854,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7994,16 +6887,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8030,16 +6920,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8066,16 +6953,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8102,16 +6986,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8138,16 +7019,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8174,16 +7052,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8210,16 +7085,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8244,18 +7116,15 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8282,16 +7151,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8318,16 +7184,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8352,18 +7215,15 @@
         <v>183179.3733071731</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8390,16 +7250,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8424,18 +7281,15 @@
         <v>182879.3733071731</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8462,16 +7316,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8498,16 +7349,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8534,16 +7382,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8570,16 +7415,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8606,16 +7448,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8642,16 +7481,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8678,16 +7514,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8714,16 +7547,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8750,16 +7580,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8786,16 +7613,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8822,16 +7646,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8858,16 +7679,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8894,16 +7712,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8930,16 +7745,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8966,16 +7778,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9002,16 +7811,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9038,16 +7844,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9074,16 +7877,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9110,16 +7910,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9144,18 +7941,15 @@
         <v>154671.520407173</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9182,16 +7976,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9218,16 +8009,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9254,16 +8042,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9290,16 +8075,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9326,16 +8108,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9360,18 +8139,15 @@
         <v>136759.164607173</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9398,16 +8174,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9434,16 +8207,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9470,16 +8240,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9506,16 +8273,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9542,16 +8306,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9578,16 +8339,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9614,16 +8372,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9650,16 +8405,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9686,16 +8438,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9722,16 +8471,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9758,16 +8504,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9794,16 +8537,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9830,16 +8570,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9866,16 +8603,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9902,16 +8636,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9938,16 +8669,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9972,18 +8700,15 @@
         <v>405788.690407173</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10008,20 +8733,17 @@
         <v>405799.690407173</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-35876.2425464135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -847,10 +847,14 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47.5</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,7 +884,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>47.5</v>
@@ -888,7 +892,11 @@
       <c r="J15" t="n">
         <v>47.5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +925,7 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>47.5</v>
@@ -958,7 +966,7 @@
         <v>-28422.3757464135</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>47.5</v>
@@ -1077,9 +1085,11 @@
         <v>-38691.7942464135</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J20" t="n">
         <v>47.5</v>
       </c>
@@ -1116,9 +1126,11 @@
         <v>-38691.7942464135</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J21" t="n">
         <v>47.5</v>
       </c>
@@ -1155,9 +1167,11 @@
         <v>-47929.8530464135</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J22" t="n">
         <v>47.5</v>
       </c>
@@ -1194,9 +1208,11 @@
         <v>39512.08430717301</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>46.7</v>
+      </c>
       <c r="J23" t="n">
         <v>47.5</v>
       </c>
@@ -1935,9 +1951,11 @@
         <v>13374.82720717301</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J42" t="n">
         <v>47.5</v>
       </c>
@@ -1974,9 +1992,11 @@
         <v>-4005.633292826995</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J43" t="n">
         <v>47.5</v>
       </c>
@@ -2013,9 +2033,11 @@
         <v>6329.129107173005</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J44" t="n">
         <v>47.5</v>
       </c>
@@ -2052,9 +2074,11 @@
         <v>6329.129107173005</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J45" t="n">
         <v>47.5</v>
       </c>
@@ -2091,9 +2115,11 @@
         <v>6371.129107173005</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J46" t="n">
         <v>47.5</v>
       </c>
@@ -2130,9 +2156,11 @@
         <v>1316.183807173004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J47" t="n">
         <v>47.5</v>
       </c>
@@ -2169,9 +2197,11 @@
         <v>1327.183807173004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J48" t="n">
         <v>47.5</v>
       </c>
@@ -2208,9 +2238,11 @@
         <v>1470.183807173004</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J49" t="n">
         <v>47.5</v>
       </c>
@@ -2247,9 +2279,11 @@
         <v>1480.768807173004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J50" t="n">
         <v>47.5</v>
       </c>
@@ -2286,9 +2320,11 @@
         <v>1360.768807173004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>47.6</v>
+      </c>
       <c r="J51" t="n">
         <v>47.5</v>
       </c>
@@ -2325,9 +2361,11 @@
         <v>1371.768807173004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>47</v>
+      </c>
       <c r="J52" t="n">
         <v>47.5</v>
       </c>
@@ -2403,9 +2441,11 @@
         <v>1458.237607173005</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J54" t="n">
         <v>47.5</v>
       </c>
@@ -2442,9 +2482,11 @@
         <v>-24104.108392827</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J55" t="n">
         <v>47.5</v>
       </c>
@@ -2481,9 +2523,11 @@
         <v>-21216.108392827</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>47.4</v>
+      </c>
       <c r="J56" t="n">
         <v>47.5</v>
       </c>
@@ -2520,9 +2564,11 @@
         <v>-21205.108392827</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>47.6</v>
+      </c>
       <c r="J57" t="n">
         <v>47.5</v>
       </c>
@@ -2793,7 +2839,7 @@
         <v>83870.09090717301</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
@@ -3612,7 +3658,7 @@
         <v>121329.505507173</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
@@ -3620,11 +3666,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.009736842105263</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
     </row>
@@ -3654,8 +3700,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3687,8 +3739,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3720,8 +3778,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3753,8 +3817,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3786,8 +3856,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3819,8 +3895,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3885,8 +3973,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3918,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3951,8 +4051,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3984,8 +4090,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4017,8 +4129,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4050,8 +4168,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4083,8 +4207,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4116,8 +4246,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4149,8 +4285,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4182,8 +4324,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4215,8 +4363,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4248,8 +4402,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4281,8 +4441,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4314,8 +4480,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4347,8 +4519,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4380,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4413,8 +4597,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4446,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4479,8 +4675,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4512,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4545,8 +4753,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4578,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +4831,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +4909,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +4948,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4743,8 +4987,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4776,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4809,8 +5065,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4842,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4875,8 +5143,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4908,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4941,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5260,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5299,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5040,8 +5338,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5073,8 +5377,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5416,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5139,8 +5455,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5172,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +5533,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5238,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5271,8 +5611,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5304,8 +5650,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5337,8 +5689,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5370,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5403,8 +5767,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5436,8 +5806,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5469,8 +5845,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5502,8 +5884,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5535,8 +5923,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5959,17 @@
         <v>208827.993207173</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5998,17 @@
         <v>189883.579507173</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +6037,17 @@
         <v>189831.596407173</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +6076,17 @@
         <v>188869.331007173</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5700,8 +6118,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5733,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5766,8 +6196,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5799,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6274,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6313,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6352,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6391,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5964,8 +6430,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5997,8 +6469,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +6508,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +6547,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6096,8 +6586,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6625,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6664,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6195,8 +6703,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6228,8 +6742,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +6781,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6294,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6327,8 +6859,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6360,8 +6898,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6393,8 +6937,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6426,8 +6976,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +7015,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6492,8 +7054,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6525,8 +7093,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6558,8 +7132,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6591,8 +7171,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6624,8 +7210,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +7249,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6690,8 +7288,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7327,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6756,8 +7366,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6786,13 +7402,19 @@
         <v>180809.600507173</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>1.041315789473684</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -6819,7 +7441,7 @@
         <v>180809.600507173</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6852,7 +7474,7 @@
         <v>163156.8892071731</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6885,7 +7507,7 @@
         <v>163074.8892071731</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7116,7 +7738,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7149,7 +7771,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7182,7 +7804,7 @@
         <v>183682.818007173</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7215,7 +7837,7 @@
         <v>183179.3733071731</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7248,7 +7870,7 @@
         <v>182979.3733071731</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7281,7 +7903,7 @@
         <v>182879.3733071731</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7314,7 +7936,7 @@
         <v>176579.3733071731</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7347,7 +7969,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7380,7 +8002,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7413,7 +8035,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7446,7 +8068,7 @@
         <v>174655.148807173</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7479,7 +8101,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7512,7 +8134,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7545,7 +8167,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7578,7 +8200,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7611,7 +8233,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7644,7 +8266,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7677,7 +8299,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7710,7 +8332,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7743,7 +8365,7 @@
         <v>177576.263307173</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7776,7 +8398,7 @@
         <v>152576.263307173</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7809,7 +8431,7 @@
         <v>147522.270607173</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7842,7 +8464,7 @@
         <v>148522.270607173</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7875,7 +8497,7 @@
         <v>149422.270607173</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7908,7 +8530,7 @@
         <v>154689.520407173</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7941,7 +8563,7 @@
         <v>154671.520407173</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7974,7 +8596,7 @@
         <v>154693.520407173</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8007,7 +8629,7 @@
         <v>154246.112407173</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8040,7 +8662,7 @@
         <v>154246.112407173</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8073,7 +8695,7 @@
         <v>154382.638907173</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8106,7 +8728,7 @@
         <v>154252.660207173</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8139,7 +8761,7 @@
         <v>136759.164607173</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8238,7 +8860,7 @@
         <v>134017.132107173</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8271,7 +8893,7 @@
         <v>133274.956707173</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8700,7 +9322,7 @@
         <v>405788.690407173</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8733,7 +9355,7 @@
         <v>405799.690407173</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8744,6 +9366,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-35876.2425464135</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -847,14 +847,10 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -884,302 +880,270 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>47.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="C16" t="n">
         <v>47.5</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="D16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-23602.0409464135</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4820.3348</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-28422.3757464135</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>47</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9094.4185</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-37516.7942464135</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1156</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-38672.7942464135</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>47</v>
+      </c>
+      <c r="J19" t="n">
+        <v>47</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-38691.7942464135</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>47</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-23602.0409464135</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>559</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-38691.7942464135</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>47</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4820.3348</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-28422.3757464135</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9238.058800000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-47929.8530464135</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>47</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>47</v>
-      </c>
-      <c r="D18" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>47</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9094.4185</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-37516.7942464135</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1156</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-38672.7942464135</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-38691.7942464135</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>559</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-38691.7942464135</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9238.058800000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-47929.8530464135</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1178,7 @@
         <v>46.7</v>
       </c>
       <c r="J23" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1253,7 +1217,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1292,7 +1256,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1331,7 +1295,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1370,7 +1334,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1409,7 +1373,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1448,7 +1412,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1487,7 +1451,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1526,7 +1490,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1565,7 +1529,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1604,7 +1568,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1643,7 +1607,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1682,7 +1646,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1721,7 +1685,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1760,7 +1724,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1799,7 +1763,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1838,7 +1802,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1877,7 +1841,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1916,7 +1880,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1951,13 +1915,11 @@
         <v>13374.82720717301</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>47.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1992,13 +1954,11 @@
         <v>-4005.633292826995</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2033,13 +1993,11 @@
         <v>6329.129107173005</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>46.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2074,13 +2032,11 @@
         <v>6329.129107173005</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>47.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2115,13 +2071,11 @@
         <v>6371.129107173005</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2156,13 +2110,11 @@
         <v>1316.183807173004</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>48.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2197,13 +2149,11 @@
         <v>1327.183807173004</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>46.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2238,13 +2188,11 @@
         <v>1470.183807173004</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>46.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,13 +2227,11 @@
         <v>1480.768807173004</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>47.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2320,13 +2266,11 @@
         <v>1360.768807173004</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>47.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2361,13 +2305,11 @@
         <v>1371.768807173004</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>47</v>
-      </c>
-      <c r="J52" t="n">
-        <v>47.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,7 +2348,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2441,13 +2383,11 @@
         <v>1458.237607173005</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>47.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2482,13 +2422,11 @@
         <v>-24104.108392827</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>47.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2523,13 +2461,11 @@
         <v>-21216.108392827</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>47.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2564,13 +2500,11 @@
         <v>-21205.108392827</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>47.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2609,7 +2543,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2648,7 +2582,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2683,19 +2617,19 @@
         <v>-19117.762092827</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>1.016276595744681</v>
       </c>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -2725,14 +2659,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2764,14 +2692,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2803,14 +2725,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2842,14 +2758,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2881,14 +2791,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2920,14 +2824,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2959,14 +2857,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2998,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3037,14 +2923,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +2956,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3115,14 +2989,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3154,14 +3022,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3193,14 +3055,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3232,14 +3088,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3271,14 +3121,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3310,14 +3154,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +3220,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3427,14 +3253,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3466,14 +3286,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3505,14 +3319,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3544,14 +3352,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3583,14 +3385,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3622,14 +3418,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3661,14 +3451,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3700,14 +3484,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3739,14 +3517,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3778,14 +3550,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3817,14 +3583,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3856,14 +3616,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3895,14 +3649,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3934,14 +3682,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3973,14 +3715,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4012,14 +3748,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4051,14 +3781,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4090,14 +3814,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4129,14 +3847,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4168,14 +3880,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4207,14 +3913,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4246,14 +3946,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4285,14 +3979,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4324,14 +4012,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4363,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4402,14 +4078,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4111,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4480,14 +4144,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4516,17 +4174,11 @@
         <v>156998.994207173</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4555,17 +4207,11 @@
         <v>156965.994207173</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4597,14 +4243,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4636,14 +4276,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4675,14 +4309,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4714,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4753,14 +4375,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4792,14 +4408,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4831,14 +4441,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4870,14 +4474,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4909,14 +4507,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4948,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4987,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5026,14 +4606,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5065,14 +4639,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5104,14 +4672,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5143,14 +4705,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5182,14 +4738,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5221,14 +4771,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5260,14 +4804,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5299,14 +4837,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5338,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5377,14 +4903,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5416,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5455,14 +4969,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5494,14 +5002,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5533,14 +5035,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5572,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5611,14 +5101,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5650,14 +5134,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5689,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5728,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5767,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5845,14 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5884,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5923,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5962,14 +5398,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6001,14 +5431,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6040,14 +5464,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6079,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6118,14 +5530,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6157,14 +5563,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6196,14 +5596,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6235,14 +5629,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6274,14 +5662,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6352,14 +5728,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6391,14 +5761,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6430,14 +5794,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6466,17 +5824,11 @@
         <v>174612.178407173</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6508,14 +5860,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6544,17 +5890,11 @@
         <v>154228.229507173</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6583,17 +5923,11 @@
         <v>153428.229507173</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6622,17 +5956,11 @@
         <v>153454.019807173</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6661,17 +5989,11 @@
         <v>153454.019807173</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6700,17 +6022,11 @@
         <v>153454.019807173</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6742,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6781,14 +6091,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6820,14 +6124,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6859,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6898,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6937,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6976,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7012,17 +6286,11 @@
         <v>164933.429107173</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7054,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7093,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7132,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7210,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7249,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7288,14 +6520,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7327,14 +6553,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7366,14 +6586,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7402,19 +6616,13 @@
         <v>180809.600507173</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>1.041315789473684</v>
+        <v>1</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -7441,7 +6649,7 @@
         <v>180809.600507173</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7474,7 +6682,7 @@
         <v>163156.8892071731</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7507,7 +6715,7 @@
         <v>163074.8892071731</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7738,7 +6946,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7771,7 +6979,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7804,7 +7012,7 @@
         <v>183682.818007173</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7837,7 +7045,7 @@
         <v>183179.3733071731</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7870,7 +7078,7 @@
         <v>182979.3733071731</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7903,7 +7111,7 @@
         <v>182879.3733071731</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7936,7 +7144,7 @@
         <v>176579.3733071731</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7969,7 +7177,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8002,7 +7210,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8035,7 +7243,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8068,7 +7276,7 @@
         <v>174655.148807173</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8101,7 +7309,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8134,7 +7342,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8167,7 +7375,7 @@
         <v>171658.148807173</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8200,7 +7408,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8233,7 +7441,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8266,7 +7474,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8299,7 +7507,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8332,7 +7540,7 @@
         <v>177310.148807173</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8365,7 +7573,7 @@
         <v>177576.263307173</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8398,7 +7606,7 @@
         <v>152576.263307173</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8431,7 +7639,7 @@
         <v>147522.270607173</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8464,7 +7672,7 @@
         <v>148522.270607173</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8497,7 +7705,7 @@
         <v>149422.270607173</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8530,7 +7738,7 @@
         <v>154689.520407173</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8563,7 +7771,7 @@
         <v>154671.520407173</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8596,7 +7804,7 @@
         <v>154693.520407173</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8629,7 +7837,7 @@
         <v>154246.112407173</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8662,7 +7870,7 @@
         <v>154246.112407173</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8695,7 +7903,7 @@
         <v>154382.638907173</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8728,7 +7936,7 @@
         <v>154252.660207173</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8761,7 +7969,7 @@
         <v>136759.164607173</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8860,7 +8068,7 @@
         <v>134017.132107173</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8893,7 +8101,7 @@
         <v>133274.956707173</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9366,6 +8574,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -847,10 +847,14 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47.5</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,11 +884,19 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +925,19 @@
         <v>-23602.0409464135</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +966,19 @@
         <v>-28422.3757464135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1007,19 @@
         <v>-37516.7942464135</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1018,9 +1054,13 @@
         <v>47</v>
       </c>
       <c r="J19" t="n">
-        <v>47</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>47.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1055,11 +1095,11 @@
         <v>46.9</v>
       </c>
       <c r="J20" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1096,11 +1136,11 @@
         <v>46.8</v>
       </c>
       <c r="J21" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1137,11 +1177,11 @@
         <v>46.8</v>
       </c>
       <c r="J22" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1178,7 +1218,7 @@
         <v>46.7</v>
       </c>
       <c r="J23" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1217,7 +1257,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1256,7 +1296,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1295,7 +1335,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1334,7 +1374,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1373,7 +1413,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1412,7 +1452,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1451,7 +1491,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1490,7 +1530,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1529,7 +1569,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1568,7 +1608,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1607,7 +1647,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1646,7 +1686,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1685,7 +1725,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1724,7 +1764,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1763,7 +1803,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1802,7 +1842,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1841,7 +1881,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1880,7 +1920,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1919,7 +1959,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1958,7 +1998,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1997,7 +2037,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2036,7 +2076,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2075,7 +2115,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2114,7 +2154,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2153,7 +2193,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2192,7 +2232,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2231,7 +2271,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2270,7 +2310,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2309,7 +2349,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2348,7 +2388,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2387,7 +2427,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2426,7 +2466,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2465,7 +2505,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2504,7 +2544,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2543,7 +2583,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2582,7 +2622,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2617,19 +2657,19 @@
         <v>-19117.762092827</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.016276595744681</v>
+        <v>1</v>
       </c>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -2659,8 +2699,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2692,8 +2738,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2725,8 +2777,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2758,8 +2816,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2791,8 +2855,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2824,8 +2894,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2857,8 +2933,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2890,8 +2972,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2923,8 +3011,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2956,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2989,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3022,8 +3128,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3055,8 +3167,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3088,8 +3206,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3121,8 +3245,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3154,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3323,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3220,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3253,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3286,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3319,8 +3479,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3352,8 +3518,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3385,8 +3557,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3418,8 +3596,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3451,8 +3635,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3484,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3517,8 +3713,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3550,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3583,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3616,8 +3830,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3649,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3682,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3715,8 +3947,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3748,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3781,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3814,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3847,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3880,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3913,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3946,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3979,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4012,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4045,8 +4337,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4078,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4111,8 +4415,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4144,8 +4454,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4174,11 +4490,17 @@
         <v>156998.994207173</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4207,11 +4529,17 @@
         <v>156965.994207173</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4243,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4276,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4309,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4375,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4408,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4441,8 +4805,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4474,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4507,8 +4883,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4540,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4573,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4606,8 +5000,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4639,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4672,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4705,8 +5117,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4738,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4771,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4804,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4837,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4870,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4903,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4936,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4969,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5002,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5035,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5101,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5134,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5167,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5200,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5233,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5266,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5299,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5332,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5365,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5398,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5431,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5596,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5629,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5662,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5695,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5728,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5761,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5824,11 +6440,17 @@
         <v>174612.178407173</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5860,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5890,11 +6518,17 @@
         <v>154228.229507173</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5923,11 +6557,17 @@
         <v>153428.229507173</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5956,11 +6596,17 @@
         <v>153454.019807173</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5989,11 +6635,17 @@
         <v>153454.019807173</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +6674,17 @@
         <v>153454.019807173</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6872,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6911,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +6950,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6286,11 +6986,17 @@
         <v>164933.429107173</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6322,8 +7028,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6355,8 +7067,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6388,8 +7106,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6421,8 +7145,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +7184,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +7223,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6520,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +7301,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6586,8 +7340,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +7379,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +7418,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6685,8 +7457,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6718,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6751,8 +7535,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6784,8 +7574,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6817,8 +7613,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6850,8 +7652,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6883,8 +7691,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6916,8 +7730,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6946,15 +7766,23 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>1.056052631578947</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1.025641025641026</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6979,7 +7807,7 @@
         <v>182273.2630071731</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7012,7 +7840,7 @@
         <v>183682.818007173</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7045,7 +7873,7 @@
         <v>183179.3733071731</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7078,7 +7906,7 @@
         <v>182979.3733071731</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7111,7 +7939,7 @@
         <v>182879.3733071731</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7144,7 +7972,7 @@
         <v>176579.3733071731</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7177,7 +8005,7 @@
         <v>174159.148807173</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7606,7 +8434,7 @@
         <v>152576.263307173</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7639,7 +8467,7 @@
         <v>147522.270607173</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest PST.xlsx
+++ b/BackTest/2019-11-13 BackTest PST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16365.5311</v>
       </c>
       <c r="G2" t="n">
-        <v>-35876.2425464135</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>-35887.2425464135</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>4500</v>
       </c>
       <c r="G4" t="n">
-        <v>-31387.2425464135</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>46.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>66</v>
       </c>
       <c r="G5" t="n">
-        <v>-31387.2425464135</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>-31398.2425464135</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>48</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>14005.5563</v>
       </c>
       <c r="G7" t="n">
-        <v>-17392.6862464135</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>46.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>48</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,21 @@
         <v>3941</v>
       </c>
       <c r="G8" t="n">
-        <v>-17392.6862464135</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +695,21 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>-17392.6862464135</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>48</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +731,21 @@
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>-17348.6862464135</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>48</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +767,21 @@
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>-17348.6862464135</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +803,23 @@
         <v>5399.3547</v>
       </c>
       <c r="G12" t="n">
-        <v>-22748.0409464135</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>47.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +841,21 @@
         <v>854</v>
       </c>
       <c r="G13" t="n">
-        <v>-23602.0409464135</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>48</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,22 +877,23 @@
         <v>1741.6652</v>
       </c>
       <c r="G14" t="n">
-        <v>-23602.0409464135</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>47.5</v>
       </c>
       <c r="I14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -881,26 +915,21 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>-23602.0409464135</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -922,26 +951,21 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>-23602.0409464135</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -963,26 +987,21 @@
         <v>4820.3348</v>
       </c>
       <c r="G17" t="n">
-        <v>-28422.3757464135</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1004,26 +1023,21 @@
         <v>9094.4185</v>
       </c>
       <c r="G18" t="n">
-        <v>-37516.7942464135</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1045,26 +1059,21 @@
         <v>1156</v>
       </c>
       <c r="G19" t="n">
-        <v>-38672.7942464135</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>47</v>
-      </c>
-      <c r="J19" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1086,26 +1095,21 @@
         <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>-38691.7942464135</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,26 +1131,21 @@
         <v>559</v>
       </c>
       <c r="G21" t="n">
-        <v>-38691.7942464135</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1168,26 +1167,21 @@
         <v>9238.058800000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-47929.8530464135</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1209,26 +1203,21 @@
         <v>87441.9373535865</v>
       </c>
       <c r="G23" t="n">
-        <v>39512.08430717301</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,24 +1239,21 @@
         <v>8375.421899999999</v>
       </c>
       <c r="G24" t="n">
-        <v>47887.50620717301</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>48</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1289,24 +1275,21 @@
         <v>2972.2758</v>
       </c>
       <c r="G25" t="n">
-        <v>50859.78200717301</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>48</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1328,24 +1311,21 @@
         <v>18899.4169</v>
       </c>
       <c r="G26" t="n">
-        <v>50859.78200717301</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>48</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1367,24 +1347,21 @@
         <v>2789.5074</v>
       </c>
       <c r="G27" t="n">
-        <v>50859.78200717301</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>48</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1406,24 +1383,21 @@
         <v>1226.0556</v>
       </c>
       <c r="G28" t="n">
-        <v>52085.83760717301</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1445,24 +1419,21 @@
         <v>9565.3577</v>
       </c>
       <c r="G29" t="n">
-        <v>42520.47990717301</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>48</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,24 +1455,21 @@
         <v>7940.6215</v>
       </c>
       <c r="G30" t="n">
-        <v>50461.10140717301</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>48</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1523,24 +1491,21 @@
         <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>50448.10140717301</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>48</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1562,24 +1527,21 @@
         <v>2789.5074</v>
       </c>
       <c r="G32" t="n">
-        <v>47658.59400717301</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>48</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0.9991666666666666</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1601,24 +1563,15 @@
         <v>46</v>
       </c>
       <c r="G33" t="n">
-        <v>47704.59400717301</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,24 +1593,15 @@
         <v>499</v>
       </c>
       <c r="G34" t="n">
-        <v>48203.59400717301</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1679,24 +1623,15 @@
         <v>450</v>
       </c>
       <c r="G35" t="n">
-        <v>48653.59400717301</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,24 +1653,15 @@
         <v>461.0043</v>
       </c>
       <c r="G36" t="n">
-        <v>48192.58970717301</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1757,24 +1683,15 @@
         <v>55532.1135</v>
       </c>
       <c r="G37" t="n">
-        <v>48192.58970717301</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1796,24 +1713,15 @@
         <v>14120.2001</v>
       </c>
       <c r="G38" t="n">
-        <v>34072.38960717301</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1835,24 +1743,15 @@
         <v>966.6182</v>
       </c>
       <c r="G39" t="n">
-        <v>33105.77140717301</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1874,24 +1773,15 @@
         <v>757.3233</v>
       </c>
       <c r="G40" t="n">
-        <v>32348.44810717301</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1913,24 +1803,15 @@
         <v>17391.0737</v>
       </c>
       <c r="G41" t="n">
-        <v>14957.37440717301</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1952,24 +1833,15 @@
         <v>1582.5472</v>
       </c>
       <c r="G42" t="n">
-        <v>13374.82720717301</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1991,24 +1863,15 @@
         <v>17380.4605</v>
       </c>
       <c r="G43" t="n">
-        <v>-4005.633292826995</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2030,24 +1893,15 @@
         <v>10334.7624</v>
       </c>
       <c r="G44" t="n">
-        <v>6329.129107173005</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2069,24 +1923,15 @@
         <v>5096.3046</v>
       </c>
       <c r="G45" t="n">
-        <v>6329.129107173005</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2108,24 +1953,15 @@
         <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>6371.129107173005</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2147,24 +1983,15 @@
         <v>5054.9453</v>
       </c>
       <c r="G47" t="n">
-        <v>1316.183807173004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2186,24 +2013,15 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>1327.183807173004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2225,24 +2043,15 @@
         <v>143</v>
       </c>
       <c r="G49" t="n">
-        <v>1470.183807173004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2264,24 +2073,15 @@
         <v>10.585</v>
       </c>
       <c r="G50" t="n">
-        <v>1480.768807173004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2303,24 +2103,15 @@
         <v>120</v>
       </c>
       <c r="G51" t="n">
-        <v>1360.768807173004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2342,24 +2133,15 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>1371.768807173004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2381,24 +2163,15 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>1360.768807173004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2420,24 +2193,15 @@
         <v>97.4688</v>
       </c>
       <c r="G54" t="n">
-        <v>1458.237607173005</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2459,24 +2223,15 @@
         <v>25562.346</v>
       </c>
       <c r="G55" t="n">
-        <v>-24104.108392827</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2498,24 +2253,15 @@
         <v>2888</v>
       </c>
       <c r="G56" t="n">
-        <v>-21216.108392827</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2537,24 +2283,15 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>-21205.108392827</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2576,24 +2313,15 @@
         <v>2065.39</v>
       </c>
       <c r="G58" t="n">
-        <v>-19139.718392827</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2615,24 +2343,15 @@
         <v>21.9563</v>
       </c>
       <c r="G59" t="n">
-        <v>-19117.762092827</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2654,24 +2373,15 @@
         <v>2530.0175</v>
       </c>
       <c r="G60" t="n">
-        <v>-19117.762092827</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2693,24 +2403,15 @@
         <v>1183</v>
       </c>
       <c r="G61" t="n">
-        <v>-19117.762092827</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2732,24 +2433,15 @@
         <v>4674.2925</v>
       </c>
       <c r="G62" t="n">
-        <v>-14443.469592827</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2771,24 +2463,15 @@
         <v>98313.56050000001</v>
       </c>
       <c r="G63" t="n">
-        <v>83870.09090717301</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2810,24 +2493,15 @@
         <v>3363</v>
       </c>
       <c r="G64" t="n">
-        <v>83870.09090717301</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2849,24 +2523,15 @@
         <v>6537</v>
       </c>
       <c r="G65" t="n">
-        <v>90407.09090717301</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2888,24 +2553,15 @@
         <v>15184.5368</v>
       </c>
       <c r="G66" t="n">
-        <v>75222.55410717301</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2927,24 +2583,15 @@
         <v>29018.2855</v>
       </c>
       <c r="G67" t="n">
-        <v>104240.839607173</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2966,24 +2613,15 @@
         <v>3814.6923</v>
       </c>
       <c r="G68" t="n">
-        <v>108055.531907173</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3005,24 +2643,15 @@
         <v>6427.0905</v>
       </c>
       <c r="G69" t="n">
-        <v>101628.441407173</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3044,24 +2673,15 @@
         <v>21909.7908</v>
       </c>
       <c r="G70" t="n">
-        <v>123538.232207173</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3083,24 +2703,15 @@
         <v>21860.2551</v>
       </c>
       <c r="G71" t="n">
-        <v>145398.487307173</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3122,24 +2733,15 @@
         <v>3.391</v>
       </c>
       <c r="G72" t="n">
-        <v>145398.487307173</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3161,24 +2763,15 @@
         <v>10.5799</v>
       </c>
       <c r="G73" t="n">
-        <v>145398.487307173</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3200,24 +2793,15 @@
         <v>9102.762500000001</v>
       </c>
       <c r="G74" t="n">
-        <v>136295.724807173</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3239,24 +2823,15 @@
         <v>9917.6854</v>
       </c>
       <c r="G75" t="n">
-        <v>126378.039407173</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3278,24 +2853,15 @@
         <v>6250</v>
       </c>
       <c r="G76" t="n">
-        <v>132628.039407173</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3317,24 +2883,15 @@
         <v>47746.4164</v>
       </c>
       <c r="G77" t="n">
-        <v>84881.623007173</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3356,24 +2913,15 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>84892.623007173</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3395,24 +2943,15 @@
         <v>3000</v>
       </c>
       <c r="G79" t="n">
-        <v>81892.623007173</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3434,24 +2973,15 @@
         <v>22231</v>
       </c>
       <c r="G80" t="n">
-        <v>104123.623007173</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3473,24 +3003,15 @@
         <v>111</v>
       </c>
       <c r="G81" t="n">
-        <v>104234.623007173</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3512,24 +3033,15 @@
         <v>5116.8509</v>
       </c>
       <c r="G82" t="n">
-        <v>104234.623007173</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3551,24 +3063,15 @@
         <v>20819.6684</v>
       </c>
       <c r="G83" t="n">
-        <v>125054.291407173</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3590,24 +3093,15 @@
         <v>3712.7859</v>
       </c>
       <c r="G84" t="n">
-        <v>121341.505507173</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3629,24 +3123,15 @@
         <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>121329.505507173</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3668,24 +3153,15 @@
         <v>11.8334</v>
       </c>
       <c r="G86" t="n">
-        <v>121341.338907173</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3707,24 +3183,15 @@
         <v>72</v>
       </c>
       <c r="G87" t="n">
-        <v>121269.338907173</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3746,24 +3213,15 @@
         <v>19230.0765</v>
       </c>
       <c r="G88" t="n">
-        <v>102039.262407173</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3785,24 +3243,15 @@
         <v>36046.2578</v>
       </c>
       <c r="G89" t="n">
-        <v>138085.520207173</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3824,24 +3273,15 @@
         <v>26230.6578</v>
       </c>
       <c r="G90" t="n">
-        <v>164316.178007173</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3863,24 +3303,15 @@
         <v>10101.3863</v>
       </c>
       <c r="G91" t="n">
-        <v>154214.791707173</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3902,24 +3333,15 @@
         <v>400</v>
       </c>
       <c r="G92" t="n">
-        <v>154614.791707173</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3941,24 +3363,15 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>154625.791707173</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3980,24 +3393,15 @@
         <v>22</v>
       </c>
       <c r="G94" t="n">
-        <v>154603.791707173</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4019,24 +3423,15 @@
         <v>1681</v>
       </c>
       <c r="G95" t="n">
-        <v>152922.791707173</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4058,24 +3453,15 @@
         <v>1111</v>
       </c>
       <c r="G96" t="n">
-        <v>154033.791707173</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4097,24 +3483,15 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>153933.791707173</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4136,24 +3513,15 @@
         <v>44.4444</v>
       </c>
       <c r="G98" t="n">
-        <v>153933.791707173</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4175,24 +3543,15 @@
         <v>4033.8157</v>
       </c>
       <c r="G99" t="n">
-        <v>157967.607407173</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4214,24 +3573,15 @@
         <v>19913.2477</v>
       </c>
       <c r="G100" t="n">
-        <v>177880.855107173</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4253,24 +3603,15 @@
         <v>243.5699</v>
       </c>
       <c r="G101" t="n">
-        <v>177637.285207173</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4292,24 +3633,15 @@
         <v>7597</v>
       </c>
       <c r="G102" t="n">
-        <v>170040.285207173</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4331,24 +3663,15 @@
         <v>6907.291</v>
       </c>
       <c r="G103" t="n">
-        <v>163132.994207173</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4370,24 +3693,15 @@
         <v>22</v>
       </c>
       <c r="G104" t="n">
-        <v>163154.994207173</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4409,24 +3723,15 @@
         <v>22</v>
       </c>
       <c r="G105" t="n">
-        <v>163176.994207173</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4448,24 +3753,15 @@
         <v>6178</v>
       </c>
       <c r="G106" t="n">
-        <v>156998.994207173</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4487,24 +3783,15 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>156998.994207173</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4526,24 +3813,15 @@
         <v>33</v>
       </c>
       <c r="G108" t="n">
-        <v>156965.994207173</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4565,24 +3843,15 @@
         <v>89</v>
       </c>
       <c r="G109" t="n">
-        <v>156876.994207173</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4604,24 +3873,15 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>156887.994207173</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4643,24 +3903,15 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>156898.994207173</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4682,24 +3933,15 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>156909.994207173</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4721,24 +3963,15 @@
         <v>22</v>
       </c>
       <c r="G113" t="n">
-        <v>156931.994207173</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4760,24 +3993,15 @@
         <v>18</v>
       </c>
       <c r="G114" t="n">
-        <v>156931.994207173</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4799,24 +4023,15 @@
         <v>5582.0273</v>
       </c>
       <c r="G115" t="n">
-        <v>151349.966907173</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4838,24 +4053,15 @@
         <v>5592.3639</v>
       </c>
       <c r="G116" t="n">
-        <v>156942.330807173</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4877,24 +4083,15 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>156953.330807173</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4916,24 +4113,15 @@
         <v>126</v>
       </c>
       <c r="G118" t="n">
-        <v>156827.330807173</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4955,24 +4143,15 @@
         <v>111</v>
       </c>
       <c r="G119" t="n">
-        <v>156938.330807173</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4994,24 +4173,15 @@
         <v>11</v>
       </c>
       <c r="G120" t="n">
-        <v>156927.330807173</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5033,24 +4203,15 @@
         <v>488</v>
       </c>
       <c r="G121" t="n">
-        <v>156439.330807173</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5072,24 +4233,15 @@
         <v>33</v>
       </c>
       <c r="G122" t="n">
-        <v>156406.330807173</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5111,24 +4263,15 @@
         <v>77</v>
       </c>
       <c r="G123" t="n">
-        <v>156483.330807173</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5150,24 +4293,15 @@
         <v>340</v>
       </c>
       <c r="G124" t="n">
-        <v>156143.330807173</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5189,24 +4323,15 @@
         <v>532.7226000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>156676.053407173</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5228,24 +4353,15 @@
         <v>54</v>
       </c>
       <c r="G126" t="n">
-        <v>156730.053407173</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5267,24 +4383,15 @@
         <v>3419</v>
       </c>
       <c r="G127" t="n">
-        <v>160149.053407173</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5306,24 +4413,15 @@
         <v>900</v>
       </c>
       <c r="G128" t="n">
-        <v>161049.053407173</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5345,24 +4443,15 @@
         <v>121</v>
       </c>
       <c r="G129" t="n">
-        <v>160928.053407173</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5384,24 +4473,15 @@
         <v>51435.137</v>
       </c>
       <c r="G130" t="n">
-        <v>212363.190407173</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5423,24 +4503,15 @@
         <v>15</v>
       </c>
       <c r="G131" t="n">
-        <v>212348.190407173</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5462,24 +4533,15 @@
         <v>2636.5135</v>
       </c>
       <c r="G132" t="n">
-        <v>214984.703907173</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5501,24 +4563,15 @@
         <v>4731.565</v>
       </c>
       <c r="G133" t="n">
-        <v>219716.268907173</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5540,24 +4593,15 @@
         <v>818.6838</v>
       </c>
       <c r="G134" t="n">
-        <v>219716.268907173</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5579,24 +4623,15 @@
         <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>219716.268907173</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5618,24 +4653,15 @@
         <v>7604.5639</v>
       </c>
       <c r="G136" t="n">
-        <v>212111.705007173</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5657,24 +4683,15 @@
         <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>212122.705007173</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5696,24 +4713,15 @@
         <v>44</v>
       </c>
       <c r="G138" t="n">
-        <v>212078.705007173</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5735,24 +4743,15 @@
         <v>111</v>
       </c>
       <c r="G139" t="n">
-        <v>212189.705007173</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5774,24 +4773,15 @@
         <v>2563.8881</v>
       </c>
       <c r="G140" t="n">
-        <v>214753.593107173</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5813,24 +4803,15 @@
         <v>3733</v>
       </c>
       <c r="G141" t="n">
-        <v>211020.593107173</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5852,24 +4833,15 @@
         <v>1364.4001</v>
       </c>
       <c r="G142" t="n">
-        <v>212384.993207173</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5891,24 +4863,15 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>212395.993207173</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5930,24 +4893,15 @@
         <v>3568</v>
       </c>
       <c r="G144" t="n">
-        <v>208827.993207173</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5969,24 +4923,15 @@
         <v>18944.4137</v>
       </c>
       <c r="G145" t="n">
-        <v>189883.579507173</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6008,24 +4953,15 @@
         <v>51.9831</v>
       </c>
       <c r="G146" t="n">
-        <v>189831.596407173</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6047,24 +4983,15 @@
         <v>962.2654</v>
       </c>
       <c r="G147" t="n">
-        <v>188869.331007173</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6086,24 +5013,15 @@
         <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>188858.331007173</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6125,24 +5043,15 @@
         <v>1423.4978</v>
       </c>
       <c r="G149" t="n">
-        <v>187434.833207173</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6164,24 +5073,15 @@
         <v>192.2148</v>
       </c>
       <c r="G150" t="n">
-        <v>187242.618407173</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6203,24 +5103,15 @@
         <v>18128.2934</v>
       </c>
       <c r="G151" t="n">
-        <v>169114.325007173</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6242,24 +5133,15 @@
         <v>1465.4263</v>
       </c>
       <c r="G152" t="n">
-        <v>167648.898707173</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6281,24 +5163,15 @@
         <v>818.6838</v>
       </c>
       <c r="G153" t="n">
-        <v>167648.898707173</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6320,24 +5193,15 @@
         <v>2962.2797</v>
       </c>
       <c r="G154" t="n">
-        <v>170611.178407173</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6359,24 +5223,15 @@
         <v>16048.9489</v>
       </c>
       <c r="G155" t="n">
-        <v>170611.178407173</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6398,24 +5253,15 @@
         <v>4001</v>
       </c>
       <c r="G156" t="n">
-        <v>174612.178407173</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6437,24 +5283,15 @@
         <v>304</v>
       </c>
       <c r="G157" t="n">
-        <v>174612.178407173</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6476,24 +5313,15 @@
         <v>20353.9489</v>
       </c>
       <c r="G158" t="n">
-        <v>154258.229507173</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6515,24 +5343,15 @@
         <v>30</v>
       </c>
       <c r="G159" t="n">
-        <v>154228.229507173</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6554,24 +5373,15 @@
         <v>800</v>
       </c>
       <c r="G160" t="n">
-        <v>153428.229507173</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6593,24 +5403,15 @@
         <v>25.7903</v>
       </c>
       <c r="G161" t="n">
-        <v>153454.019807173</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6632,24 +5433,15 @@
         <v>3680.8313</v>
       </c>
       <c r="G162" t="n">
-        <v>153454.019807173</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6671,24 +5463,15 @@
         <v>9021.839400000001</v>
       </c>
       <c r="G163" t="n">
-        <v>153454.019807173</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6710,24 +5493,15 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>153465.019807173</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6749,24 +5523,15 @@
         <v>6943.1207</v>
       </c>
       <c r="G165" t="n">
-        <v>160408.140507173</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6788,24 +5553,15 @@
         <v>4937.0478</v>
       </c>
       <c r="G166" t="n">
-        <v>165345.188307173</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6827,24 +5583,15 @@
         <v>8345.9522</v>
       </c>
       <c r="G167" t="n">
-        <v>165345.188307173</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6866,24 +5613,15 @@
         <v>793.3421</v>
       </c>
       <c r="G168" t="n">
-        <v>164551.846207173</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6905,24 +5643,15 @@
         <v>894.8159000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>164551.846207173</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6944,24 +5673,15 @@
         <v>1455.2242</v>
       </c>
       <c r="G170" t="n">
-        <v>166007.070407173</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6983,24 +5703,15 @@
         <v>1073.6413</v>
       </c>
       <c r="G171" t="n">
-        <v>164933.429107173</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7022,24 +5733,15 @@
         <v>1319.2072</v>
       </c>
       <c r="G172" t="n">
-        <v>166252.636307173</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7061,24 +5763,15 @@
         <v>3000</v>
       </c>
       <c r="G173" t="n">
-        <v>166252.636307173</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7100,24 +5793,15 @@
         <v>15661.8751</v>
       </c>
       <c r="G174" t="n">
-        <v>181914.511407173</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7139,24 +5823,15 @@
         <v>100</v>
       </c>
       <c r="G175" t="n">
-        <v>181814.511407173</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7178,24 +5853,15 @@
         <v>844.0572</v>
       </c>
       <c r="G176" t="n">
-        <v>181814.511407173</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7217,24 +5883,15 @@
         <v>759.8619</v>
       </c>
       <c r="G177" t="n">
-        <v>181814.511407173</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7256,24 +5913,15 @@
         <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>181714.511407173</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7295,24 +5943,15 @@
         <v>17335.9909</v>
       </c>
       <c r="G179" t="n">
-        <v>181714.511407173</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7334,24 +5973,15 @@
         <v>742.1754</v>
       </c>
       <c r="G180" t="n">
-        <v>181714.511407173</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7373,24 +6003,15 @@
         <v>904.9109</v>
       </c>
       <c r="G181" t="n">
-        <v>180809.600507173</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7412,24 +6033,15 @@
         <v>503.212</v>
       </c>
       <c r="G182" t="n">
-        <v>180809.600507173</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7451,24 +6063,15 @@
         <v>17652.7113</v>
       </c>
       <c r="G183" t="n">
-        <v>163156.8892071731</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7490,24 +6093,15 @@
         <v>82</v>
       </c>
       <c r="G184" t="n">
-        <v>163074.8892071731</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7529,24 +6123,15 @@
         <v>2023.9029</v>
       </c>
       <c r="G185" t="n">
-        <v>163074.8892071731</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7568,24 +6153,15 @@
         <v>800</v>
       </c>
       <c r="G186" t="n">
-        <v>163874.8892071731</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7607,24 +6183,15 @@
         <v>1169.1713</v>
       </c>
       <c r="G187" t="n">
-        <v>163874.8892071731</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7646,24 +6213,15 @@
         <v>4842.8952</v>
       </c>
       <c r="G188" t="n">
-        <v>168717.7844071731</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7685,24 +6243,15 @@
         <v>13555.4786</v>
       </c>
       <c r="G189" t="n">
-        <v>182273.2630071731</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7724,24 +6273,15 @@
         <v>90.6262</v>
       </c>
       <c r="G190" t="n">
-        <v>182273.2630071731</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7763,26 +6303,15 @@
         <v>1200</v>
       </c>
       <c r="G191" t="n">
-        <v>182273.2630071731</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1.056052631578947</v>
-      </c>
-      <c r="M191" t="n">
-        <v>1.025641025641026</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7804,18 +6333,15 @@
         <v>4792.3496</v>
       </c>
       <c r="G192" t="n">
-        <v>182273.2630071731</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7837,18 +6363,15 @@
         <v>1409.555</v>
       </c>
       <c r="G193" t="n">
-        <v>183682.818007173</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7870,18 +6393,15 @@
         <v>503.4447</v>
       </c>
       <c r="G194" t="n">
-        <v>183179.3733071731</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7903,18 +6423,15 @@
         <v>200</v>
       </c>
       <c r="G195" t="n">
-        <v>182979.3733071731</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7936,18 +6453,15 @@
         <v>100</v>
       </c>
       <c r="G196" t="n">
-        <v>182879.3733071731</v>
-      </c>
-      <c r="H196" t="n">
         <v>2</v>
       </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7969,18 +6483,15 @@
         <v>6300</v>
       </c>
       <c r="G197" t="n">
-        <v>176579.3733071731</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8002,18 +6513,15 @@
         <v>2420.2245</v>
       </c>
       <c r="G198" t="n">
-        <v>174159.148807173</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8035,18 +6543,15 @@
         <v>3427.8212</v>
       </c>
       <c r="G199" t="n">
-        <v>174159.148807173</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8068,18 +6573,15 @@
         <v>1372.1788</v>
       </c>
       <c r="G200" t="n">
-        <v>174159.148807173</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8101,18 +6603,15 @@
         <v>496</v>
       </c>
       <c r="G201" t="n">
-        <v>174655.148807173</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8134,18 +6633,15 @@
         <v>2997</v>
       </c>
       <c r="G202" t="n">
-        <v>171658.148807173</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8167,18 +6663,15 @@
         <v>19142.9134</v>
       </c>
       <c r="G203" t="n">
-        <v>171658.148807173</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8200,18 +6693,15 @@
         <v>9749.144700000001</v>
       </c>
       <c r="G204" t="n">
-        <v>171658.148807173</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8233,18 +6723,15 @@
         <v>5652</v>
       </c>
       <c r="G205" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8266,18 +6753,15 @@
         <v>83</v>
       </c>
       <c r="G206" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8299,18 +6783,15 @@
         <v>1900</v>
       </c>
       <c r="G207" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8332,18 +6813,15 @@
         <v>447.4079</v>
       </c>
       <c r="G208" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8365,18 +6843,15 @@
         <v>100</v>
       </c>
       <c r="G209" t="n">
-        <v>177310.148807173</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8398,18 +6873,15 @@
         <v>266.1145</v>
       </c>
       <c r="G210" t="n">
-        <v>177576.263307173</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8431,18 +6903,15 @@
         <v>25000</v>
       </c>
       <c r="G211" t="n">
-        <v>152576.263307173</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8464,18 +6933,15 @@
         <v>5053.9927</v>
       </c>
       <c r="G212" t="n">
-        <v>147522.270607173</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8497,18 +6963,15 @@
         <v>1000</v>
       </c>
       <c r="G213" t="n">
-        <v>148522.270607173</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8530,18 +6993,15 @@
         <v>900</v>
       </c>
       <c r="G214" t="n">
-        <v>149422.270607173</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8563,18 +7023,15 @@
         <v>5267.2498</v>
       </c>
       <c r="G215" t="n">
-        <v>154689.520407173</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8596,18 +7053,15 @@
         <v>18</v>
       </c>
       <c r="G216" t="n">
-        <v>154671.520407173</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8629,18 +7083,15 @@
         <v>22</v>
       </c>
       <c r="G217" t="n">
-        <v>154693.520407173</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8662,18 +7113,15 @@
         <v>447.408</v>
       </c>
       <c r="G218" t="n">
-        <v>154246.112407173</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8695,18 +7143,15 @@
         <v>2000</v>
       </c>
       <c r="G219" t="n">
-        <v>154246.112407173</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8728,18 +7173,15 @@
         <v>136.5265</v>
       </c>
       <c r="G220" t="n">
-        <v>154382.638907173</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8761,18 +7203,15 @@
         <v>129.9787</v>
       </c>
       <c r="G221" t="n">
-        <v>154252.660207173</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8794,18 +7233,15 @@
         <v>17493.4956</v>
       </c>
       <c r="G222" t="n">
-        <v>136759.164607173</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8827,18 +7263,15 @@
         <v>4000</v>
       </c>
       <c r="G223" t="n">
-        <v>132759.164607173</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8860,18 +7293,15 @@
         <v>1257.9675</v>
       </c>
       <c r="G224" t="n">
-        <v>134017.132107173</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8893,18 +7323,15 @@
         <v>14</v>
       </c>
       <c r="G225" t="n">
-        <v>134017.132107173</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8926,18 +7353,15 @@
         <v>742.1754</v>
       </c>
       <c r="G226" t="n">
-        <v>133274.956707173</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8959,18 +7383,15 @@
         <v>1476.1303</v>
       </c>
       <c r="G227" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8992,18 +7413,15 @@
         <v>1046.2846</v>
       </c>
       <c r="G228" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9025,18 +7443,15 @@
         <v>52.489</v>
       </c>
       <c r="G229" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9058,18 +7473,15 @@
         <v>5174.3933</v>
       </c>
       <c r="G230" t="n">
-        <v>134751.087007173</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9091,18 +7503,15 @@
         <v>6000</v>
       </c>
       <c r="G231" t="n">
-        <v>128751.087007173</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9124,18 +7533,15 @@
         <v>1249.6458</v>
       </c>
       <c r="G232" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9157,18 +7563,15 @@
         <v>2500</v>
       </c>
       <c r="G233" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9190,18 +7593,15 @@
         <v>1745</v>
       </c>
       <c r="G234" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9223,18 +7623,15 @@
         <v>2208</v>
       </c>
       <c r="G235" t="n">
-        <v>130000.732807173</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9256,18 +7653,15 @@
         <v>59211.5777</v>
       </c>
       <c r="G236" t="n">
-        <v>189212.310507173</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9289,18 +7683,15 @@
         <v>145066.2801</v>
       </c>
       <c r="G237" t="n">
-        <v>334278.590607173</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9322,18 +7713,15 @@
         <v>72508.5998</v>
       </c>
       <c r="G238" t="n">
-        <v>406787.190407173</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9355,18 +7743,15 @@
         <v>998.5</v>
       </c>
       <c r="G239" t="n">
-        <v>405788.690407173</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9388,18 +7773,15 @@
         <v>11</v>
       </c>
       <c r="G240" t="n">
-        <v>405799.690407173</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
